--- a/Data/Matt's calculations.xlsx
+++ b/Data/Matt's calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Tan\Documents\GitHub\soiSMA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54CC7C64-D894-4B6C-A220-D85102350A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB04BA6-977D-419A-B838-62350AA98FE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7650" windowWidth="29040" windowHeight="15840" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,9 +36,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="113">
-  <si>
-    <t xml:space="preserve">Labour costs are 10 dollars an hour for cashiers and 12 dollars for cooks per hour </t>
-  </si>
   <si>
     <t xml:space="preserve">So the food costs are not subject to change </t>
   </si>
@@ -377,6 +372,9 @@
   <si>
     <t>Monthly traffic</t>
   </si>
+  <si>
+    <t xml:space="preserve">Assumption: Labour costs are 10 dollars an hour for cashiers and 12 dollars for cooks per hour </t>
+  </si>
 </sst>
 </file>
 
@@ -696,9 +694,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,9 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,9 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,7 +761,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4286,31 +4284,31 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4326,121 +4324,121 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ3" s="12"/>
+      <c r="AJ3" s="43"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -4487,12 +4485,12 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
-        <f>VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" ref="C4:C10" si="0">VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
         <v>200</v>
       </c>
       <c r="D4" s="2">
@@ -4527,23 +4525,23 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f>SUMPRODUCT(C4:M4,$C$31:$M$31)</f>
+        <f t="shared" ref="N4:N29" si="1">SUMPRODUCT(C4:M4,$C$31:$M$31)</f>
         <v>343040</v>
       </c>
       <c r="O4" s="9">
-        <f>VLOOKUP(B4,$S$4:$V$29,4,FALSE)*N4</f>
+        <f t="shared" ref="O4:O29" si="2">VLOOKUP(B4,$S$4:$V$29,4,FALSE)*N4</f>
         <v>6174.7200000000012</v>
       </c>
       <c r="P4" s="8">
-        <f>O4/15</f>
+        <f t="shared" ref="P4:P29" si="3">O4/15</f>
         <v>411.64800000000008</v>
       </c>
       <c r="Q4" s="7">
-        <f>P4/$P$32</f>
+        <f t="shared" ref="Q4:Q29" si="4">P4/$P$32</f>
         <v>0.11993626404749209</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T4" s="5">
         <v>1000</v>
@@ -4552,17 +4550,17 @@
         <v>5</v>
       </c>
       <c r="V4" s="3">
-        <f>U4/T4</f>
+        <f t="shared" ref="V4:V29" si="5">U4/T4</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE4">
         <v>200</v>
@@ -4573,66 +4571,66 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
       <c r="AK4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AY4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:53" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <f>VLOOKUP($B5,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D5" s="2">
@@ -4654,7 +4652,7 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="2">
-        <f>VLOOKUP($B5,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" ref="I5:I10" si="6">VLOOKUP($B5,$AD$43:$AE$49,2,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="J5" s="2">
@@ -4673,23 +4671,23 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="2">
-        <f>SUMPRODUCT(C5:M5,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>6191</v>
       </c>
       <c r="O5" s="9">
-        <f>VLOOKUP(B5,$S$4:$V$29,4,FALSE)*N5</f>
+        <f t="shared" si="2"/>
         <v>1238.2</v>
       </c>
       <c r="P5" s="8">
-        <f>O5/15</f>
+        <f t="shared" si="3"/>
         <v>82.546666666666667</v>
       </c>
       <c r="Q5" s="7">
-        <f>P5/$P$32</f>
+        <f t="shared" si="4"/>
         <v>2.4050496563990702E-2</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -4698,11 +4696,11 @@
         <v>0.2</v>
       </c>
       <c r="V5" s="3">
-        <f>U5/T5</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="AD5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE5">
         <v>0.5</v>
@@ -4711,10 +4709,10 @@
         <v>0.1</v>
       </c>
       <c r="AI5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -4762,20 +4760,20 @@
         <v>107</v>
       </c>
       <c r="AZ5">
-        <f>SUM(AK5:AY5)</f>
+        <f t="shared" ref="AZ5:AZ15" si="7">SUM(AK5:AY5)</f>
         <v>982</v>
       </c>
       <c r="BA5">
-        <f>AVERAGE(AK5:AY5)</f>
+        <f t="shared" ref="BA5:BA15" si="8">AVERAGE(AK5:AY5)</f>
         <v>65.466666666666669</v>
       </c>
     </row>
-    <row r="6" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
-        <f>VLOOKUP($B6,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D6" s="2">
@@ -4796,7 +4794,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2">
-        <f>VLOOKUP($B6,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="J6" s="2">
@@ -4812,23 +4810,23 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <f>SUMPRODUCT(C6:M6,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>108570</v>
       </c>
       <c r="O6" s="9">
-        <f>VLOOKUP(B6,$S$4:$V$29,4,FALSE)*N6</f>
+        <f t="shared" si="2"/>
         <v>542.85</v>
       </c>
       <c r="P6" s="8">
-        <f>O6/15</f>
+        <f t="shared" si="3"/>
         <v>36.190000000000005</v>
       </c>
       <c r="Q6" s="7">
-        <f>P6/$P$32</f>
+        <f t="shared" si="4"/>
         <v>1.0544186770927439E-2</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="5">
         <v>100</v>
@@ -4837,11 +4835,11 @@
         <v>1.8</v>
       </c>
       <c r="V6" s="3">
-        <f>U6/T6</f>
+        <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE6">
         <v>15</v>
@@ -4850,10 +4848,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK6">
         <v>121</v>
@@ -4901,20 +4899,20 @@
         <v>202</v>
       </c>
       <c r="AZ6">
-        <f>SUM(AK6:AY6)</f>
+        <f t="shared" si="7"/>
         <v>3043</v>
       </c>
       <c r="BA6">
-        <f>AVERAGE(AK6:AY6)</f>
+        <f t="shared" si="8"/>
         <v>202.86666666666667</v>
       </c>
     </row>
-    <row r="7" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
-        <f>VLOOKUP($B7,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D7" s="2">
@@ -4935,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="2">
-        <f>VLOOKUP($B7,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -4951,23 +4949,23 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <f>SUMPRODUCT(C7:M7,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>59130</v>
       </c>
       <c r="O7" s="9">
-        <f>VLOOKUP(B7,$S$4:$V$29,4,FALSE)*N7</f>
+        <f t="shared" si="2"/>
         <v>236.52</v>
       </c>
       <c r="P7" s="8">
-        <f>O7/15</f>
+        <f t="shared" si="3"/>
         <v>15.768000000000001</v>
       </c>
       <c r="Q7" s="7">
-        <f>P7/$P$32</f>
+        <f t="shared" si="4"/>
         <v>4.5941071291512531E-3</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T7" s="5">
         <v>100</v>
@@ -4976,11 +4974,11 @@
         <v>0.5</v>
       </c>
       <c r="V7" s="3">
-        <f>U7/T7</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE7">
         <v>10</v>
@@ -4989,10 +4987,10 @@
         <v>0.04</v>
       </c>
       <c r="AI7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK7">
         <v>503</v>
@@ -5040,20 +5038,20 @@
         <v>388</v>
       </c>
       <c r="AZ7">
-        <f>SUM(AK7:AY7)</f>
+        <f t="shared" si="7"/>
         <v>5716</v>
       </c>
       <c r="BA7">
-        <f>AVERAGE(AK7:AY7)</f>
+        <f t="shared" si="8"/>
         <v>381.06666666666666</v>
       </c>
     </row>
-    <row r="8" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
-        <f>VLOOKUP($B8,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="D8" s="2">
@@ -5073,7 +5071,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="2">
-        <f>VLOOKUP($B8,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J8" s="2">
@@ -5089,23 +5087,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <f>SUMPRODUCT(C8:M8,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>961200</v>
       </c>
       <c r="O8" s="9">
-        <f>VLOOKUP(B8,$S$4:$V$29,4,FALSE)*N8</f>
+        <f t="shared" si="2"/>
         <v>3844.8</v>
       </c>
       <c r="P8" s="8">
-        <f>O8/15</f>
+        <f t="shared" si="3"/>
         <v>256.32</v>
       </c>
       <c r="Q8" s="7">
-        <f>P8/$P$32</f>
+        <f t="shared" si="4"/>
         <v>7.4680462921362822E-2</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T8" s="5">
         <v>1000</v>
@@ -5114,11 +5112,11 @@
         <v>3.5</v>
       </c>
       <c r="V8" s="3">
-        <f>U8/T8</f>
+        <f t="shared" si="5"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE8">
         <v>200</v>
@@ -5127,10 +5125,10 @@
         <v>0.8</v>
       </c>
       <c r="AI8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK8">
         <v>115</v>
@@ -5178,20 +5176,20 @@
         <v>61</v>
       </c>
       <c r="AZ8">
-        <f>SUM(AK8:AY8)</f>
+        <f t="shared" si="7"/>
         <v>1217</v>
       </c>
       <c r="BA8">
-        <f>AVERAGE(AK8:AY8)</f>
+        <f t="shared" si="8"/>
         <v>81.13333333333334</v>
       </c>
     </row>
-    <row r="9" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f>VLOOKUP($B9,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D9" s="2">
@@ -5213,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>VLOOKUP($B9,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J9" s="2">
@@ -5231,23 +5229,23 @@
         <v>40</v>
       </c>
       <c r="N9" s="2">
-        <f>SUMPRODUCT(C9:M9,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>519960</v>
       </c>
       <c r="O9" s="9">
-        <f>VLOOKUP(B9,$S$4:$V$29,4,FALSE)*N9</f>
+        <f t="shared" si="2"/>
         <v>5199.6000000000004</v>
       </c>
       <c r="P9" s="8">
-        <f>O9/15</f>
+        <f t="shared" si="3"/>
         <v>346.64000000000004</v>
       </c>
       <c r="Q9" s="7">
-        <f>P9/$P$32</f>
+        <f t="shared" si="4"/>
         <v>0.10099576961244232</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T9" s="5">
         <v>1000</v>
@@ -5256,11 +5254,11 @@
         <v>2</v>
       </c>
       <c r="V9" s="3">
-        <f>U9/T9</f>
+        <f t="shared" si="5"/>
         <v>2E-3</v>
       </c>
       <c r="AD9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>20</v>
@@ -5269,10 +5267,10 @@
         <v>0.2</v>
       </c>
       <c r="AI9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -5320,24 +5318,24 @@
         <v>201</v>
       </c>
       <c r="AZ9">
-        <f>SUM(AK9:AY9)</f>
+        <f t="shared" si="7"/>
         <v>1107</v>
       </c>
       <c r="BA9">
-        <f>AVERAGE(AK9:AY9)</f>
+        <f t="shared" si="8"/>
         <v>73.8</v>
       </c>
     </row>
-    <row r="10" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f>VLOOKUP($B10,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D10" s="2">
-        <f>VLOOKUP($B10,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" ref="D10:D15" si="9">VLOOKUP($B10,$AD$11:$AE$18,2,FALSE)</f>
         <v>80</v>
       </c>
       <c r="E10" s="2">
@@ -5357,7 +5355,7 @@
         <v>80</v>
       </c>
       <c r="I10" s="2">
-        <f>VLOOKUP($B10,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="J10" s="2">
@@ -5376,23 +5374,23 @@
         <v>80</v>
       </c>
       <c r="N10" s="2">
-        <f>SUMPRODUCT(C10:M10,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>1648720</v>
       </c>
       <c r="O10" s="9">
-        <f>VLOOKUP(B10,$S$4:$V$29,4,FALSE)*N10</f>
+        <f t="shared" si="2"/>
         <v>6594.88</v>
       </c>
       <c r="P10" s="8">
-        <f>O10/15</f>
+        <f t="shared" si="3"/>
         <v>439.65866666666665</v>
       </c>
       <c r="Q10" s="7">
-        <f>P10/$P$32</f>
+        <f t="shared" si="4"/>
         <v>0.12809735000802053</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" s="5">
         <v>1000</v>
@@ -5401,11 +5399,11 @@
         <v>3.5</v>
       </c>
       <c r="V10" s="3">
-        <f>U10/T10</f>
+        <f t="shared" si="5"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE10">
         <v>80</v>
@@ -5414,10 +5412,10 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="AI10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK10">
         <v>300</v>
@@ -5465,25 +5463,25 @@
         <v>48</v>
       </c>
       <c r="AZ10">
-        <f>SUM(AK10:AY10)</f>
+        <f t="shared" si="7"/>
         <v>1833</v>
       </c>
       <c r="BA10">
-        <f>AVERAGE(AK10:AY10)</f>
+        <f t="shared" si="8"/>
         <v>122.2</v>
       </c>
     </row>
-    <row r="11" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <f>VLOOKUP($B11,$AD$11:$AE$18,2,FALSE)</f>
-        <v>50</v>
-      </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -5512,23 +5510,23 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUMPRODUCT(C11:M11,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>152150</v>
       </c>
       <c r="O11" s="9">
-        <f>VLOOKUP(B11,$S$4:$V$29,4,FALSE)*N11</f>
+        <f t="shared" si="2"/>
         <v>760.75</v>
       </c>
       <c r="P11" s="8">
-        <f>O11/15</f>
+        <f t="shared" si="3"/>
         <v>50.716666666666669</v>
       </c>
       <c r="Q11" s="7">
-        <f>P11/$P$32</f>
+        <f t="shared" si="4"/>
         <v>1.4776623535015286E-2</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11" s="5">
         <v>100</v>
@@ -5537,17 +5535,17 @@
         <v>0.4</v>
       </c>
       <c r="V11" s="3">
-        <f>U11/T11</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE11">
         <v>50</v>
@@ -5559,10 +5557,10 @@
         <v>1.0385000000000002</v>
       </c>
       <c r="AI11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK11">
         <v>302</v>
@@ -5610,23 +5608,23 @@
         <v>52</v>
       </c>
       <c r="AZ11">
-        <f>SUM(AK11:AY11)</f>
+        <f t="shared" si="7"/>
         <v>1991</v>
       </c>
       <c r="BA11">
-        <f>AVERAGE(AK11:AY11)</f>
+        <f t="shared" si="8"/>
         <v>132.73333333333332</v>
       </c>
     </row>
-    <row r="12" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>VLOOKUP($B12,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="E12" s="2">
@@ -5657,23 +5655,23 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <f>SUMPRODUCT(C12:M12,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>91290</v>
       </c>
       <c r="O12" s="9">
-        <f>VLOOKUP(B12,$S$4:$V$29,4,FALSE)*N12</f>
+        <f t="shared" si="2"/>
         <v>319.51499999999999</v>
       </c>
       <c r="P12" s="8">
-        <f>O12/15</f>
+        <f t="shared" si="3"/>
         <v>21.300999999999998</v>
       </c>
       <c r="Q12" s="7">
-        <f>P12/$P$32</f>
+        <f t="shared" si="4"/>
         <v>6.20618188470642E-3</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12" s="5">
         <v>100</v>
@@ -5682,11 +5680,11 @@
         <v>1</v>
       </c>
       <c r="V12" s="3">
-        <f>U12/T12</f>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="AD12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12">
         <v>0.5</v>
@@ -5695,10 +5693,10 @@
         <v>0.1</v>
       </c>
       <c r="AI12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12">
         <v>206</v>
@@ -5746,23 +5744,23 @@
         <v>77</v>
       </c>
       <c r="AZ12">
-        <f>SUM(AK12:AY12)</f>
+        <f t="shared" si="7"/>
         <v>1670</v>
       </c>
       <c r="BA12">
-        <f>AVERAGE(AK12:AY12)</f>
+        <f t="shared" si="8"/>
         <v>111.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>VLOOKUP($B13,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="E13" s="2">
@@ -5794,23 +5792,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f>SUMPRODUCT(C13:M13,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>175180</v>
       </c>
       <c r="O13" s="9">
-        <f>VLOOKUP(B13,$S$4:$V$29,4,FALSE)*N13</f>
+        <f t="shared" si="2"/>
         <v>350.36</v>
       </c>
       <c r="P13" s="8">
-        <f>O13/15</f>
+        <f t="shared" si="3"/>
         <v>23.357333333333333</v>
       </c>
       <c r="Q13" s="7">
-        <f>P13/$P$32</f>
+        <f t="shared" si="4"/>
         <v>6.8053076854787458E-3</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" s="5">
         <v>1000</v>
@@ -5819,11 +5817,11 @@
         <v>6</v>
       </c>
       <c r="V13" s="3">
-        <f>U13/T13</f>
+        <f t="shared" si="5"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE13">
         <v>15</v>
@@ -5832,10 +5830,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -5883,23 +5881,23 @@
         <v>65</v>
       </c>
       <c r="AZ13">
-        <f>SUM(AK13:AY13)</f>
+        <f t="shared" si="7"/>
         <v>376</v>
       </c>
       <c r="BA13">
-        <f>AVERAGE(AK13:AY13)</f>
+        <f t="shared" si="8"/>
         <v>25.066666666666666</v>
       </c>
     </row>
-    <row r="14" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>VLOOKUP($B14,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="E14" s="2">
@@ -5930,23 +5928,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <f>SUMPRODUCT(C14:M14,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>91290</v>
       </c>
       <c r="O14" s="9">
-        <f>VLOOKUP(B14,$S$4:$V$29,4,FALSE)*N14</f>
+        <f t="shared" si="2"/>
         <v>292.12799999999999</v>
       </c>
       <c r="P14" s="8">
-        <f>O14/15</f>
+        <f t="shared" si="3"/>
         <v>19.475199999999997</v>
       </c>
       <c r="Q14" s="7">
-        <f>P14/$P$32</f>
+        <f t="shared" si="4"/>
         <v>5.6742234374458694E-3</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T14" s="5">
         <v>1000</v>
@@ -5955,11 +5953,11 @@
         <v>4</v>
       </c>
       <c r="V14" s="3">
-        <f>U14/T14</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE14">
         <v>30</v>
@@ -5968,10 +5966,10 @@
         <v>0.105</v>
       </c>
       <c r="AI14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK14">
         <v>81</v>
@@ -6019,23 +6017,23 @@
         <v>95</v>
       </c>
       <c r="AZ14">
-        <f>SUM(AK14:AY14)</f>
+        <f t="shared" si="7"/>
         <v>1325</v>
       </c>
       <c r="BA14">
-        <f>AVERAGE(AK14:AY14)</f>
+        <f t="shared" si="8"/>
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f>VLOOKUP($B15,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E15" s="2">
@@ -6068,23 +6066,23 @@
         <v>15</v>
       </c>
       <c r="N15" s="2">
-        <f>SUMPRODUCT(C15:M15,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>91395</v>
       </c>
       <c r="O15" s="9">
-        <f>VLOOKUP(B15,$S$4:$V$29,4,FALSE)*N15</f>
+        <f t="shared" si="2"/>
         <v>319.88249999999999</v>
       </c>
       <c r="P15" s="8">
-        <f>O15/15</f>
+        <f t="shared" si="3"/>
         <v>21.325499999999998</v>
       </c>
       <c r="Q15" s="7">
-        <f>P15/$P$32</f>
+        <f t="shared" si="4"/>
         <v>6.2133201155958285E-3</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T15" s="5">
         <v>100</v>
@@ -6093,11 +6091,11 @@
         <v>1.5</v>
       </c>
       <c r="V15" s="3">
-        <f>U15/T15</f>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE15">
         <v>20</v>
@@ -6106,10 +6104,10 @@
         <v>0.04</v>
       </c>
       <c r="AI15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK15">
         <v>141</v>
@@ -6157,17 +6155,17 @@
         <v>36</v>
       </c>
       <c r="AZ15">
-        <f>SUM(AK15:AY15)</f>
+        <f t="shared" si="7"/>
         <v>1725</v>
       </c>
       <c r="BA15">
-        <f>AVERAGE(AK15:AY15)</f>
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:53" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -6204,23 +6202,23 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>SUMPRODUCT(C16:M16,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>857400</v>
       </c>
       <c r="O16" s="9">
-        <f>VLOOKUP(B16,$S$4:$V$29,4,FALSE)*N16</f>
+        <f t="shared" si="2"/>
         <v>5144.4000000000005</v>
       </c>
       <c r="P16" s="8">
-        <f>O16/15</f>
+        <f t="shared" si="3"/>
         <v>342.96000000000004</v>
       </c>
       <c r="Q16" s="7">
-        <f>P16/$P$32</f>
+        <f t="shared" si="4"/>
         <v>9.9923578197216756E-2</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16" s="5">
         <v>1000</v>
@@ -6229,11 +6227,11 @@
         <v>4</v>
       </c>
       <c r="V16" s="3">
-        <f>U16/T16</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE16">
         <v>30</v>
@@ -6242,9 +6240,9 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -6285,23 +6283,23 @@
         <v>30</v>
       </c>
       <c r="N17" s="2">
-        <f>SUMPRODUCT(C17:M17,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>324360</v>
       </c>
       <c r="O17" s="9">
-        <f>VLOOKUP(B17,$S$4:$V$29,4,FALSE)*N17</f>
+        <f t="shared" si="2"/>
         <v>778.46399999999994</v>
       </c>
       <c r="P17" s="8">
-        <f>O17/15</f>
+        <f t="shared" si="3"/>
         <v>51.897599999999997</v>
       </c>
       <c r="Q17" s="7">
-        <f>P17/$P$32</f>
+        <f t="shared" si="4"/>
         <v>1.5120695975763574E-2</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T17" s="5">
         <v>1000</v>
@@ -6310,11 +6308,11 @@
         <v>5</v>
       </c>
       <c r="V17" s="3">
-        <f>U17/T17</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE17">
         <v>80</v>
@@ -6323,9 +6321,9 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -6365,23 +6363,23 @@
         <v>200</v>
       </c>
       <c r="N18" s="2">
-        <f>SUMPRODUCT(C18:M18,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>1618750</v>
       </c>
       <c r="O18" s="9">
-        <f>VLOOKUP(B18,$S$4:$V$29,4,FALSE)*N18</f>
+        <f t="shared" si="2"/>
         <v>8093.75</v>
       </c>
       <c r="P18" s="8">
-        <f>O18/15</f>
+        <f t="shared" si="3"/>
         <v>539.58333333333337</v>
       </c>
       <c r="Q18" s="7">
-        <f>P18/$P$32</f>
+        <f t="shared" si="4"/>
         <v>0.15721103744532366</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T18" s="5">
         <v>1000</v>
@@ -6390,11 +6388,11 @@
         <v>8</v>
       </c>
       <c r="V18" s="3">
-        <f>U18/T18</f>
+        <f t="shared" si="5"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18">
         <v>15</v>
@@ -6403,9 +6401,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -6442,23 +6440,23 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <f>SUMPRODUCT(C19:M19,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>243400</v>
       </c>
       <c r="O19" s="9">
-        <f>VLOOKUP(B19,$S$4:$V$29,4,FALSE)*N19</f>
+        <f t="shared" si="2"/>
         <v>3651</v>
       </c>
       <c r="P19" s="8">
-        <f>O19/15</f>
+        <f t="shared" si="3"/>
         <v>243.4</v>
       </c>
       <c r="Q19" s="7">
-        <f>P19/$P$32</f>
+        <f t="shared" si="4"/>
         <v>7.0916138713560048E-2</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T19" s="5">
         <v>1000</v>
@@ -6467,17 +6465,17 @@
         <v>3</v>
       </c>
       <c r="V19" s="3">
-        <f>U19/T19</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AB19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19">
         <v>150</v>
@@ -6489,9 +6487,9 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -6528,23 +6526,23 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f>SUMPRODUCT(C20:M20,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>243400</v>
       </c>
       <c r="O20" s="9">
-        <f>VLOOKUP(B20,$S$4:$V$29,4,FALSE)*N20</f>
+        <f t="shared" si="2"/>
         <v>973.6</v>
       </c>
       <c r="P20" s="8">
-        <f>O20/15</f>
+        <f t="shared" si="3"/>
         <v>64.906666666666666</v>
       </c>
       <c r="Q20" s="7">
-        <f>P20/$P$32</f>
+        <f t="shared" si="4"/>
         <v>1.8910970323616015E-2</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20" s="5">
         <v>1000</v>
@@ -6553,11 +6551,11 @@
         <v>3</v>
       </c>
       <c r="V20" s="3">
-        <f>U20/T20</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20">
         <v>40</v>
@@ -6566,9 +6564,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6605,23 +6603,23 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f>SUMPRODUCT(C21:M21,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>24340</v>
       </c>
       <c r="O21" s="9">
-        <f>VLOOKUP(B21,$S$4:$V$29,4,FALSE)*N21</f>
+        <f t="shared" si="2"/>
         <v>438.12000000000006</v>
       </c>
       <c r="P21" s="8">
-        <f>O21/15</f>
+        <f t="shared" si="3"/>
         <v>29.208000000000006</v>
       </c>
       <c r="Q21" s="7">
-        <f>P21/$P$32</f>
+        <f t="shared" si="4"/>
         <v>8.5099366456272071E-3</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T21" s="5">
         <v>1000</v>
@@ -6630,11 +6628,11 @@
         <v>10</v>
       </c>
       <c r="V21" s="3">
-        <f>U21/T21</f>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="AD21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE21">
         <v>20</v>
@@ -6643,9 +6641,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -6683,23 +6681,23 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <f>SUMPRODUCT(C22:M22,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>154900</v>
       </c>
       <c r="O22" s="9">
-        <f>VLOOKUP(B22,$S$4:$V$29,4,FALSE)*N22</f>
+        <f t="shared" si="2"/>
         <v>1006.8499999999999</v>
       </c>
       <c r="P22" s="8">
-        <f>O22/15</f>
+        <f t="shared" si="3"/>
         <v>67.123333333333321</v>
       </c>
       <c r="Q22" s="7">
-        <f>P22/$P$32</f>
+        <f t="shared" si="4"/>
         <v>1.955681026122923E-2</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T22" s="5">
         <v>1000</v>
@@ -6708,11 +6706,11 @@
         <v>7</v>
       </c>
       <c r="V22" s="3">
-        <f>U22/T22</f>
+        <f t="shared" si="5"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE22">
         <v>30</v>
@@ -6721,9 +6719,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -6761,23 +6759,23 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f>SUMPRODUCT(C23:M23,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>50005</v>
       </c>
       <c r="O23" s="9">
-        <f>VLOOKUP(B23,$S$4:$V$29,4,FALSE)*N23</f>
+        <f t="shared" si="2"/>
         <v>250.02500000000001</v>
       </c>
       <c r="P23" s="8">
-        <f>O23/15</f>
+        <f t="shared" si="3"/>
         <v>16.668333333333333</v>
       </c>
       <c r="Q23" s="7">
-        <f>P23/$P$32</f>
+        <f t="shared" si="4"/>
         <v>4.8564249744885929E-3</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T23" s="5">
         <v>1000</v>
@@ -6786,11 +6784,11 @@
         <v>2.4</v>
       </c>
       <c r="V23" s="3">
-        <f>U23/T23</f>
+        <f t="shared" si="5"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AD23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23">
         <v>200</v>
@@ -6802,9 +6800,9 @@
         <v>982</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -6841,23 +6839,23 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f>SUMPRODUCT(C24:M24,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>133600</v>
       </c>
       <c r="O24" s="9">
-        <f>VLOOKUP(B24,$S$4:$V$29,4,FALSE)*N24</f>
+        <f t="shared" si="2"/>
         <v>1068.8</v>
       </c>
       <c r="P24" s="8">
-        <f>O24/15</f>
+        <f t="shared" si="3"/>
         <v>71.25333333333333</v>
       </c>
       <c r="Q24" s="7">
-        <f>P24/$P$32</f>
+        <f t="shared" si="4"/>
         <v>2.0760112039729658E-2</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T24" s="5">
         <v>1000</v>
@@ -6866,11 +6864,11 @@
         <v>3.2</v>
       </c>
       <c r="V24" s="3">
-        <f>U24/T24</f>
+        <f t="shared" si="5"/>
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="AD24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24">
         <v>80</v>
@@ -6882,9 +6880,9 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -6921,23 +6919,23 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <f>SUMPRODUCT(C25:M25,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>133600</v>
       </c>
       <c r="O25" s="9">
-        <f>VLOOKUP(B25,$S$4:$V$29,4,FALSE)*N25</f>
+        <f t="shared" si="2"/>
         <v>400.8</v>
       </c>
       <c r="P25" s="8">
-        <f>O25/15</f>
+        <f t="shared" si="3"/>
         <v>26.720000000000002</v>
       </c>
       <c r="Q25" s="7">
-        <f>P25/$P$32</f>
+        <f t="shared" si="4"/>
         <v>7.785042014898623E-3</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T25" s="5">
         <v>1000</v>
@@ -6946,17 +6944,17 @@
         <v>4</v>
       </c>
       <c r="V25" s="3">
-        <f>U25/T25</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE25">
         <v>200</v>
@@ -6971,9 +6969,9 @@
         <v>5716</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -7010,23 +7008,23 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <f>SUMPRODUCT(C26:M26,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>334000</v>
       </c>
       <c r="O26" s="9">
-        <f>VLOOKUP(B26,$S$4:$V$29,4,FALSE)*N26</f>
+        <f t="shared" si="2"/>
         <v>1002</v>
       </c>
       <c r="P26" s="8">
-        <f>O26/15</f>
+        <f t="shared" si="3"/>
         <v>66.8</v>
       </c>
       <c r="Q26" s="7">
-        <f>P26/$P$32</f>
+        <f t="shared" si="4"/>
         <v>1.9462605037246554E-2</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26" s="5">
         <v>100</v>
@@ -7035,11 +7033,11 @@
         <v>1.8</v>
       </c>
       <c r="V26" s="3">
-        <f>U26/T26</f>
+        <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE26">
         <v>40</v>
@@ -7051,9 +7049,9 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -7090,23 +7088,23 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <f>SUMPRODUCT(C27:M27,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>30080</v>
       </c>
       <c r="O27" s="9">
-        <f>VLOOKUP(B27,$S$4:$V$29,4,FALSE)*N27</f>
+        <f t="shared" si="2"/>
         <v>30.080000000000002</v>
       </c>
       <c r="P27" s="8">
-        <f>O27/15</f>
+        <f t="shared" si="3"/>
         <v>2.0053333333333336</v>
       </c>
       <c r="Q27" s="7">
-        <f>P27/$P$32</f>
+        <f t="shared" si="4"/>
         <v>5.8426662626784082E-4</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T27" s="5">
         <v>1000</v>
@@ -7115,11 +7113,11 @@
         <v>6.5</v>
       </c>
       <c r="V27" s="3">
-        <f>U27/T27</f>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="AD27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE27">
         <v>200</v>
@@ -7131,9 +7129,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -7170,23 +7168,23 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <f>SUMPRODUCT(C28:M28,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>198750</v>
       </c>
       <c r="O28" s="9">
-        <f>VLOOKUP(B28,$S$4:$V$29,4,FALSE)*N28</f>
+        <f t="shared" si="2"/>
         <v>1391.25</v>
       </c>
       <c r="P28" s="8">
-        <f>O28/15</f>
+        <f t="shared" si="3"/>
         <v>92.75</v>
       </c>
       <c r="Q28" s="7">
-        <f>P28/$P$32</f>
+        <f t="shared" si="4"/>
         <v>2.7023302652763741E-2</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T28" s="5">
         <v>100</v>
@@ -7195,11 +7193,11 @@
         <v>0.5</v>
       </c>
       <c r="V28" s="3">
-        <f>U28/T28</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE28">
         <v>20</v>
@@ -7211,9 +7209,9 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -7250,23 +7248,23 @@
         <v>80</v>
       </c>
       <c r="N29" s="2">
-        <f>SUMPRODUCT(C29:M29,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>138000</v>
       </c>
       <c r="O29" s="9">
-        <f>VLOOKUP(B29,$S$4:$V$29,4,FALSE)*N29</f>
+        <f t="shared" si="2"/>
         <v>1380</v>
       </c>
       <c r="P29" s="8">
-        <f>O29/15</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="Q29" s="7">
-        <f>P29/$P$32</f>
+        <f t="shared" si="4"/>
         <v>2.6804785380638969E-2</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T29" s="5">
         <v>1000</v>
@@ -7275,11 +7273,11 @@
         <v>1</v>
       </c>
       <c r="V29" s="3">
-        <f>U29/T29</f>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="AD29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29">
         <v>80</v>
@@ -7291,15 +7289,15 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AB30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE30">
         <v>50</v>
@@ -7314,9 +7312,9 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
         <v>982</v>
@@ -7352,7 +7350,7 @@
         <v>1725</v>
       </c>
       <c r="AD31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE31">
         <v>0.5</v>
@@ -7364,9 +7362,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
       <c r="N32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O32" s="1">
         <f>SUM(O4:O29)</f>
@@ -7377,7 +7375,7 @@
         <v>3432.2229666666676</v>
       </c>
       <c r="AD32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE32">
         <v>15</v>
@@ -7389,16 +7387,16 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="33" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:36" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P33" s="1">
         <f>P32*1.2</f>
         <v>4118.6675600000008</v>
       </c>
       <c r="AD33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE33">
         <v>10</v>
@@ -7410,9 +7408,9 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="34" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE34">
         <v>50</v>
@@ -7421,9 +7419,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE35">
         <v>40</v>
@@ -7432,9 +7430,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE36">
         <v>80</v>
@@ -7443,15 +7441,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AB37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE37">
         <v>80</v>
@@ -7463,9 +7461,9 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE38">
         <v>0.5</v>
@@ -7474,9 +7472,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE39">
         <v>10</v>
@@ -7485,9 +7483,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE40">
         <v>10</v>
@@ -7496,9 +7494,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE41">
         <v>200</v>
@@ -7507,9 +7505,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE42">
         <v>80</v>
@@ -7518,15 +7516,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AB43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE43">
         <v>50</v>
@@ -7538,9 +7536,9 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE44">
         <v>0.5</v>
@@ -7549,9 +7547,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE45">
         <v>15</v>
@@ -7560,9 +7558,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE46">
         <v>10</v>
@@ -7571,9 +7569,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE47">
         <v>200</v>
@@ -7582,9 +7580,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="15:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:36" x14ac:dyDescent="0.35">
       <c r="AD48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE48">
         <v>40</v>
@@ -7593,9 +7591,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE49">
         <v>80</v>
@@ -7604,15 +7602,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="50" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE50">
         <v>80</v>
@@ -7624,9 +7622,9 @@
         <v>1.9720000000000002</v>
       </c>
     </row>
-    <row r="51" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE51">
         <v>80</v>
@@ -7635,9 +7633,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE52">
         <v>20</v>
@@ -7646,9 +7644,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE53">
         <v>30</v>
@@ -7657,9 +7655,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE54">
         <v>200</v>
@@ -7668,9 +7666,9 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="55" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE55">
         <v>80</v>
@@ -7679,15 +7677,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="56" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE56">
         <v>80</v>
@@ -7699,9 +7697,9 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="57" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE57">
         <v>0.5</v>
@@ -7710,9 +7708,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE58">
         <v>30</v>
@@ -7721,9 +7719,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE59">
         <v>200</v>
@@ -7732,9 +7730,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE60">
         <v>80</v>
@@ -7743,15 +7741,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE61">
         <v>150</v>
@@ -7763,9 +7761,9 @@
         <v>2.3945000000000007</v>
       </c>
     </row>
-    <row r="62" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE62">
         <v>0.5</v>
@@ -7774,9 +7772,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE63">
         <v>30</v>
@@ -7785,9 +7783,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE64">
         <v>15</v>
@@ -7796,9 +7794,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE65">
         <v>200</v>
@@ -7807,9 +7805,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE66">
         <v>80</v>
@@ -7818,15 +7816,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="67" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE67">
         <v>80</v>
@@ -7838,9 +7836,9 @@
         <v>2.7444999999999995</v>
       </c>
     </row>
-    <row r="68" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE68">
         <v>0.5</v>
@@ -7849,9 +7847,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE69">
         <v>30</v>
@@ -7860,9 +7858,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE70">
         <v>15</v>
@@ -7871,9 +7869,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE71">
         <v>200</v>
@@ -7882,9 +7880,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE72">
         <v>40</v>
@@ -7893,9 +7891,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE73">
         <v>80</v>
@@ -7921,123 +7919,123 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ3" s="12"/>
+      <c r="AJ3" s="43"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -8066,12 +8064,12 @@
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
     </row>
-    <row r="4" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
-        <f>VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" ref="C4:C10" si="0">VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
         <v>200</v>
       </c>
       <c r="D4" s="2">
@@ -8106,23 +8104,23 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f>SUMPRODUCT(C4:M4,$C$31:$M$31)</f>
+        <f t="shared" ref="N4:N29" si="1">SUMPRODUCT(C4:M4,$C$31:$M$31)</f>
         <v>200640</v>
       </c>
       <c r="O4" s="9">
-        <f>VLOOKUP(B4,$T$4:$W$29,4,FALSE)*N4</f>
+        <f t="shared" ref="O4:O29" si="2">VLOOKUP(B4,$T$4:$W$29,4,FALSE)*N4</f>
         <v>3611.5200000000004</v>
       </c>
       <c r="P4" s="8">
-        <f>O4/6</f>
+        <f t="shared" ref="P4:P29" si="3">O4/6</f>
         <v>601.92000000000007</v>
       </c>
-      <c r="Q4" s="17">
-        <f>P4/$P$32</f>
+      <c r="Q4" s="16">
+        <f t="shared" ref="Q4:Q29" si="4">P4/$P$32</f>
         <v>0.11854173499368088</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U4" s="5">
         <v>1000</v>
@@ -8131,17 +8129,17 @@
         <v>5</v>
       </c>
       <c r="W4" s="3">
-        <f>V4/U4</f>
+        <f t="shared" ref="W4:W29" si="5">V4/U4</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE4">
         <v>200</v>
@@ -8152,31 +8150,31 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
       <c r="AK4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
@@ -8187,12 +8185,12 @@
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
     </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <f>VLOOKUP($B5,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D5" s="2">
@@ -8214,7 +8212,7 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="2">
-        <f>VLOOKUP($B5,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" ref="I5:I10" si="6">VLOOKUP($B5,$AD$43:$AE$49,2,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="J5" s="2">
@@ -8233,23 +8231,23 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="2">
-        <f>SUMPRODUCT(C5:M5,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>4830</v>
       </c>
       <c r="O5" s="9">
-        <f>VLOOKUP(B5,$T$4:$W$29,4,FALSE)*N5</f>
+        <f t="shared" si="2"/>
         <v>966</v>
       </c>
       <c r="P5" s="8">
-        <f>O5/6</f>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="Q5" s="17">
-        <f>P5/$P$32</f>
+      <c r="Q5" s="16">
+        <f t="shared" si="4"/>
         <v>3.1707235735617061E-2</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
@@ -8258,11 +8256,11 @@
         <v>0.2</v>
       </c>
       <c r="W5" s="3">
-        <f>V5/U5</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="AD5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE5">
         <v>0.5</v>
@@ -8271,44 +8269,44 @@
         <v>0.1</v>
       </c>
       <c r="AI5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK5" s="25">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="24">
         <v>111</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="23">
         <v>117</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5" s="23">
         <v>122</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5" s="23">
         <v>82</v>
       </c>
-      <c r="AO5" s="24">
+      <c r="AO5" s="23">
         <v>145</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AP5" s="22">
         <v>67</v>
       </c>
       <c r="AQ5">
-        <f>SUM(AK5:AP5)</f>
+        <f t="shared" ref="AQ5:AQ15" si="7">SUM(AK5:AP5)</f>
         <v>644</v>
       </c>
       <c r="AR5">
-        <f>AVERAGE(AK5:AP5)</f>
+        <f t="shared" ref="AR5:AR15" si="8">AVERAGE(AK5:AP5)</f>
         <v>107.33333333333333</v>
       </c>
     </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
-        <f>VLOOKUP($B6,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D6" s="2">
@@ -8329,7 +8327,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2">
-        <f>VLOOKUP($B6,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="J6" s="2">
@@ -8345,23 +8343,23 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <f>SUMPRODUCT(C6:M6,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>78445</v>
       </c>
       <c r="O6" s="9">
-        <f>VLOOKUP(B6,$T$4:$W$29,4,FALSE)*N6</f>
+        <f t="shared" si="2"/>
         <v>392.22500000000002</v>
       </c>
       <c r="P6" s="8">
-        <f>O6/6</f>
+        <f t="shared" si="3"/>
         <v>65.370833333333337</v>
       </c>
-      <c r="Q6" s="17">
-        <f>P6/$P$32</f>
+      <c r="Q6" s="16">
+        <f t="shared" si="4"/>
         <v>1.2874089582197103E-2</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="5">
         <v>100</v>
@@ -8370,11 +8368,11 @@
         <v>1.8</v>
       </c>
       <c r="W6" s="3">
-        <f>V6/U6</f>
+        <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE6">
         <v>15</v>
@@ -8383,12 +8381,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" s="22">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="21">
         <v>499</v>
       </c>
       <c r="AL6" s="10">
@@ -8403,24 +8401,24 @@
       <c r="AO6" s="10">
         <v>442</v>
       </c>
-      <c r="AP6" s="21">
+      <c r="AP6" s="20">
         <v>185</v>
       </c>
       <c r="AQ6">
-        <f>SUM(AK6:AP6)</f>
+        <f t="shared" si="7"/>
         <v>2966</v>
       </c>
       <c r="AR6">
-        <f>AVERAGE(AK6:AP6)</f>
+        <f t="shared" si="8"/>
         <v>494.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
-        <f>VLOOKUP($B7,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D7" s="2">
@@ -8441,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="2">
-        <f>VLOOKUP($B7,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -8457,23 +8455,23 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <f>SUMPRODUCT(C7:M7,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>43440</v>
       </c>
       <c r="O7" s="9">
-        <f>VLOOKUP(B7,$T$4:$W$29,4,FALSE)*N7</f>
+        <f t="shared" si="2"/>
         <v>173.76</v>
       </c>
       <c r="P7" s="8">
-        <f>O7/6</f>
+        <f t="shared" si="3"/>
         <v>28.959999999999997</v>
       </c>
-      <c r="Q7" s="17">
-        <f>P7/$P$32</f>
+      <c r="Q7" s="16">
+        <f t="shared" si="4"/>
         <v>5.7033636453631678E-3</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U7" s="5">
         <v>100</v>
@@ -8482,11 +8480,11 @@
         <v>0.5</v>
       </c>
       <c r="W7" s="3">
-        <f>V7/U7</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE7">
         <v>10</v>
@@ -8495,12 +8493,12 @@
         <v>0.04</v>
       </c>
       <c r="AI7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK7" s="22">
+        <v>46</v>
+      </c>
+      <c r="AK7" s="21">
         <v>564</v>
       </c>
       <c r="AL7" s="10">
@@ -8515,24 +8513,24 @@
       <c r="AO7" s="10">
         <v>347</v>
       </c>
-      <c r="AP7" s="21">
+      <c r="AP7" s="20">
         <v>211</v>
       </c>
       <c r="AQ7">
-        <f>SUM(AK7:AP7)</f>
+        <f t="shared" si="7"/>
         <v>2680</v>
       </c>
       <c r="AR7">
-        <f>AVERAGE(AK7:AP7)</f>
+        <f t="shared" si="8"/>
         <v>446.66666666666669</v>
       </c>
     </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
-        <f>VLOOKUP($B8,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="D8" s="2">
@@ -8552,7 +8550,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="2">
-        <f>VLOOKUP($B8,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J8" s="2">
@@ -8568,23 +8566,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <f>SUMPRODUCT(C8:M8,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>512600</v>
       </c>
       <c r="O8" s="9">
-        <f>VLOOKUP(B8,$T$4:$W$29,4,FALSE)*N8</f>
+        <f t="shared" si="2"/>
         <v>2050.4</v>
       </c>
       <c r="P8" s="8">
-        <f>O8/6</f>
+        <f t="shared" si="3"/>
         <v>341.73333333333335</v>
       </c>
-      <c r="Q8" s="17">
-        <f>P8/$P$32</f>
+      <c r="Q8" s="16">
+        <f t="shared" si="4"/>
         <v>6.7300741358498159E-2</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U8" s="5">
         <v>1000</v>
@@ -8593,11 +8591,11 @@
         <v>3.5</v>
       </c>
       <c r="W8" s="3">
-        <f>V8/U8</f>
+        <f t="shared" si="5"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE8">
         <v>200</v>
@@ -8606,12 +8604,12 @@
         <v>0.8</v>
       </c>
       <c r="AI8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK8" s="22">
+        <v>41</v>
+      </c>
+      <c r="AK8" s="21">
         <v>122</v>
       </c>
       <c r="AL8" s="10">
@@ -8626,24 +8624,24 @@
       <c r="AO8" s="10">
         <v>104</v>
       </c>
-      <c r="AP8" s="21">
+      <c r="AP8" s="20">
         <v>42</v>
       </c>
       <c r="AQ8">
-        <f>SUM(AK8:AP8)</f>
+        <f t="shared" si="7"/>
         <v>685</v>
       </c>
       <c r="AR8">
-        <f>AVERAGE(AK8:AP8)</f>
+        <f t="shared" si="8"/>
         <v>114.16666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f>VLOOKUP($B9,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D9" s="2">
@@ -8665,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>VLOOKUP($B9,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J9" s="2">
@@ -8683,23 +8681,23 @@
         <v>40</v>
       </c>
       <c r="N9" s="2">
-        <f>SUMPRODUCT(C9:M9,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>332000</v>
       </c>
       <c r="O9" s="9">
-        <f>VLOOKUP(B9,$T$4:$W$29,4,FALSE)*N9</f>
+        <f t="shared" si="2"/>
         <v>3320</v>
       </c>
       <c r="P9" s="8">
-        <f>O9/6</f>
+        <f t="shared" si="3"/>
         <v>553.33333333333337</v>
       </c>
-      <c r="Q9" s="17">
-        <f>P9/$P$32</f>
+      <c r="Q9" s="16">
+        <f t="shared" si="4"/>
         <v>0.10897310832530915</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U9" s="5">
         <v>1000</v>
@@ -8708,11 +8706,11 @@
         <v>2</v>
       </c>
       <c r="W9" s="3">
-        <f>V9/U9</f>
+        <f t="shared" si="5"/>
         <v>2E-3</v>
       </c>
       <c r="AD9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>20</v>
@@ -8721,12 +8719,12 @@
         <v>0.2</v>
       </c>
       <c r="AI9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK9" s="22">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="21">
         <v>142</v>
       </c>
       <c r="AL9" s="10">
@@ -8741,28 +8739,28 @@
       <c r="AO9" s="10">
         <v>303</v>
       </c>
-      <c r="AP9" s="21">
+      <c r="AP9" s="20">
         <v>141</v>
       </c>
       <c r="AQ9">
-        <f>SUM(AK9:AP9)</f>
+        <f t="shared" si="7"/>
         <v>1781</v>
       </c>
       <c r="AR9">
-        <f>AVERAGE(AK9:AP9)</f>
+        <f t="shared" si="8"/>
         <v>296.83333333333331</v>
       </c>
     </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f>VLOOKUP($B10,$AD$4:$AE$10,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D10" s="2">
-        <f>VLOOKUP($B10,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" ref="D10:D15" si="9">VLOOKUP($B10,$AD$11:$AE$18,2,FALSE)</f>
         <v>80</v>
       </c>
       <c r="E10" s="2">
@@ -8782,7 +8780,7 @@
         <v>80</v>
       </c>
       <c r="I10" s="2">
-        <f>VLOOKUP($B10,$AD$43:$AE$49,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="J10" s="2">
@@ -8801,23 +8799,23 @@
         <v>80</v>
       </c>
       <c r="N10" s="2">
-        <f>SUMPRODUCT(C10:M10,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>1051920</v>
       </c>
       <c r="O10" s="9">
-        <f>VLOOKUP(B10,$T$4:$W$29,4,FALSE)*N10</f>
+        <f t="shared" si="2"/>
         <v>4207.68</v>
       </c>
       <c r="P10" s="8">
-        <f>O10/6</f>
+        <f t="shared" si="3"/>
         <v>701.28000000000009</v>
       </c>
-      <c r="Q10" s="17">
-        <f>P10/$P$32</f>
+      <c r="Q10" s="16">
+        <f t="shared" si="4"/>
         <v>0.13810962904766169</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U10" s="5">
         <v>1000</v>
@@ -8826,11 +8824,11 @@
         <v>3.5</v>
       </c>
       <c r="W10" s="3">
-        <f>V10/U10</f>
+        <f t="shared" si="5"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE10">
         <v>80</v>
@@ -8839,12 +8837,12 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="AI10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK10" s="22">
+        <v>52</v>
+      </c>
+      <c r="AK10" s="21">
         <v>195</v>
       </c>
       <c r="AL10" s="10">
@@ -8859,29 +8857,29 @@
       <c r="AO10" s="10">
         <v>113</v>
       </c>
-      <c r="AP10" s="21">
+      <c r="AP10" s="20">
         <v>74</v>
       </c>
       <c r="AQ10">
-        <f>SUM(AK10:AP10)</f>
+        <f t="shared" si="7"/>
         <v>898</v>
       </c>
       <c r="AR10">
-        <f>AVERAGE(AK10:AP10)</f>
+        <f t="shared" si="8"/>
         <v>149.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <f>VLOOKUP($B11,$AD$11:$AE$18,2,FALSE)</f>
-        <v>50</v>
-      </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -8910,23 +8908,23 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f>SUMPRODUCT(C11:M11,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>148300</v>
       </c>
       <c r="O11" s="9">
-        <f>VLOOKUP(B11,$T$4:$W$29,4,FALSE)*N11</f>
+        <f t="shared" si="2"/>
         <v>741.5</v>
       </c>
       <c r="P11" s="8">
-        <f>O11/6</f>
+        <f t="shared" si="3"/>
         <v>123.58333333333333</v>
       </c>
-      <c r="Q11" s="17">
-        <f>P11/$P$32</f>
+      <c r="Q11" s="16">
+        <f t="shared" si="4"/>
         <v>2.4338421633499016E-2</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11" s="5">
         <v>100</v>
@@ -8935,17 +8933,17 @@
         <v>0.4</v>
       </c>
       <c r="W11" s="3">
-        <f>V11/U11</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE11">
         <v>50</v>
@@ -8957,12 +8955,12 @@
         <v>1.0385000000000002</v>
       </c>
       <c r="AI11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK11" s="22">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="21">
         <v>128</v>
       </c>
       <c r="AL11" s="10">
@@ -8977,27 +8975,27 @@
       <c r="AO11" s="10">
         <v>198</v>
       </c>
-      <c r="AP11" s="21">
+      <c r="AP11" s="20">
         <v>79</v>
       </c>
       <c r="AQ11">
-        <f>SUM(AK11:AP11)</f>
+        <f t="shared" si="7"/>
         <v>1021</v>
       </c>
       <c r="AR11">
-        <f>AVERAGE(AK11:AP11)</f>
+        <f t="shared" si="8"/>
         <v>170.16666666666666</v>
       </c>
     </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>VLOOKUP($B12,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="E12" s="2">
@@ -9028,23 +9026,23 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <f>SUMPRODUCT(C12:M12,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>88980</v>
       </c>
       <c r="O12" s="9">
-        <f>VLOOKUP(B12,$T$4:$W$29,4,FALSE)*N12</f>
+        <f t="shared" si="2"/>
         <v>311.43</v>
       </c>
       <c r="P12" s="8">
-        <f>O12/6</f>
+        <f t="shared" si="3"/>
         <v>51.905000000000001</v>
       </c>
-      <c r="Q12" s="17">
-        <f>P12/$P$32</f>
+      <c r="Q12" s="16">
+        <f t="shared" si="4"/>
         <v>1.0222137086069586E-2</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U12" s="5">
         <v>100</v>
@@ -9053,11 +9051,11 @@
         <v>1</v>
       </c>
       <c r="W12" s="3">
-        <f>V12/U12</f>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="AD12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12">
         <v>0.5</v>
@@ -9066,12 +9064,12 @@
         <v>0.1</v>
       </c>
       <c r="AI12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK12" s="22">
+        <v>24</v>
+      </c>
+      <c r="AK12" s="21">
         <v>149</v>
       </c>
       <c r="AL12" s="10">
@@ -9086,27 +9084,27 @@
       <c r="AO12" s="10">
         <v>104</v>
       </c>
-      <c r="AP12" s="21">
+      <c r="AP12" s="20">
         <v>51</v>
       </c>
       <c r="AQ12">
-        <f>SUM(AK12:AP12)</f>
+        <f t="shared" si="7"/>
         <v>728</v>
       </c>
       <c r="AR12">
-        <f>AVERAGE(AK12:AP12)</f>
+        <f t="shared" si="8"/>
         <v>121.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>VLOOKUP($B13,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="E13" s="2">
@@ -9138,23 +9136,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f>SUMPRODUCT(C13:M13,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>112920</v>
       </c>
       <c r="O13" s="9">
-        <f>VLOOKUP(B13,$T$4:$W$29,4,FALSE)*N13</f>
+        <f t="shared" si="2"/>
         <v>225.84</v>
       </c>
       <c r="P13" s="8">
-        <f>O13/6</f>
+        <f t="shared" si="3"/>
         <v>37.64</v>
       </c>
-      <c r="Q13" s="17">
-        <f>P13/$P$32</f>
+      <c r="Q13" s="16">
+        <f t="shared" si="4"/>
         <v>7.4127972241529571E-3</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" s="5">
         <v>1000</v>
@@ -9163,11 +9161,11 @@
         <v>6</v>
       </c>
       <c r="W13" s="3">
-        <f>V13/U13</f>
+        <f t="shared" si="5"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE13">
         <v>15</v>
@@ -9176,12 +9174,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK13" s="22">
+        <v>18</v>
+      </c>
+      <c r="AK13" s="21">
         <v>91</v>
       </c>
       <c r="AL13" s="10">
@@ -9196,27 +9194,27 @@
       <c r="AO13" s="10">
         <v>106</v>
       </c>
-      <c r="AP13" s="21">
+      <c r="AP13" s="20">
         <v>73</v>
       </c>
       <c r="AQ13">
-        <f>SUM(AK13:AP13)</f>
+        <f t="shared" si="7"/>
         <v>604</v>
       </c>
       <c r="AR13">
-        <f>AVERAGE(AK13:AP13)</f>
+        <f t="shared" si="8"/>
         <v>100.66666666666667</v>
       </c>
     </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>VLOOKUP($B14,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="E14" s="2">
@@ -9247,23 +9245,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <f>SUMPRODUCT(C14:M14,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>88980</v>
       </c>
       <c r="O14" s="9">
-        <f>VLOOKUP(B14,$T$4:$W$29,4,FALSE)*N14</f>
+        <f t="shared" si="2"/>
         <v>284.73599999999999</v>
       </c>
       <c r="P14" s="8">
-        <f>O14/6</f>
+        <f t="shared" si="3"/>
         <v>47.455999999999996</v>
       </c>
-      <c r="Q14" s="17">
-        <f>P14/$P$32</f>
+      <c r="Q14" s="16">
+        <f t="shared" si="4"/>
         <v>9.3459539072636207E-3</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U14" s="5">
         <v>1000</v>
@@ -9272,11 +9270,11 @@
         <v>4</v>
       </c>
       <c r="W14" s="3">
-        <f>V14/U14</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE14">
         <v>30</v>
@@ -9285,12 +9283,12 @@
         <v>0.105</v>
       </c>
       <c r="AI14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK14" s="22">
+        <v>15</v>
+      </c>
+      <c r="AK14" s="21">
         <v>164</v>
       </c>
       <c r="AL14" s="10">
@@ -9305,27 +9303,27 @@
       <c r="AO14" s="10">
         <v>205</v>
       </c>
-      <c r="AP14" s="21">
+      <c r="AP14" s="20">
         <v>115</v>
       </c>
       <c r="AQ14">
-        <f>SUM(AK14:AP14)</f>
+        <f t="shared" si="7"/>
         <v>1143</v>
       </c>
       <c r="AR14">
-        <f>AVERAGE(AK14:AP14)</f>
+        <f t="shared" si="8"/>
         <v>190.5</v>
       </c>
     </row>
-    <row r="15" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f>VLOOKUP($B15,$AD$11:$AE$18,2,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E15" s="2">
@@ -9358,23 +9356,23 @@
         <v>15</v>
       </c>
       <c r="N15" s="2">
-        <f>SUMPRODUCT(C15:M15,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>70680</v>
       </c>
       <c r="O15" s="9">
-        <f>VLOOKUP(B15,$T$4:$W$29,4,FALSE)*N15</f>
+        <f t="shared" si="2"/>
         <v>247.38</v>
       </c>
       <c r="P15" s="8">
-        <f>O15/6</f>
+        <f t="shared" si="3"/>
         <v>41.23</v>
       </c>
-      <c r="Q15" s="17">
-        <f>P15/$P$32</f>
+      <c r="Q15" s="16">
+        <f t="shared" si="4"/>
         <v>8.1198094992514982E-3</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U15" s="5">
         <v>100</v>
@@ -9383,11 +9381,11 @@
         <v>1.5</v>
       </c>
       <c r="W15" s="3">
-        <f>V15/U15</f>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE15">
         <v>20</v>
@@ -9396,41 +9394,41 @@
         <v>0.04</v>
       </c>
       <c r="AI15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK15" s="20">
+        <v>11</v>
+      </c>
+      <c r="AK15" s="19">
         <v>112</v>
       </c>
-      <c r="AL15" s="19">
+      <c r="AL15" s="18">
         <v>154</v>
       </c>
-      <c r="AM15" s="19">
+      <c r="AM15" s="18">
         <v>105</v>
       </c>
-      <c r="AN15" s="19">
+      <c r="AN15" s="18">
         <v>91</v>
       </c>
-      <c r="AO15" s="19">
+      <c r="AO15" s="18">
         <v>78</v>
       </c>
-      <c r="AP15" s="18">
+      <c r="AP15" s="17">
         <v>63</v>
       </c>
       <c r="AQ15">
-        <f>SUM(AK15:AP15)</f>
+        <f t="shared" si="7"/>
         <v>603</v>
       </c>
       <c r="AR15">
-        <f>AVERAGE(AK15:AP15)</f>
+        <f t="shared" si="8"/>
         <v>100.5</v>
       </c>
     </row>
-    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -9467,23 +9465,23 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>SUMPRODUCT(C16:M16,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>402000</v>
       </c>
       <c r="O16" s="9">
-        <f>VLOOKUP(B16,$T$4:$W$29,4,FALSE)*N16</f>
+        <f t="shared" si="2"/>
         <v>2412</v>
       </c>
       <c r="P16" s="8">
-        <f>O16/6</f>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
-      <c r="Q16" s="17">
-        <f>P16/$P$32</f>
+      <c r="Q16" s="16">
+        <f t="shared" si="4"/>
         <v>7.9169619662845081E-2</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U16" s="5">
         <v>1000</v>
@@ -9492,11 +9490,11 @@
         <v>4</v>
       </c>
       <c r="W16" s="3">
-        <f>V16/U16</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE16">
         <v>30</v>
@@ -9505,9 +9503,9 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -9548,23 +9546,23 @@
         <v>30</v>
       </c>
       <c r="N17" s="2">
-        <f>SUMPRODUCT(C17:M17,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>172740</v>
       </c>
       <c r="O17" s="9">
-        <f>VLOOKUP(B17,$T$4:$W$29,4,FALSE)*N17</f>
+        <f t="shared" si="2"/>
         <v>414.57599999999996</v>
       </c>
       <c r="P17" s="8">
-        <f>O17/6</f>
+        <f t="shared" si="3"/>
         <v>69.095999999999989</v>
       </c>
-      <c r="Q17" s="17">
-        <f>P17/$P$32</f>
+      <c r="Q17" s="16">
+        <f t="shared" si="4"/>
         <v>1.3607721493094384E-2</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U17" s="5">
         <v>1000</v>
@@ -9573,11 +9571,11 @@
         <v>5</v>
       </c>
       <c r="W17" s="3">
-        <f>V17/U17</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE17">
         <v>80</v>
@@ -9586,9 +9584,9 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -9628,23 +9626,23 @@
         <v>200</v>
       </c>
       <c r="N18" s="2">
-        <f>SUMPRODUCT(C18:M18,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>866450</v>
       </c>
       <c r="O18" s="9">
-        <f>VLOOKUP(B18,$T$4:$W$29,4,FALSE)*N18</f>
+        <f t="shared" si="2"/>
         <v>4332.25</v>
       </c>
       <c r="P18" s="8">
-        <f>O18/6</f>
+        <f t="shared" si="3"/>
         <v>722.04166666666663</v>
       </c>
-      <c r="Q18" s="17">
-        <f>P18/$P$32</f>
+      <c r="Q18" s="16">
+        <f t="shared" si="4"/>
         <v>0.14219841823563872</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U18" s="5">
         <v>1000</v>
@@ -9653,11 +9651,11 @@
         <v>8</v>
       </c>
       <c r="W18" s="3">
-        <f>V18/U18</f>
+        <f t="shared" si="5"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18">
         <v>15</v>
@@ -9666,9 +9664,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -9705,23 +9703,23 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <f>SUMPRODUCT(C19:M19,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>137000</v>
       </c>
       <c r="O19" s="9">
-        <f>VLOOKUP(B19,$T$4:$W$29,4,FALSE)*N19</f>
+        <f t="shared" si="2"/>
         <v>2055</v>
       </c>
       <c r="P19" s="8">
-        <f>O19/6</f>
+        <f t="shared" si="3"/>
         <v>342.5</v>
       </c>
-      <c r="Q19" s="17">
-        <f>P19/$P$32</f>
+      <c r="Q19" s="16">
+        <f t="shared" si="4"/>
         <v>6.7451728195334432E-2</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U19" s="5">
         <v>1000</v>
@@ -9730,17 +9728,17 @@
         <v>3</v>
       </c>
       <c r="W19" s="3">
-        <f>V19/U19</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AB19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19">
         <v>150</v>
@@ -9752,9 +9750,9 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -9791,23 +9789,23 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f>SUMPRODUCT(C20:M20,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>137000</v>
       </c>
       <c r="O20" s="9">
-        <f>VLOOKUP(B20,$T$4:$W$29,4,FALSE)*N20</f>
+        <f t="shared" si="2"/>
         <v>548</v>
       </c>
       <c r="P20" s="8">
-        <f>O20/6</f>
+        <f t="shared" si="3"/>
         <v>91.333333333333329</v>
       </c>
-      <c r="Q20" s="17">
-        <f>P20/$P$32</f>
+      <c r="Q20" s="16">
+        <f t="shared" si="4"/>
         <v>1.7987127518755846E-2</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" s="5">
         <v>1000</v>
@@ -9816,11 +9814,11 @@
         <v>3</v>
       </c>
       <c r="W20" s="3">
-        <f>V20/U20</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20">
         <v>40</v>
@@ -9829,9 +9827,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -9868,23 +9866,23 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f>SUMPRODUCT(C21:M21,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>13700</v>
       </c>
       <c r="O21" s="9">
-        <f>VLOOKUP(B21,$T$4:$W$29,4,FALSE)*N21</f>
+        <f t="shared" si="2"/>
         <v>246.60000000000002</v>
       </c>
       <c r="P21" s="8">
-        <f>O21/6</f>
+        <f t="shared" si="3"/>
         <v>41.1</v>
       </c>
-      <c r="Q21" s="17">
-        <f>P21/$P$32</f>
+      <c r="Q21" s="16">
+        <f t="shared" si="4"/>
         <v>8.0942073834401312E-3</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" s="5">
         <v>1000</v>
@@ -9893,11 +9891,11 @@
         <v>10</v>
       </c>
       <c r="W21" s="3">
-        <f>V21/U21</f>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="AD21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE21">
         <v>20</v>
@@ -9906,9 +9904,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -9946,23 +9944,23 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <f>SUMPRODUCT(C22:M22,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>140100</v>
       </c>
       <c r="O22" s="9">
-        <f>VLOOKUP(B22,$T$4:$W$29,4,FALSE)*N22</f>
+        <f t="shared" si="2"/>
         <v>910.65</v>
       </c>
       <c r="P22" s="8">
-        <f>O22/6</f>
+        <f t="shared" si="3"/>
         <v>151.77500000000001</v>
       </c>
-      <c r="Q22" s="17">
-        <f>P22/$P$32</f>
+      <c r="Q22" s="16">
+        <f t="shared" si="4"/>
         <v>2.9890470209771921E-2</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U22" s="5">
         <v>1000</v>
@@ -9971,11 +9969,11 @@
         <v>7</v>
       </c>
       <c r="W22" s="3">
-        <f>V22/U22</f>
+        <f t="shared" si="5"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE22">
         <v>30</v>
@@ -9984,9 +9982,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -10024,23 +10022,23 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f>SUMPRODUCT(C23:M23,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>41275</v>
       </c>
       <c r="O23" s="9">
-        <f>VLOOKUP(B23,$T$4:$W$29,4,FALSE)*N23</f>
+        <f t="shared" si="2"/>
         <v>206.375</v>
       </c>
       <c r="P23" s="8">
-        <f>O23/6</f>
+        <f t="shared" si="3"/>
         <v>34.395833333333336</v>
       </c>
-      <c r="Q23" s="17">
-        <f>P23/$P$32</f>
+      <c r="Q23" s="16">
+        <f t="shared" si="4"/>
         <v>6.7738931417577345E-3</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U23" s="5">
         <v>1000</v>
@@ -10049,11 +10047,11 @@
         <v>2.4</v>
       </c>
       <c r="W23" s="3">
-        <f>V23/U23</f>
+        <f t="shared" si="5"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AD23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23">
         <v>200</v>
@@ -10062,9 +10060,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -10101,23 +10099,23 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f>SUMPRODUCT(C24:M24,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>58240</v>
       </c>
       <c r="O24" s="9">
-        <f>VLOOKUP(B24,$T$4:$W$29,4,FALSE)*N24</f>
+        <f t="shared" si="2"/>
         <v>465.92</v>
       </c>
       <c r="P24" s="8">
-        <f>O24/6</f>
+        <f t="shared" si="3"/>
         <v>77.653333333333336</v>
       </c>
-      <c r="Q24" s="17">
-        <f>P24/$P$32</f>
+      <c r="Q24" s="16">
+        <f t="shared" si="4"/>
         <v>1.5292997177990373E-2</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U24" s="5">
         <v>1000</v>
@@ -10126,11 +10124,11 @@
         <v>3.2</v>
       </c>
       <c r="W24" s="3">
-        <f>V24/U24</f>
+        <f t="shared" si="5"/>
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="AD24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE24">
         <v>80</v>
@@ -10139,9 +10137,9 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -10178,23 +10176,23 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <f>SUMPRODUCT(C25:M25,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>58240</v>
       </c>
       <c r="O25" s="9">
-        <f>VLOOKUP(B25,$T$4:$W$29,4,FALSE)*N25</f>
+        <f t="shared" si="2"/>
         <v>174.72</v>
       </c>
       <c r="P25" s="8">
-        <f>O25/6</f>
+        <f t="shared" si="3"/>
         <v>29.12</v>
       </c>
-      <c r="Q25" s="17">
-        <f>P25/$P$32</f>
+      <c r="Q25" s="16">
+        <f t="shared" si="4"/>
         <v>5.7348739417463898E-3</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U25" s="5">
         <v>1000</v>
@@ -10203,17 +10201,17 @@
         <v>4</v>
       </c>
       <c r="W25" s="3">
-        <f>V25/U25</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE25">
         <v>200</v>
@@ -10225,9 +10223,9 @@
         <v>4.8800000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -10264,23 +10262,23 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <f>SUMPRODUCT(C26:M26,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>145600</v>
       </c>
       <c r="O26" s="9">
-        <f>VLOOKUP(B26,$T$4:$W$29,4,FALSE)*N26</f>
+        <f t="shared" si="2"/>
         <v>436.8</v>
       </c>
       <c r="P26" s="8">
-        <f>O26/6</f>
+        <f t="shared" si="3"/>
         <v>72.8</v>
       </c>
-      <c r="Q26" s="17">
-        <f>P26/$P$32</f>
+      <c r="Q26" s="16">
+        <f t="shared" si="4"/>
         <v>1.4337184854365975E-2</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U26" s="5">
         <v>100</v>
@@ -10289,11 +10287,11 @@
         <v>1.8</v>
       </c>
       <c r="W26" s="3">
-        <f>V26/U26</f>
+        <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE26">
         <v>40</v>
@@ -10302,9 +10300,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -10341,23 +10339,23 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <f>SUMPRODUCT(C27:M27,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>48320</v>
       </c>
       <c r="O27" s="9">
-        <f>VLOOKUP(B27,$T$4:$W$29,4,FALSE)*N27</f>
+        <f t="shared" si="2"/>
         <v>48.32</v>
       </c>
       <c r="P27" s="8">
-        <f>O27/6</f>
+        <f t="shared" si="3"/>
         <v>8.0533333333333328</v>
       </c>
-      <c r="Q27" s="17">
-        <f>P27/$P$32</f>
+      <c r="Q27" s="16">
+        <f t="shared" si="4"/>
         <v>1.5860182512888368E-3</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U27" s="5">
         <v>1000</v>
@@ -10366,11 +10364,11 @@
         <v>6.5</v>
       </c>
       <c r="W27" s="3">
-        <f>V27/U27</f>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="AD27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE27">
         <v>200</v>
@@ -10379,9 +10377,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -10418,23 +10416,23 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <f>SUMPRODUCT(C28:M28,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>171450</v>
       </c>
       <c r="O28" s="9">
-        <f>VLOOKUP(B28,$T$4:$W$29,4,FALSE)*N28</f>
+        <f t="shared" si="2"/>
         <v>1200.1500000000001</v>
       </c>
       <c r="P28" s="8">
-        <f>O28/6</f>
+        <f t="shared" si="3"/>
         <v>200.02500000000001</v>
       </c>
-      <c r="Q28" s="17">
-        <f>P28/$P$32</f>
+      <c r="Q28" s="16">
+        <f t="shared" si="4"/>
         <v>3.9392793962837284E-2</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U28" s="5">
         <v>100</v>
@@ -10443,11 +10441,11 @@
         <v>0.5</v>
       </c>
       <c r="W28" s="3">
-        <f>V28/U28</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE28">
         <v>20</v>
@@ -10456,9 +10454,9 @@
         <v>0.36000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -10495,23 +10493,23 @@
         <v>80</v>
       </c>
       <c r="N29" s="2">
-        <f>SUMPRODUCT(C29:M29,$C$31:$M$31)</f>
+        <f t="shared" si="1"/>
         <v>48240</v>
       </c>
       <c r="O29" s="9">
-        <f>VLOOKUP(B29,$T$4:$W$29,4,FALSE)*N29</f>
+        <f t="shared" si="2"/>
         <v>482.40000000000003</v>
       </c>
       <c r="P29" s="8">
-        <f>O29/6</f>
+        <f t="shared" si="3"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="Q29" s="17">
-        <f>P29/$P$32</f>
+      <c r="Q29" s="16">
+        <f t="shared" si="4"/>
         <v>1.5833923932569018E-2</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U29" s="5">
         <v>1000</v>
@@ -10520,11 +10518,11 @@
         <v>1</v>
       </c>
       <c r="W29" s="3">
-        <f>V29/U29</f>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="AD29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29">
         <v>80</v>
@@ -10533,15 +10531,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
       <c r="AB30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE30">
         <v>50</v>
@@ -10553,9 +10551,9 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
         <v>644</v>
@@ -10591,7 +10589,7 @@
         <v>603</v>
       </c>
       <c r="AD31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE31">
         <v>0.5</v>
@@ -10600,9 +10598,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
       <c r="N32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O32" s="1">
         <f>SUM(O4:O29)</f>
@@ -10613,7 +10611,7 @@
         <v>5077.7053333333333</v>
       </c>
       <c r="AD32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE32">
         <v>15</v>
@@ -10622,16 +10620,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:33" x14ac:dyDescent="0.35">
       <c r="N33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P33" s="1">
         <f>P32*1.1</f>
         <v>5585.4758666666667</v>
       </c>
       <c r="AD33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE33">
         <v>10</v>
@@ -10640,9 +10638,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE34">
         <v>50</v>
@@ -10651,9 +10649,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE35">
         <v>40</v>
@@ -10662,9 +10660,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE36">
         <v>80</v>
@@ -10673,15 +10671,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AB37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE37">
         <v>80</v>
@@ -10693,9 +10691,9 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE38">
         <v>0.5</v>
@@ -10704,9 +10702,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE39">
         <v>10</v>
@@ -10715,9 +10713,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE40">
         <v>10</v>
@@ -10726,9 +10724,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE41">
         <v>200</v>
@@ -10737,9 +10735,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE42">
         <v>80</v>
@@ -10748,15 +10746,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AB43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE43">
         <v>50</v>
@@ -10768,9 +10766,9 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE44">
         <v>0.5</v>
@@ -10779,9 +10777,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE45">
         <v>15</v>
@@ -10790,9 +10788,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE46">
         <v>10</v>
@@ -10801,9 +10799,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE47">
         <v>200</v>
@@ -10812,9 +10810,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="14:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:33" x14ac:dyDescent="0.35">
       <c r="AD48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE48">
         <v>40</v>
@@ -10823,9 +10821,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE49">
         <v>80</v>
@@ -10834,15 +10832,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="50" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE50">
         <v>80</v>
@@ -10854,9 +10852,9 @@
         <v>1.9720000000000002</v>
       </c>
     </row>
-    <row r="51" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE51">
         <v>80</v>
@@ -10865,9 +10863,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE52">
         <v>20</v>
@@ -10876,9 +10874,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE53">
         <v>30</v>
@@ -10887,9 +10885,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE54">
         <v>200</v>
@@ -10898,9 +10896,9 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="55" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE55">
         <v>80</v>
@@ -10909,15 +10907,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="56" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE56">
         <v>80</v>
@@ -10929,9 +10927,9 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="57" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE57">
         <v>0.5</v>
@@ -10940,9 +10938,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE58">
         <v>30</v>
@@ -10951,9 +10949,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE59">
         <v>200</v>
@@ -10962,9 +10960,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE60">
         <v>80</v>
@@ -10973,15 +10971,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE61">
         <v>150</v>
@@ -10993,9 +10991,9 @@
         <v>2.3945000000000007</v>
       </c>
     </row>
-    <row r="62" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE62">
         <v>0.5</v>
@@ -11004,9 +11002,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE63">
         <v>30</v>
@@ -11015,9 +11013,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE64">
         <v>15</v>
@@ -11026,9 +11024,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE65">
         <v>200</v>
@@ -11037,9 +11035,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE66">
         <v>80</v>
@@ -11048,15 +11046,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="67" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AB67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE67">
         <v>80</v>
@@ -11068,9 +11066,9 @@
         <v>2.7444999999999995</v>
       </c>
     </row>
-    <row r="68" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE68">
         <v>0.5</v>
@@ -11079,9 +11077,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE69">
         <v>30</v>
@@ -11090,9 +11088,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE70">
         <v>15</v>
@@ -11101,9 +11099,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE71">
         <v>200</v>
@@ -11112,9 +11110,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE72">
         <v>40</v>
@@ -11123,9 +11121,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="28:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="28:33" x14ac:dyDescent="0.35">
       <c r="AD73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE73">
         <v>80</v>
@@ -11134,191 +11132,191 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C92" s="7"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="16">
+      <c r="E92" s="15">
         <v>240.76800000000003</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C93" s="7"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="16">
+      <c r="E93" s="15">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C94" s="7"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="16">
+      <c r="E94" s="15">
         <v>26.148333333333333</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C95" s="7"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="16">
+      <c r="E95" s="15">
         <v>11.584</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C96" s="7"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="16">
+      <c r="E96" s="15">
         <v>136.69333333333333</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C97" s="7"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="16">
+      <c r="E97" s="15">
         <v>221.33333333333334</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C98" s="7"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="16">
+      <c r="E98" s="15">
         <v>280.512</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C99" s="7"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="16">
+      <c r="E99" s="15">
         <v>49.43333333333333</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C100" s="7"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="16">
+      <c r="E100" s="15">
         <v>20.762</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C101" s="7"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="16">
+      <c r="E101" s="15">
         <v>15.056000000000001</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C102" s="7"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="16">
+      <c r="E102" s="15">
         <v>18.982399999999998</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C103" s="7"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="16">
+      <c r="E103" s="15">
         <v>16.492000000000001</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C104" s="7"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="16">
+      <c r="E104" s="15">
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C105" s="7"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="16">
+      <c r="E105" s="15">
         <v>27.638399999999997</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C106" s="7"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="16">
+      <c r="E106" s="15">
         <v>288.81666666666666</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C107" s="7"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="16">
+      <c r="E107" s="15">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C108" s="7"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="16">
+      <c r="E108" s="15">
         <v>36.533333333333331</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C109" s="7"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="16">
+      <c r="E109" s="15">
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C110" s="7"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="16">
+      <c r="E110" s="15">
         <v>60.71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C111" s="7"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="16">
+      <c r="E111" s="15">
         <v>13.758333333333333</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C112" s="7"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="16">
+      <c r="E112" s="15">
         <v>31.061333333333334</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C113" s="7"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="16">
+      <c r="E113" s="15">
         <v>11.648</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C114" s="7"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="16">
+      <c r="E114" s="15">
         <v>29.12</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C115" s="7"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="16">
+      <c r="E115" s="15">
         <v>3.2213333333333334</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C116" s="7"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="16">
+      <c r="E116" s="15">
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C117" s="7"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="16">
+      <c r="E117" s="15">
         <v>32.160000000000004</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D118" s="1"/>
-      <c r="E118" s="15"/>
+      <c r="E118" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11337,17 +11335,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="12"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="43"/>
       <c r="D2" s="2">
         <v>2018</v>
       </c>
@@ -11394,7 +11392,7 @@
         <v>2019</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U2">
         <v>11</v>
@@ -11427,64 +11425,64 @@
         <v>20</v>
       </c>
       <c r="AG2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="30">
+        <v>58</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="28">
         <v>1</v>
       </c>
       <c r="V3">
@@ -11515,18 +11513,18 @@
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -11573,56 +11571,56 @@
       <c r="R4" s="2">
         <v>107</v>
       </c>
-      <c r="T4" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="U4" s="29">
-        <f>$D$23*U3</f>
+      <c r="T4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="27">
+        <f t="shared" ref="U4:AD4" si="0">$D$23*U3</f>
         <v>3.75</v>
       </c>
-      <c r="V4" s="29">
-        <f>$D$23*V3</f>
+      <c r="V4" s="27">
+        <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="W4" s="29">
-        <f>$D$23*W3</f>
+      <c r="W4" s="27">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="X4" s="29">
-        <f>$D$23*X3</f>
+      <c r="X4" s="27">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="Y4" s="29">
-        <f>$D$23*Y3</f>
+      <c r="Y4" s="27">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="Z4" s="29">
-        <f>$D$23*Z3</f>
+      <c r="Z4" s="27">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="AA4" s="29">
-        <f>$D$23*AA3</f>
+      <c r="AA4" s="27">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="AB4" s="29">
-        <f>$D$23*AB3</f>
+      <c r="AB4" s="27">
+        <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="AC4" s="29">
-        <f>$D$23*AC3</f>
+      <c r="AC4" s="27">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="AD4" s="29">
-        <f>$D$23*AD3</f>
+      <c r="AD4" s="27">
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
         <v>121</v>
@@ -11670,55 +11668,55 @@
         <v>202</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U5">
-        <f>IF(U3&gt;1,2,1)</f>
+        <f t="shared" ref="U5:AD5" si="1">IF(U3&gt;1,2,1)</f>
         <v>1</v>
       </c>
       <c r="V5">
-        <f>IF(V3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W5">
-        <f>IF(W3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="X5">
-        <f>IF(X3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f>IF(Y3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f>IF(Z3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA5">
-        <f>IF(AA3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AB5">
-        <f>IF(AB3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AC5">
-        <f>IF(AC3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD5">
-        <f>IF(AD3&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>503</v>
@@ -11766,55 +11764,55 @@
         <v>388</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U6">
-        <f>IF(U3&gt;1,2,1)</f>
+        <f t="shared" ref="U6:AD6" si="2">IF(U3&gt;1,2,1)</f>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>IF(V3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W6">
-        <f>IF(W3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X6">
-        <f>IF(X3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y6">
-        <f>IF(Y3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z6">
-        <f>IF(Z3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA6">
-        <f>IF(AA3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB6">
-        <f>IF(AB3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC6">
-        <f>IF(AC3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD6">
-        <f>IF(AD3&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
         <v>115</v>
@@ -11862,55 +11860,55 @@
         <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U7">
-        <f>U5*$AH$2+U6*$AH$3</f>
+        <f t="shared" ref="U7:AD7" si="3">U5*$AH$2+U6*$AH$3</f>
         <v>22</v>
       </c>
       <c r="V7">
-        <f>V5*$AH$2+V6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="W7">
-        <f>W5*$AH$2+W6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="X7">
-        <f>X5*$AH$2+X6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="Y7">
-        <f>Y5*$AH$2+Y6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="Z7">
-        <f>Z5*$AH$2+Z6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AA7">
-        <f>AA5*$AH$2+AA6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AB7">
-        <f>AB5*$AH$2+AB6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AC7">
-        <f>AC5*$AH$2+AC6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AD7">
-        <f>AD5*$AH$2+AD6*$AH$3</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -11958,19 +11956,19 @@
         <v>201</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U8">
         <f>SUM(U7:AD7)</f>
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>300</v>
@@ -12018,19 +12016,19 @@
         <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U9">
         <f>U8*20</f>
         <v>6160</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>302</v>
@@ -12078,12 +12076,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>206</v>
@@ -12131,12 +12129,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -12184,12 +12182,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>81</v>
@@ -12237,12 +12235,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>141</v>
@@ -12290,77 +12288,77 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="12"/>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B16" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="43"/>
       <c r="D16" s="2">
-        <f>SUM(D4:D14)</f>
+        <f t="shared" ref="D16:R16" si="4">SUM(D4:D14)</f>
         <v>1769</v>
       </c>
       <c r="E16" s="2">
-        <f>SUM(E4:E14)</f>
+        <f t="shared" si="4"/>
         <v>1666</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(F4:F14)</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="G16" s="2">
-        <f>SUM(G4:G14)</f>
+        <f t="shared" si="4"/>
         <v>1720</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(H4:H14)</f>
+        <f t="shared" si="4"/>
         <v>648</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(I4:I14)</f>
+        <f t="shared" si="4"/>
         <v>1987</v>
       </c>
       <c r="J16" s="2">
-        <f>SUM(J4:J14)</f>
+        <f t="shared" si="4"/>
         <v>1608</v>
       </c>
       <c r="K16" s="2">
-        <f>SUM(K4:K14)</f>
+        <f t="shared" si="4"/>
         <v>1384</v>
       </c>
       <c r="L16" s="2">
-        <f>SUM(L4:L14)</f>
+        <f t="shared" si="4"/>
         <v>1305</v>
       </c>
       <c r="M16" s="2">
-        <f>SUM(M4:M14)</f>
+        <f t="shared" si="4"/>
         <v>1229</v>
       </c>
       <c r="N16" s="2">
-        <f>SUM(N4:N14)</f>
+        <f t="shared" si="4"/>
         <v>1405</v>
       </c>
       <c r="O16" s="2">
-        <f>SUM(O4:O14)</f>
+        <f t="shared" si="4"/>
         <v>1534</v>
       </c>
       <c r="P16" s="2">
-        <f>SUM(P4:P14)</f>
+        <f t="shared" si="4"/>
         <v>1630</v>
       </c>
       <c r="Q16" s="2">
-        <f>SUM(Q4:Q14)</f>
+        <f t="shared" si="4"/>
         <v>568</v>
       </c>
       <c r="R16" s="2">
-        <f>SUM(R4:R14)</f>
+        <f t="shared" si="4"/>
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="27"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="44"/>
       <c r="D17" s="2">
         <v>20</v>
       </c>
@@ -12407,77 +12405,77 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="26">
+        <f t="shared" ref="D18:R18" si="5">D16/D17</f>
+        <v>88.45</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="5"/>
+        <v>83.3</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="5"/>
+        <v>32.4</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" si="5"/>
+        <v>99.35</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="5"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="5"/>
+        <v>69.2</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="5"/>
+        <v>65.25</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" si="5"/>
+        <v>61.45</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" si="5"/>
+        <v>70.25</v>
+      </c>
+      <c r="O18" s="26">
+        <f t="shared" si="5"/>
+        <v>76.7</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="5"/>
+        <v>81.5</v>
+      </c>
+      <c r="Q18" s="26">
+        <f t="shared" si="5"/>
+        <v>28.4</v>
+      </c>
+      <c r="R18" s="26">
+        <f t="shared" si="5"/>
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28">
-        <f>D16/D17</f>
-        <v>88.45</v>
-      </c>
-      <c r="E18" s="28">
-        <f>E16/E17</f>
-        <v>83.3</v>
-      </c>
-      <c r="F18" s="28">
-        <f>F16/F17</f>
-        <v>60</v>
-      </c>
-      <c r="G18" s="28">
-        <f>G16/G17</f>
-        <v>86</v>
-      </c>
-      <c r="H18" s="28">
-        <f>H16/H17</f>
-        <v>32.4</v>
-      </c>
-      <c r="I18" s="28">
-        <f>I16/I17</f>
-        <v>99.35</v>
-      </c>
-      <c r="J18" s="28">
-        <f>J16/J17</f>
-        <v>80.400000000000006</v>
-      </c>
-      <c r="K18" s="28">
-        <f>K16/K17</f>
-        <v>69.2</v>
-      </c>
-      <c r="L18" s="28">
-        <f>L16/L17</f>
-        <v>65.25</v>
-      </c>
-      <c r="M18" s="28">
-        <f>M16/M17</f>
-        <v>61.45</v>
-      </c>
-      <c r="N18" s="28">
-        <f>N16/N17</f>
-        <v>70.25</v>
-      </c>
-      <c r="O18" s="28">
-        <f>O16/O17</f>
-        <v>76.7</v>
-      </c>
-      <c r="P18" s="28">
-        <f>P16/P17</f>
-        <v>81.5</v>
-      </c>
-      <c r="Q18" s="28">
-        <f>Q16/Q17</f>
-        <v>28.4</v>
-      </c>
-      <c r="R18" s="28">
-        <f>R16/R17</f>
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="2">
         <v>6160</v>
       </c>
@@ -12485,21 +12483,21 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="14">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="25">
         <f>D22/SUM(U3:AD3)</f>
         <v>3.75</v>
       </c>
@@ -12526,19 +12524,19 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2">
         <v>2018</v>
       </c>
@@ -12558,7 +12556,7 @@
         <v>2019</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N4">
         <v>11</v>
@@ -12591,42 +12589,42 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="36">
+        <v>67</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="34">
         <v>31</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="30">
+      <c r="L5" s="45"/>
+      <c r="M5" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="28">
         <v>1</v>
       </c>
       <c r="O5">
@@ -12657,84 +12655,84 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="45">
+    <row r="6" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="42">
         <v>111</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="41">
         <v>117</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="41">
         <v>122</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="41">
         <v>82</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="41">
         <v>145</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="40">
         <v>67</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="36">
+      <c r="J6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="34">
         <v>28</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6" s="29">
-        <f>$I$21*N5</f>
+      <c r="L6" s="46"/>
+      <c r="M6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" ref="N6:W6" si="0">$I$21*N5</f>
         <v>7.4375</v>
       </c>
-      <c r="O6" s="29">
-        <f>$I$21*O5</f>
+      <c r="O6" s="27">
+        <f t="shared" si="0"/>
         <v>22.3125</v>
       </c>
-      <c r="P6" s="29">
-        <f>$I$21*P5</f>
+      <c r="P6" s="27">
+        <f t="shared" si="0"/>
         <v>14.875</v>
       </c>
-      <c r="Q6" s="29">
-        <f>$I$21*Q5</f>
+      <c r="Q6" s="27">
+        <f t="shared" si="0"/>
         <v>7.4375</v>
       </c>
-      <c r="R6" s="29">
-        <f>$I$21*R5</f>
+      <c r="R6" s="27">
+        <f t="shared" si="0"/>
         <v>7.4375</v>
       </c>
-      <c r="S6" s="29">
-        <f>$I$21*S5</f>
+      <c r="S6" s="27">
+        <f t="shared" si="0"/>
         <v>7.4375</v>
       </c>
-      <c r="T6" s="29">
-        <f>$I$21*T5</f>
+      <c r="T6" s="27">
+        <f t="shared" si="0"/>
         <v>7.4375</v>
       </c>
-      <c r="U6" s="29">
-        <f>$I$21*U5</f>
+      <c r="U6" s="27">
+        <f t="shared" si="0"/>
         <v>22.3125</v>
       </c>
-      <c r="V6" s="29">
-        <f>$I$21*V5</f>
+      <c r="V6" s="27">
+        <f t="shared" si="0"/>
         <v>14.875</v>
       </c>
-      <c r="W6" s="29">
-        <f>$I$21*W5</f>
+      <c r="W6" s="27">
+        <f t="shared" si="0"/>
         <v>7.4375</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="41">
+    <row r="7" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="39">
         <v>499</v>
       </c>
       <c r="D7" s="5">
@@ -12749,62 +12747,62 @@
       <c r="G7" s="5">
         <v>442</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>185</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="36">
+      <c r="J7" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="34">
         <v>31</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="33"/>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7">
-        <f>IF(N5&gt;1,2,1)</f>
+        <f t="shared" ref="N7:W7" si="1">IF(N5&gt;1,2,1)</f>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IF(O5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P7">
-        <f>IF(P5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q7">
-        <f>IF(Q5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>IF(R5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IF(S5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IF(T5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>IF(U5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V7">
-        <f>IF(V5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W7">
-        <f>IF(W5&gt;1,2,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="41">
+    <row r="8" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="39">
         <v>564</v>
       </c>
       <c r="D8" s="5">
@@ -12819,62 +12817,62 @@
       <c r="G8" s="5">
         <v>347</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>211</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="36">
+      <c r="J8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="34">
         <v>30</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="33"/>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N8">
-        <f>IF(N5&gt;1,2,1)</f>
+        <f t="shared" ref="N8:W8" si="2">IF(N5&gt;1,2,1)</f>
         <v>1</v>
       </c>
       <c r="O8">
-        <f>IF(O5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P8">
-        <f>IF(P5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q8">
-        <f>IF(Q5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R8">
-        <f>IF(R5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S8">
-        <f>IF(S5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>IF(T5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U8">
-        <f>IF(U5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V8">
-        <f>IF(V5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W8">
-        <f>IF(W5&gt;1,2,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="41">
+    <row r="9" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="39">
         <v>122</v>
       </c>
       <c r="D9" s="5">
@@ -12889,62 +12887,62 @@
       <c r="G9" s="5">
         <v>104</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>42</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="J9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="34">
         <v>31</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="33"/>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9">
-        <f>N7*$AA$4+N8*$AA$5</f>
+        <f t="shared" ref="N9:W9" si="3">N7*$AA$4+N8*$AA$5</f>
         <v>22</v>
       </c>
       <c r="O9">
-        <f>O7*$AA$4+O8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="P9">
-        <f>P7*$AA$4+P8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="Q9">
-        <f>Q7*$AA$4+Q8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="R9">
-        <f>R7*$AA$4+R8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="S9">
-        <f>S7*$AA$4+S8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="T9">
-        <f>T7*$AA$4+T8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="U9">
-        <f>U7*$AA$4+U8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="V9">
-        <f>V7*$AA$4+V8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="W9">
-        <f>W7*$AA$4+W8*$AA$5</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="41">
+    <row r="10" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="39">
         <v>142</v>
       </c>
       <c r="D10" s="5">
@@ -12959,26 +12957,26 @@
       <c r="G10" s="5">
         <v>303</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="38">
         <v>141</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="36">
+      <c r="J10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="34">
         <v>30</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="33"/>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <f>SUM(N9:W9)</f>
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="41">
+    <row r="11" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="39">
         <v>195</v>
       </c>
       <c r="D11" s="5">
@@ -12993,26 +12991,26 @@
       <c r="G11" s="5">
         <v>113</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="38">
         <v>74</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="36">
+      <c r="J11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="34">
         <v>31</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="33"/>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <f>N10*20</f>
         <v>6160</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="41">
+    <row r="12" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="39">
         <v>128</v>
       </c>
       <c r="D12" s="5">
@@ -13027,19 +13025,19 @@
       <c r="G12" s="5">
         <v>198</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <v>79</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="36">
+      <c r="J12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="34">
         <v>31</v>
       </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="41">
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="39">
         <v>149</v>
       </c>
       <c r="D13" s="5">
@@ -13054,19 +13052,19 @@
       <c r="G13" s="5">
         <v>104</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="38">
         <v>51</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="J13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="34">
         <v>30</v>
       </c>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="41">
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="39">
         <v>91</v>
       </c>
       <c r="D14" s="5">
@@ -13081,19 +13079,19 @@
       <c r="G14" s="5">
         <v>106</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="38">
         <v>73</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="J14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="34">
         <v>31</v>
       </c>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="41">
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="39">
         <v>164</v>
       </c>
       <c r="D15" s="5">
@@ -13108,78 +13106,78 @@
       <c r="G15" s="5">
         <v>205</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="38">
         <v>115</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="J15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="34">
         <v>30</v>
       </c>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="39">
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="37">
         <v>112</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>154</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>105</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>91</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>78</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <v>63</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="36">
+      <c r="J16" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="34">
         <v>31</v>
       </c>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2">
-        <f>SUM(C6:C16)</f>
+        <f t="shared" ref="C17:H17" si="4">SUM(C6:C16)</f>
         <v>2277</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(D6:D16)</f>
+        <f t="shared" si="4"/>
         <v>2745</v>
       </c>
       <c r="E17" s="2">
-        <f>SUM(E6:E16)</f>
+        <f t="shared" si="4"/>
         <v>3102</v>
       </c>
       <c r="F17" s="2">
-        <f>SUM(F6:F16)</f>
+        <f t="shared" si="4"/>
         <v>2383</v>
       </c>
       <c r="G17" s="2">
-        <f>SUM(G6:G16)</f>
+        <f t="shared" si="4"/>
         <v>2145</v>
       </c>
       <c r="H17" s="2">
-        <f>SUM(H6:H16)</f>
+        <f t="shared" si="4"/>
         <v>1101</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="2:12" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="32"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -13200,46 +13198,46 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="28">
-        <f>C17/C18</f>
+        <v>107</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" ref="C19:H19" si="5">C17/C18</f>
         <v>113.85</v>
       </c>
-      <c r="D19" s="28">
-        <f>D17/D18</f>
+      <c r="D19" s="26">
+        <f t="shared" si="5"/>
         <v>137.25</v>
       </c>
-      <c r="E19" s="28">
-        <f>E17/E18</f>
+      <c r="E19" s="26">
+        <f t="shared" si="5"/>
         <v>155.1</v>
       </c>
-      <c r="F19" s="28">
-        <f>F17/F18</f>
+      <c r="F19" s="26">
+        <f t="shared" si="5"/>
         <v>119.15</v>
       </c>
-      <c r="G19" s="28">
-        <f>G17/G18</f>
+      <c r="G19" s="26">
+        <f t="shared" si="5"/>
         <v>107.25</v>
       </c>
-      <c r="H19" s="28">
-        <f>H17/H18</f>
+      <c r="H19" s="26">
+        <f t="shared" si="5"/>
         <v>55.05</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="29">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>6160</v>
@@ -13260,18 +13258,18 @@
         <v>6160</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I21">
         <f>I19/SUM(N5:W5)</f>
         <v>7.4375</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -13283,6 +13281,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100640BA8BB502F164CBCD50E73C622A2F0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ee0c01049a29cda806ee4140c302f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f68e04f-749a-4f9f-b073-6c8e4caa1efe" xmlns:ns4="1d7ff15b-21c4-4e42-8404-310e502b1a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c01d0cd1d0885ebc0dd33a4ee29d94f" ns3:_="" ns4:_="">
     <xsd:import namespace="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
@@ -13467,15 +13474,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13483,6 +13481,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA295D57-89A1-4C31-85B3-167F05258456}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13497,14 +13503,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Matt's calculations.xlsx
+++ b/Data/Matt's calculations.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB04BA6-977D-419A-B838-62350AA98FE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56023E7-3E37-41CA-9B7B-6559ABA769BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
     <sheet name="Ingredients use SL" sheetId="3" r:id="rId2"/>
     <sheet name="Ingredients use SMU" sheetId="4" r:id="rId3"/>
-    <sheet name="Manpower calculations SL" sheetId="5" r:id="rId4"/>
-    <sheet name="Manpower calculations SMU" sheetId="6" r:id="rId5"/>
+    <sheet name="Manpower calculations SMU" sheetId="6" r:id="rId4"/>
+    <sheet name="Manpower calculations SL" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,19 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="113">
-  <si>
-    <t xml:space="preserve">So the food costs are not subject to change </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food costs show that they are higher in SMU than in SL, and that is because SMU serves more on average </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My calculations show that it is possible for manpower costs to be reduced to be around 6k assuming that there is higher traffic in lunch and dinner than usual periods. Thus you can have a lunch and dinner crew instead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">On average, SMU serves more customers than SL. But because they have similar foot traffic, we can assume that their manpower costs are roughly the same. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="120">
   <si>
     <t>Noodle</t>
   </si>
@@ -328,22 +316,10 @@
     <t xml:space="preserve">Monthly </t>
   </si>
   <si>
-    <t>Total manpower cost</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook </t>
-  </si>
-  <si>
     <t>Number of people</t>
   </si>
   <si>
     <t>Factor</t>
-  </si>
-  <si>
-    <t>Cook</t>
   </si>
   <si>
     <t>Hour</t>
@@ -361,9 +337,6 @@
     <t xml:space="preserve">Number of people in a day </t>
   </si>
   <si>
-    <t>Days in that month</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
@@ -373,7 +346,55 @@
     <t>Monthly traffic</t>
   </si>
   <si>
-    <t xml:space="preserve">Assumption: Labour costs are 10 dollars an hour for cashiers and 12 dollars for cooks per hour </t>
+    <t>On average, SMU serves more customers than SL. But because they have similar foot traffic, we can assume that their food costs are roughly the same. The reason for this descrepancy was because some dishes were given later which we assume had taken place the entire time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food costs are about there, so we can assume that food costs cannot be cut at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore the food costs are not subject to change </t>
+  </si>
+  <si>
+    <t>Manpower costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part time is $8 to 9$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600 to 2000 according to full time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on experience, role and permit </t>
+  </si>
+  <si>
+    <t>Working days in that month</t>
+  </si>
+  <si>
+    <t>Full timer (assume cook)</t>
+  </si>
+  <si>
+    <t>Part timer (POS)</t>
+  </si>
+  <si>
+    <t>Variable manpower costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Variable costs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Fixed </t>
+  </si>
+  <si>
+    <t>POS Variable</t>
+  </si>
+  <si>
+    <t>Fixed manpower costs monthly</t>
+  </si>
+  <si>
+    <t>1600 to 2000</t>
+  </si>
+  <si>
+    <t>Average Customers per day</t>
   </si>
 </sst>
 </file>
@@ -386,7 +407,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.0000_-;\-&quot;$&quot;* #,##0.0000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4278,37 +4302,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A92F12E-2D4C-476F-8ED4-12D8E7DDF219}">
-  <dimension ref="B3:B7"/>
+  <dimension ref="B3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4320,11 +4354,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84AE09D-EC1B-45A8-9708-C9988E4467D6}">
   <dimension ref="B3:BA73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -4356,87 +4390,87 @@
     <col min="52" max="52" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:53">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>74</v>
-      </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AG3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AI3" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AJ3" s="43"/>
       <c r="AK3" s="2">
@@ -4485,9 +4519,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:53">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C10" si="0">VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
@@ -4541,7 +4575,7 @@
         <v>0.11993626404749209</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T4" s="5">
         <v>1000</v>
@@ -4554,13 +4588,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE4">
         <v>200</v>
@@ -4574,60 +4608,60 @@
       <c r="AI4" s="43"/>
       <c r="AJ4" s="43"/>
       <c r="AK4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AV4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:53" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:53">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -4687,7 +4721,7 @@
         <v>2.4050496563990702E-2</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -4700,7 +4734,7 @@
         <v>0.2</v>
       </c>
       <c r="AD5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>0.5</v>
@@ -4709,10 +4743,10 @@
         <v>0.1</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -4768,9 +4802,9 @@
         <v>65.466666666666669</v>
       </c>
     </row>
-    <row r="6" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:53">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -4826,7 +4860,7 @@
         <v>1.0544186770927439E-2</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T6" s="5">
         <v>100</v>
@@ -4839,7 +4873,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE6">
         <v>15</v>
@@ -4848,10 +4882,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AJ6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AK6">
         <v>121</v>
@@ -4907,9 +4941,9 @@
         <v>202.86666666666667</v>
       </c>
     </row>
-    <row r="7" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:53">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -4965,7 +4999,7 @@
         <v>4.5941071291512531E-3</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T7" s="5">
         <v>100</v>
@@ -4978,7 +5012,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE7">
         <v>10</v>
@@ -4987,10 +5021,10 @@
         <v>0.04</v>
       </c>
       <c r="AI7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK7">
         <v>503</v>
@@ -5046,9 +5080,9 @@
         <v>381.06666666666666</v>
       </c>
     </row>
-    <row r="8" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:53">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -5103,7 +5137,7 @@
         <v>7.4680462921362822E-2</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T8" s="5">
         <v>1000</v>
@@ -5116,7 +5150,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE8">
         <v>200</v>
@@ -5125,10 +5159,10 @@
         <v>0.8</v>
       </c>
       <c r="AI8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AK8">
         <v>115</v>
@@ -5184,9 +5218,9 @@
         <v>81.13333333333334</v>
       </c>
     </row>
-    <row r="9" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:53">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -5245,7 +5279,7 @@
         <v>0.10099576961244232</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T9" s="5">
         <v>1000</v>
@@ -5258,7 +5292,7 @@
         <v>2E-3</v>
       </c>
       <c r="AD9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>20</v>
@@ -5267,10 +5301,10 @@
         <v>0.2</v>
       </c>
       <c r="AI9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -5326,9 +5360,9 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="10" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:53">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -5390,7 +5424,7 @@
         <v>0.12809735000802053</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T10" s="5">
         <v>1000</v>
@@ -5403,7 +5437,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>80</v>
@@ -5412,10 +5446,10 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="AI10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AK10">
         <v>300</v>
@@ -5471,9 +5505,9 @@
         <v>122.2</v>
       </c>
     </row>
-    <row r="11" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:53">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -5526,7 +5560,7 @@
         <v>1.4776623535015286E-2</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5">
         <v>100</v>
@@ -5539,13 +5573,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AD11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AE11">
         <v>50</v>
@@ -5557,10 +5591,10 @@
         <v>1.0385000000000002</v>
       </c>
       <c r="AI11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK11">
         <v>302</v>
@@ -5616,9 +5650,9 @@
         <v>132.73333333333332</v>
       </c>
     </row>
-    <row r="12" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:53">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -5671,7 +5705,7 @@
         <v>6.20618188470642E-3</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" s="5">
         <v>100</v>
@@ -5684,7 +5718,7 @@
         <v>0.01</v>
       </c>
       <c r="AD12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE12">
         <v>0.5</v>
@@ -5693,10 +5727,10 @@
         <v>0.1</v>
       </c>
       <c r="AI12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK12">
         <v>206</v>
@@ -5752,9 +5786,9 @@
         <v>111.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:53">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -5808,7 +5842,7 @@
         <v>6.8053076854787458E-3</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T13" s="5">
         <v>1000</v>
@@ -5821,7 +5855,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE13">
         <v>15</v>
@@ -5830,10 +5864,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -5889,9 +5923,9 @@
         <v>25.066666666666666</v>
       </c>
     </row>
-    <row r="14" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:53">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -5944,7 +5978,7 @@
         <v>5.6742234374458694E-3</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T14" s="5">
         <v>1000</v>
@@ -5957,7 +5991,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE14">
         <v>30</v>
@@ -5966,10 +6000,10 @@
         <v>0.105</v>
       </c>
       <c r="AI14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK14">
         <v>81</v>
@@ -6025,9 +6059,9 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:53">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -6082,7 +6116,7 @@
         <v>6.2133201155958285E-3</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T15" s="5">
         <v>100</v>
@@ -6095,7 +6129,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE15">
         <v>20</v>
@@ -6104,10 +6138,10 @@
         <v>0.04</v>
       </c>
       <c r="AI15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AK15">
         <v>141</v>
@@ -6163,9 +6197,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:53">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -6218,7 +6252,7 @@
         <v>9.9923578197216756E-2</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T16" s="5">
         <v>1000</v>
@@ -6231,7 +6265,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AE16">
         <v>30</v>
@@ -6240,9 +6274,9 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:36">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -6299,7 +6333,7 @@
         <v>1.5120695975763574E-2</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T17" s="5">
         <v>1000</v>
@@ -6312,7 +6346,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>80</v>
@@ -6321,9 +6355,9 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:36">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -6379,7 +6413,7 @@
         <v>0.15721103744532366</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T18" s="5">
         <v>1000</v>
@@ -6392,7 +6426,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE18">
         <v>15</v>
@@ -6401,9 +6435,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:36">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -6456,7 +6490,7 @@
         <v>7.0916138713560048E-2</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T19" s="5">
         <v>1000</v>
@@ -6469,13 +6503,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AB19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AC19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE19">
         <v>150</v>
@@ -6487,9 +6521,9 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:36">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -6542,7 +6576,7 @@
         <v>1.8910970323616015E-2</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T20" s="5">
         <v>1000</v>
@@ -6555,7 +6589,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <v>40</v>
@@ -6564,9 +6598,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:36">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6619,7 +6653,7 @@
         <v>8.5099366456272071E-3</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T21" s="5">
         <v>1000</v>
@@ -6632,7 +6666,7 @@
         <v>0.01</v>
       </c>
       <c r="AD21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE21">
         <v>20</v>
@@ -6641,9 +6675,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:36">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -6697,7 +6731,7 @@
         <v>1.955681026122923E-2</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T22" s="5">
         <v>1000</v>
@@ -6710,7 +6744,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE22">
         <v>30</v>
@@ -6719,9 +6753,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:36">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -6775,7 +6809,7 @@
         <v>4.8564249744885929E-3</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T23" s="5">
         <v>1000</v>
@@ -6788,7 +6822,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AD23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE23">
         <v>200</v>
@@ -6800,9 +6834,9 @@
         <v>982</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:36">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -6855,7 +6889,7 @@
         <v>2.0760112039729658E-2</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T24" s="5">
         <v>1000</v>
@@ -6868,7 +6902,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="AD24" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>80</v>
@@ -6880,9 +6914,9 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:36">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -6935,7 +6969,7 @@
         <v>7.785042014898623E-3</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T25" s="5">
         <v>1000</v>
@@ -6948,13 +6982,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE25">
         <v>200</v>
@@ -6969,9 +7003,9 @@
         <v>5716</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:36">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -7024,7 +7058,7 @@
         <v>1.9462605037246554E-2</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T26" s="5">
         <v>100</v>
@@ -7037,7 +7071,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD26" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26">
         <v>40</v>
@@ -7049,9 +7083,9 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:36">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -7104,7 +7138,7 @@
         <v>5.8426662626784082E-4</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T27" s="5">
         <v>1000</v>
@@ -7117,7 +7151,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="AD27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE27">
         <v>200</v>
@@ -7129,9 +7163,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:36">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -7184,7 +7218,7 @@
         <v>2.7023302652763741E-2</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T28" s="5">
         <v>100</v>
@@ -7197,7 +7231,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE28">
         <v>20</v>
@@ -7209,9 +7243,9 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:36">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -7264,7 +7298,7 @@
         <v>2.6804785380638969E-2</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T29" s="5">
         <v>1000</v>
@@ -7277,7 +7311,7 @@
         <v>1E-3</v>
       </c>
       <c r="AD29" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <v>80</v>
@@ -7289,15 +7323,15 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:36">
       <c r="AB30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE30">
         <v>50</v>
@@ -7312,9 +7346,9 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:36">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
         <v>982</v>
@@ -7350,7 +7384,7 @@
         <v>1725</v>
       </c>
       <c r="AD31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE31">
         <v>0.5</v>
@@ -7362,9 +7396,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:36">
       <c r="N32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O32" s="1">
         <f>SUM(O4:O29)</f>
@@ -7375,7 +7409,7 @@
         <v>3432.2229666666676</v>
       </c>
       <c r="AD32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE32">
         <v>15</v>
@@ -7387,16 +7421,16 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="33" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="15:36">
       <c r="O33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P33" s="1">
         <f>P32*1.2</f>
         <v>4118.6675600000008</v>
       </c>
       <c r="AD33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE33">
         <v>10</v>
@@ -7408,9 +7442,9 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="34" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="15:36">
       <c r="AD34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE34">
         <v>50</v>
@@ -7419,9 +7453,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="15:36">
       <c r="AD35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE35">
         <v>40</v>
@@ -7430,9 +7464,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="15:36">
       <c r="AD36" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE36">
         <v>80</v>
@@ -7441,15 +7475,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="15:36">
       <c r="AB37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE37">
         <v>80</v>
@@ -7461,9 +7495,9 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="15:36">
       <c r="AD38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE38">
         <v>0.5</v>
@@ -7472,9 +7506,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="15:36">
       <c r="AD39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE39">
         <v>10</v>
@@ -7483,9 +7517,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="15:36">
       <c r="AD40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE40">
         <v>10</v>
@@ -7494,9 +7528,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="15:36">
       <c r="AD41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE41">
         <v>200</v>
@@ -7505,9 +7539,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="15:36">
       <c r="AD42" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <v>80</v>
@@ -7516,15 +7550,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="15:36">
       <c r="AB43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AD43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE43">
         <v>50</v>
@@ -7536,9 +7570,9 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="15:36">
       <c r="AD44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE44">
         <v>0.5</v>
@@ -7547,9 +7581,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="15:36">
       <c r="AD45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE45">
         <v>15</v>
@@ -7558,9 +7592,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="15:36">
       <c r="AD46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE46">
         <v>10</v>
@@ -7569,9 +7603,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="15:36">
       <c r="AD47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE47">
         <v>200</v>
@@ -7580,9 +7614,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="15:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="15:36">
       <c r="AD48" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>40</v>
@@ -7591,9 +7625,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="28:33">
       <c r="AD49" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE49">
         <v>80</v>
@@ -7602,15 +7636,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="50" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="28:33">
       <c r="AB50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE50">
         <v>80</v>
@@ -7622,9 +7656,9 @@
         <v>1.9720000000000002</v>
       </c>
     </row>
-    <row r="51" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="28:33">
       <c r="AD51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE51">
         <v>80</v>
@@ -7633,9 +7667,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="28:33">
       <c r="AD52" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE52">
         <v>20</v>
@@ -7644,9 +7678,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="28:33">
       <c r="AD53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE53">
         <v>30</v>
@@ -7655,9 +7689,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="28:33">
       <c r="AD54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE54">
         <v>200</v>
@@ -7666,9 +7700,9 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="55" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="28:33">
       <c r="AD55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE55">
         <v>80</v>
@@ -7677,15 +7711,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="56" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="28:33">
       <c r="AB56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE56">
         <v>80</v>
@@ -7697,9 +7731,9 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="57" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="28:33">
       <c r="AD57" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE57">
         <v>0.5</v>
@@ -7708,9 +7742,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="28:33">
       <c r="AD58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE58">
         <v>30</v>
@@ -7719,9 +7753,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="28:33">
       <c r="AD59" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE59">
         <v>200</v>
@@ -7730,9 +7764,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="28:33">
       <c r="AD60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE60">
         <v>80</v>
@@ -7741,15 +7775,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="28:33">
       <c r="AB61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE61">
         <v>150</v>
@@ -7761,9 +7795,9 @@
         <v>2.3945000000000007</v>
       </c>
     </row>
-    <row r="62" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="28:33">
       <c r="AD62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE62">
         <v>0.5</v>
@@ -7772,9 +7806,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="28:33">
       <c r="AD63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE63">
         <v>30</v>
@@ -7783,9 +7817,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="28:33">
       <c r="AD64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE64">
         <v>15</v>
@@ -7794,9 +7828,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="28:33">
       <c r="AD65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE65">
         <v>200</v>
@@ -7805,9 +7839,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="28:33">
       <c r="AD66" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE66">
         <v>80</v>
@@ -7816,15 +7850,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="67" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="28:33">
       <c r="AB67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE67">
         <v>80</v>
@@ -7836,9 +7870,9 @@
         <v>2.7444999999999995</v>
       </c>
     </row>
-    <row r="68" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="28:33">
       <c r="AD68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE68">
         <v>0.5</v>
@@ -7847,9 +7881,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="28:33">
       <c r="AD69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE69">
         <v>30</v>
@@ -7858,9 +7892,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="28:33">
       <c r="AD70" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE70">
         <v>15</v>
@@ -7869,9 +7903,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="28:33">
       <c r="AD71" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE71">
         <v>200</v>
@@ -7880,9 +7914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="28:33">
       <c r="AD72" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE72">
         <v>40</v>
@@ -7891,9 +7925,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="28:33">
       <c r="AD73" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE73">
         <v>80</v>
@@ -7919,7 +7953,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
@@ -7953,87 +7987,87 @@
     <col min="52" max="52" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:52">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>74</v>
-      </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AG3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AI3" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AJ3" s="43"/>
       <c r="AK3" s="2">
@@ -8064,9 +8098,9 @@
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
     </row>
-    <row r="4" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:52" ht="15" thickBot="1">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C10" si="0">VLOOKUP($B4,$AD$4:$AE$10,2,FALSE)</f>
@@ -8120,7 +8154,7 @@
         <v>0.11854173499368088</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U4" s="5">
         <v>1000</v>
@@ -8133,13 +8167,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE4">
         <v>200</v>
@@ -8153,28 +8187,28 @@
       <c r="AI4" s="43"/>
       <c r="AJ4" s="43"/>
       <c r="AK4" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
@@ -8185,9 +8219,9 @@
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
     </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:52">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -8247,7 +8281,7 @@
         <v>3.1707235735617061E-2</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
@@ -8260,7 +8294,7 @@
         <v>0.2</v>
       </c>
       <c r="AD5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>0.5</v>
@@ -8269,10 +8303,10 @@
         <v>0.1</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AK5" s="24">
         <v>111</v>
@@ -8301,9 +8335,9 @@
         <v>107.33333333333333</v>
       </c>
     </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:52">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -8359,7 +8393,7 @@
         <v>1.2874089582197103E-2</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U6" s="5">
         <v>100</v>
@@ -8372,7 +8406,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE6">
         <v>15</v>
@@ -8381,10 +8415,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AJ6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AK6" s="21">
         <v>499</v>
@@ -8413,9 +8447,9 @@
         <v>494.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:52">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -8471,7 +8505,7 @@
         <v>5.7033636453631678E-3</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U7" s="5">
         <v>100</v>
@@ -8484,7 +8518,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE7">
         <v>10</v>
@@ -8493,10 +8527,10 @@
         <v>0.04</v>
       </c>
       <c r="AI7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK7" s="21">
         <v>564</v>
@@ -8525,9 +8559,9 @@
         <v>446.66666666666669</v>
       </c>
     </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:52">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -8582,7 +8616,7 @@
         <v>6.7300741358498159E-2</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U8" s="5">
         <v>1000</v>
@@ -8595,7 +8629,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE8">
         <v>200</v>
@@ -8604,10 +8638,10 @@
         <v>0.8</v>
       </c>
       <c r="AI8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AK8" s="21">
         <v>122</v>
@@ -8636,9 +8670,9 @@
         <v>114.16666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:52">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -8697,7 +8731,7 @@
         <v>0.10897310832530915</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U9" s="5">
         <v>1000</v>
@@ -8710,7 +8744,7 @@
         <v>2E-3</v>
       </c>
       <c r="AD9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>20</v>
@@ -8719,10 +8753,10 @@
         <v>0.2</v>
       </c>
       <c r="AI9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK9" s="21">
         <v>142</v>
@@ -8751,9 +8785,9 @@
         <v>296.83333333333331</v>
       </c>
     </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:52">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -8815,7 +8849,7 @@
         <v>0.13810962904766169</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U10" s="5">
         <v>1000</v>
@@ -8828,7 +8862,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>80</v>
@@ -8837,10 +8871,10 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="AI10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AK10" s="21">
         <v>195</v>
@@ -8869,9 +8903,9 @@
         <v>149.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:52">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -8924,7 +8958,7 @@
         <v>2.4338421633499016E-2</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="5">
         <v>100</v>
@@ -8937,13 +8971,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AD11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AE11">
         <v>50</v>
@@ -8955,10 +8989,10 @@
         <v>1.0385000000000002</v>
       </c>
       <c r="AI11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK11" s="21">
         <v>128</v>
@@ -8987,9 +9021,9 @@
         <v>170.16666666666666</v>
       </c>
     </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:52">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -9042,7 +9076,7 @@
         <v>1.0222137086069586E-2</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U12" s="5">
         <v>100</v>
@@ -9055,7 +9089,7 @@
         <v>0.01</v>
       </c>
       <c r="AD12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE12">
         <v>0.5</v>
@@ -9064,10 +9098,10 @@
         <v>0.1</v>
       </c>
       <c r="AI12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK12" s="21">
         <v>149</v>
@@ -9096,9 +9130,9 @@
         <v>121.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:52">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -9152,7 +9186,7 @@
         <v>7.4127972241529571E-3</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U13" s="5">
         <v>1000</v>
@@ -9165,7 +9199,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE13">
         <v>15</v>
@@ -9174,10 +9208,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AI13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK13" s="21">
         <v>91</v>
@@ -9206,9 +9240,9 @@
         <v>100.66666666666667</v>
       </c>
     </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:52">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -9261,7 +9295,7 @@
         <v>9.3459539072636207E-3</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U14" s="5">
         <v>1000</v>
@@ -9274,7 +9308,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AE14">
         <v>30</v>
@@ -9283,10 +9317,10 @@
         <v>0.105</v>
       </c>
       <c r="AI14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK14" s="21">
         <v>164</v>
@@ -9315,9 +9349,9 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="15" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:52" ht="15" thickBot="1">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -9372,7 +9406,7 @@
         <v>8.1198094992514982E-3</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U15" s="5">
         <v>100</v>
@@ -9385,7 +9419,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE15">
         <v>20</v>
@@ -9394,10 +9428,10 @@
         <v>0.04</v>
       </c>
       <c r="AI15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AK15" s="19">
         <v>112</v>
@@ -9426,9 +9460,9 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="16" spans="2:52" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:52">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -9481,7 +9515,7 @@
         <v>7.9169619662845081E-2</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U16" s="5">
         <v>1000</v>
@@ -9494,7 +9528,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AE16">
         <v>30</v>
@@ -9503,9 +9537,9 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -9562,7 +9596,7 @@
         <v>1.3607721493094384E-2</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U17" s="5">
         <v>1000</v>
@@ -9575,7 +9609,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>80</v>
@@ -9584,9 +9618,9 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:33">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -9642,7 +9676,7 @@
         <v>0.14219841823563872</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U18" s="5">
         <v>1000</v>
@@ -9655,7 +9689,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE18">
         <v>15</v>
@@ -9664,9 +9698,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:33">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -9719,7 +9753,7 @@
         <v>6.7451728195334432E-2</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U19" s="5">
         <v>1000</v>
@@ -9732,13 +9766,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AB19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AC19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE19">
         <v>150</v>
@@ -9750,9 +9784,9 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -9805,7 +9839,7 @@
         <v>1.7987127518755846E-2</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U20" s="5">
         <v>1000</v>
@@ -9818,7 +9852,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <v>40</v>
@@ -9827,9 +9861,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -9882,7 +9916,7 @@
         <v>8.0942073834401312E-3</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U21" s="5">
         <v>1000</v>
@@ -9895,7 +9929,7 @@
         <v>0.01</v>
       </c>
       <c r="AD21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE21">
         <v>20</v>
@@ -9904,9 +9938,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -9960,7 +9994,7 @@
         <v>2.9890470209771921E-2</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U22" s="5">
         <v>1000</v>
@@ -9973,7 +10007,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE22">
         <v>30</v>
@@ -9982,9 +10016,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -10038,7 +10072,7 @@
         <v>6.7738931417577345E-3</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U23" s="5">
         <v>1000</v>
@@ -10051,7 +10085,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AD23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE23">
         <v>200</v>
@@ -10060,9 +10094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -10115,7 +10149,7 @@
         <v>1.5292997177990373E-2</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U24" s="5">
         <v>1000</v>
@@ -10128,7 +10162,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="AD24" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>80</v>
@@ -10137,9 +10171,9 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -10192,7 +10226,7 @@
         <v>5.7348739417463898E-3</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U25" s="5">
         <v>1000</v>
@@ -10205,13 +10239,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AB25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE25">
         <v>200</v>
@@ -10223,9 +10257,9 @@
         <v>4.8800000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -10278,7 +10312,7 @@
         <v>1.4337184854365975E-2</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U26" s="5">
         <v>100</v>
@@ -10291,7 +10325,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AD26" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26">
         <v>40</v>
@@ -10300,9 +10334,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -10355,7 +10389,7 @@
         <v>1.5860182512888368E-3</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U27" s="5">
         <v>1000</v>
@@ -10368,7 +10402,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="AD27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE27">
         <v>200</v>
@@ -10377,9 +10411,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -10432,7 +10466,7 @@
         <v>3.9392793962837284E-2</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U28" s="5">
         <v>100</v>
@@ -10445,7 +10479,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE28">
         <v>20</v>
@@ -10454,9 +10488,9 @@
         <v>0.36000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -10509,7 +10543,7 @@
         <v>1.5833923932569018E-2</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U29" s="5">
         <v>1000</v>
@@ -10522,7 +10556,7 @@
         <v>1E-3</v>
       </c>
       <c r="AD29" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <v>80</v>
@@ -10531,15 +10565,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:33">
       <c r="AB30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE30">
         <v>50</v>
@@ -10551,9 +10585,9 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:33">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
         <v>644</v>
@@ -10589,7 +10623,7 @@
         <v>603</v>
       </c>
       <c r="AD31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE31">
         <v>0.5</v>
@@ -10598,9 +10632,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:33">
       <c r="N32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O32" s="1">
         <f>SUM(O4:O29)</f>
@@ -10611,7 +10645,7 @@
         <v>5077.7053333333333</v>
       </c>
       <c r="AD32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE32">
         <v>15</v>
@@ -10620,16 +10654,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="14:33">
       <c r="N33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P33" s="1">
         <f>P32*1.1</f>
         <v>5585.4758666666667</v>
       </c>
       <c r="AD33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE33">
         <v>10</v>
@@ -10638,9 +10672,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="14:33">
       <c r="AD34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE34">
         <v>50</v>
@@ -10649,9 +10683,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="14:33">
       <c r="AD35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE35">
         <v>40</v>
@@ -10660,9 +10694,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="14:33">
       <c r="AD36" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE36">
         <v>80</v>
@@ -10671,15 +10705,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="14:33">
       <c r="AB37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE37">
         <v>80</v>
@@ -10691,9 +10725,9 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="14:33">
       <c r="AD38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE38">
         <v>0.5</v>
@@ -10702,9 +10736,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="14:33">
       <c r="AD39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE39">
         <v>10</v>
@@ -10713,9 +10747,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="14:33">
       <c r="AD40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE40">
         <v>10</v>
@@ -10724,9 +10758,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="14:33">
       <c r="AD41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE41">
         <v>200</v>
@@ -10735,9 +10769,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="14:33">
       <c r="AD42" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <v>80</v>
@@ -10746,15 +10780,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="14:33">
       <c r="AB43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AD43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE43">
         <v>50</v>
@@ -10766,9 +10800,9 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="14:33">
       <c r="AD44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE44">
         <v>0.5</v>
@@ -10777,9 +10811,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="14:33">
       <c r="AD45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE45">
         <v>15</v>
@@ -10788,9 +10822,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="14:33">
       <c r="AD46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE46">
         <v>10</v>
@@ -10799,9 +10833,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="14:33">
       <c r="AD47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE47">
         <v>200</v>
@@ -10810,9 +10844,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="14:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="14:33">
       <c r="AD48" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>40</v>
@@ -10821,9 +10855,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="28:33">
       <c r="AD49" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE49">
         <v>80</v>
@@ -10832,15 +10866,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="50" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="28:33">
       <c r="AB50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE50">
         <v>80</v>
@@ -10852,9 +10886,9 @@
         <v>1.9720000000000002</v>
       </c>
     </row>
-    <row r="51" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="28:33">
       <c r="AD51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE51">
         <v>80</v>
@@ -10863,9 +10897,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="28:33">
       <c r="AD52" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE52">
         <v>20</v>
@@ -10874,9 +10908,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="28:33">
       <c r="AD53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE53">
         <v>30</v>
@@ -10885,9 +10919,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="28:33">
       <c r="AD54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE54">
         <v>200</v>
@@ -10896,9 +10930,9 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="55" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="28:33">
       <c r="AD55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE55">
         <v>80</v>
@@ -10907,15 +10941,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="56" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="28:33">
       <c r="AB56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE56">
         <v>80</v>
@@ -10927,9 +10961,9 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="57" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="28:33">
       <c r="AD57" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE57">
         <v>0.5</v>
@@ -10938,9 +10972,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="28:33">
       <c r="AD58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE58">
         <v>30</v>
@@ -10949,9 +10983,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="28:33">
       <c r="AD59" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE59">
         <v>200</v>
@@ -10960,9 +10994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="28:33">
       <c r="AD60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE60">
         <v>80</v>
@@ -10971,15 +11005,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="28:33">
       <c r="AB61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE61">
         <v>150</v>
@@ -10991,9 +11025,9 @@
         <v>2.3945000000000007</v>
       </c>
     </row>
-    <row r="62" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="28:33">
       <c r="AD62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE62">
         <v>0.5</v>
@@ -11002,9 +11036,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="28:33">
       <c r="AD63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE63">
         <v>30</v>
@@ -11013,9 +11047,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="28:33">
       <c r="AD64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE64">
         <v>15</v>
@@ -11024,9 +11058,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="28:33">
       <c r="AD65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE65">
         <v>200</v>
@@ -11035,9 +11069,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="28:33">
       <c r="AD66" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE66">
         <v>80</v>
@@ -11046,15 +11080,15 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="67" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="28:33">
       <c r="AB67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD67" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE67">
         <v>80</v>
@@ -11066,9 +11100,9 @@
         <v>2.7444999999999995</v>
       </c>
     </row>
-    <row r="68" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="28:33">
       <c r="AD68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE68">
         <v>0.5</v>
@@ -11077,9 +11111,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="28:33">
       <c r="AD69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE69">
         <v>30</v>
@@ -11088,9 +11122,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="28:33">
       <c r="AD70" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE70">
         <v>15</v>
@@ -11099,9 +11133,9 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="28:33">
       <c r="AD71" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE71">
         <v>200</v>
@@ -11110,9 +11144,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="28:33">
       <c r="AD72" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE72">
         <v>40</v>
@@ -11121,9 +11155,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="28:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="28:33">
       <c r="AD73" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE73">
         <v>80</v>
@@ -11132,189 +11166,189 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:5">
       <c r="C92" s="7"/>
       <c r="D92" s="1"/>
       <c r="E92" s="15">
         <v>240.76800000000003</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:5">
       <c r="C93" s="7"/>
       <c r="D93" s="1"/>
       <c r="E93" s="15">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:5">
       <c r="C94" s="7"/>
       <c r="D94" s="1"/>
       <c r="E94" s="15">
         <v>26.148333333333333</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:5">
       <c r="C95" s="7"/>
       <c r="D95" s="1"/>
       <c r="E95" s="15">
         <v>11.584</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:5">
       <c r="C96" s="7"/>
       <c r="D96" s="1"/>
       <c r="E96" s="15">
         <v>136.69333333333333</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:5">
       <c r="C97" s="7"/>
       <c r="D97" s="1"/>
       <c r="E97" s="15">
         <v>221.33333333333334</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:5">
       <c r="C98" s="7"/>
       <c r="D98" s="1"/>
       <c r="E98" s="15">
         <v>280.512</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:5">
       <c r="C99" s="7"/>
       <c r="D99" s="1"/>
       <c r="E99" s="15">
         <v>49.43333333333333</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:5">
       <c r="C100" s="7"/>
       <c r="D100" s="1"/>
       <c r="E100" s="15">
         <v>20.762</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:5">
       <c r="C101" s="7"/>
       <c r="D101" s="1"/>
       <c r="E101" s="15">
         <v>15.056000000000001</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:5">
       <c r="C102" s="7"/>
       <c r="D102" s="1"/>
       <c r="E102" s="15">
         <v>18.982399999999998</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:5">
       <c r="C103" s="7"/>
       <c r="D103" s="1"/>
       <c r="E103" s="15">
         <v>16.492000000000001</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:5">
       <c r="C104" s="7"/>
       <c r="D104" s="1"/>
       <c r="E104" s="15">
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:5">
       <c r="C105" s="7"/>
       <c r="D105" s="1"/>
       <c r="E105" s="15">
         <v>27.638399999999997</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:5">
       <c r="C106" s="7"/>
       <c r="D106" s="1"/>
       <c r="E106" s="15">
         <v>288.81666666666666</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:5">
       <c r="C107" s="7"/>
       <c r="D107" s="1"/>
       <c r="E107" s="15">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:5">
       <c r="C108" s="7"/>
       <c r="D108" s="1"/>
       <c r="E108" s="15">
         <v>36.533333333333331</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:5">
       <c r="C109" s="7"/>
       <c r="D109" s="1"/>
       <c r="E109" s="15">
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:5">
       <c r="C110" s="7"/>
       <c r="D110" s="1"/>
       <c r="E110" s="15">
         <v>60.71</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:5">
       <c r="C111" s="7"/>
       <c r="D111" s="1"/>
       <c r="E111" s="15">
         <v>13.758333333333333</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:5">
       <c r="C112" s="7"/>
       <c r="D112" s="1"/>
       <c r="E112" s="15">
         <v>31.061333333333334</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:5">
       <c r="C113" s="7"/>
       <c r="D113" s="1"/>
       <c r="E113" s="15">
         <v>11.648</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:5">
       <c r="C114" s="7"/>
       <c r="D114" s="1"/>
       <c r="E114" s="15">
         <v>29.12</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:5">
       <c r="C115" s="7"/>
       <c r="D115" s="1"/>
       <c r="E115" s="15">
         <v>3.2213333333333334</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:5">
       <c r="C116" s="7"/>
       <c r="D116" s="1"/>
       <c r="E116" s="15">
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:5">
       <c r="C117" s="7"/>
       <c r="D117" s="1"/>
       <c r="E117" s="15">
         <v>32.160000000000004</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:5">
       <c r="D118" s="1"/>
       <c r="E118" s="14"/>
     </row>
@@ -11328,22 +11362,785 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4AF215-0496-4E4C-B017-88A497F0FD0B}">
+  <dimension ref="B2:AA24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:AA12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="15" thickBot="1">
+      <c r="C4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>17</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>19</v>
+      </c>
+      <c r="W4">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="34">
+        <v>31</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="28">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="15" thickBot="1">
+      <c r="C6" s="42">
+        <v>111</v>
+      </c>
+      <c r="D6" s="41">
+        <v>117</v>
+      </c>
+      <c r="E6" s="41">
+        <v>122</v>
+      </c>
+      <c r="F6" s="41">
+        <v>82</v>
+      </c>
+      <c r="G6" s="41">
+        <v>145</v>
+      </c>
+      <c r="H6" s="40">
+        <v>67</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="34">
+        <v>28</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" ref="N6:W6" si="0">$I$21*N5</f>
+        <v>7.1630208333333334</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" si="0"/>
+        <v>21.489062499999999</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="0"/>
+        <v>14.326041666666667</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" si="0"/>
+        <v>7.1630208333333334</v>
+      </c>
+      <c r="R6" s="27">
+        <f t="shared" si="0"/>
+        <v>7.1630208333333334</v>
+      </c>
+      <c r="S6" s="27">
+        <f t="shared" si="0"/>
+        <v>7.1630208333333334</v>
+      </c>
+      <c r="T6" s="27">
+        <f t="shared" si="0"/>
+        <v>7.1630208333333334</v>
+      </c>
+      <c r="U6" s="27">
+        <f t="shared" si="0"/>
+        <v>21.489062499999999</v>
+      </c>
+      <c r="V6" s="27">
+        <f t="shared" si="0"/>
+        <v>14.326041666666667</v>
+      </c>
+      <c r="W6" s="27">
+        <f t="shared" si="0"/>
+        <v>7.1630208333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C7" s="39">
+        <v>499</v>
+      </c>
+      <c r="D7" s="5">
+        <v>611</v>
+      </c>
+      <c r="E7" s="5">
+        <v>703</v>
+      </c>
+      <c r="F7" s="5">
+        <v>526</v>
+      </c>
+      <c r="G7" s="5">
+        <v>442</v>
+      </c>
+      <c r="H7" s="38">
+        <v>185</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="34">
+        <v>31</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C8" s="39">
+        <v>564</v>
+      </c>
+      <c r="D8" s="5">
+        <v>565</v>
+      </c>
+      <c r="E8" s="5">
+        <v>593</v>
+      </c>
+      <c r="F8" s="5">
+        <v>400</v>
+      </c>
+      <c r="G8" s="5">
+        <v>347</v>
+      </c>
+      <c r="H8" s="38">
+        <v>211</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="34">
+        <v>30</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:W8" si="1">IF(N5&gt;1,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C9" s="39">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5">
+        <v>120</v>
+      </c>
+      <c r="E9" s="5">
+        <v>178</v>
+      </c>
+      <c r="F9" s="5">
+        <v>119</v>
+      </c>
+      <c r="G9" s="5">
+        <v>104</v>
+      </c>
+      <c r="H9" s="38">
+        <v>42</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="34">
+        <v>31</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9">
+        <f>N8*$AA$5</f>
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:W9" si="2">O8*$AA$5</f>
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C10" s="39">
+        <v>142</v>
+      </c>
+      <c r="D10" s="5">
+        <v>396</v>
+      </c>
+      <c r="E10" s="5">
+        <v>459</v>
+      </c>
+      <c r="F10" s="5">
+        <v>340</v>
+      </c>
+      <c r="G10" s="5">
+        <v>303</v>
+      </c>
+      <c r="H10" s="38">
+        <v>141</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="34">
+        <v>30</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10">
+        <f>2000*2</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C11" s="39">
+        <v>195</v>
+      </c>
+      <c r="D11" s="5">
+        <v>172</v>
+      </c>
+      <c r="E11" s="5">
+        <v>177</v>
+      </c>
+      <c r="F11" s="5">
+        <v>167</v>
+      </c>
+      <c r="G11" s="5">
+        <v>113</v>
+      </c>
+      <c r="H11" s="38">
+        <v>74</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="34">
+        <v>31</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11">
+        <f>SUM(N9:W9)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C12" s="39">
+        <v>128</v>
+      </c>
+      <c r="D12" s="5">
+        <v>153</v>
+      </c>
+      <c r="E12" s="5">
+        <v>214</v>
+      </c>
+      <c r="F12" s="5">
+        <v>249</v>
+      </c>
+      <c r="G12" s="5">
+        <v>198</v>
+      </c>
+      <c r="H12" s="38">
+        <v>79</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="34">
+        <v>31</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12">
+        <f>N10+N11*20</f>
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C13" s="39">
+        <v>149</v>
+      </c>
+      <c r="D13" s="5">
+        <v>158</v>
+      </c>
+      <c r="E13" s="5">
+        <v>169</v>
+      </c>
+      <c r="F13" s="5">
+        <v>97</v>
+      </c>
+      <c r="G13" s="5">
+        <v>104</v>
+      </c>
+      <c r="H13" s="38">
+        <v>51</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="34">
+        <v>30</v>
+      </c>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C14" s="39">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5">
+        <v>90</v>
+      </c>
+      <c r="E14" s="5">
+        <v>143</v>
+      </c>
+      <c r="F14" s="5">
+        <v>101</v>
+      </c>
+      <c r="G14" s="5">
+        <v>106</v>
+      </c>
+      <c r="H14" s="38">
+        <v>73</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="34">
+        <v>31</v>
+      </c>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C15" s="39">
+        <v>164</v>
+      </c>
+      <c r="D15" s="5">
+        <v>209</v>
+      </c>
+      <c r="E15" s="5">
+        <v>239</v>
+      </c>
+      <c r="F15" s="5">
+        <v>211</v>
+      </c>
+      <c r="G15" s="5">
+        <v>205</v>
+      </c>
+      <c r="H15" s="38">
+        <v>115</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="34">
+        <v>30</v>
+      </c>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+      <c r="C16" s="37">
+        <v>112</v>
+      </c>
+      <c r="D16" s="36">
+        <v>154</v>
+      </c>
+      <c r="E16" s="36">
+        <v>105</v>
+      </c>
+      <c r="F16" s="36">
+        <v>91</v>
+      </c>
+      <c r="G16" s="36">
+        <v>78</v>
+      </c>
+      <c r="H16" s="35">
+        <v>63</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="34">
+        <v>31</v>
+      </c>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.5" thickTop="1" thickBot="1">
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:H17" si="3">SUM(C6:C16)</f>
+        <v>2277</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>2745</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>3102</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>2383</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>2145</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>1101</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.5" thickTop="1" thickBot="1">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickTop="1">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" ref="C19:H19" si="4">C17/C18</f>
+        <v>113.85</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="4"/>
+        <v>137.25</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="4"/>
+        <v>155.1</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="4"/>
+        <v>119.15</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="4"/>
+        <v>107.25</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="4"/>
+        <v>55.05</v>
+      </c>
+      <c r="I19" s="29">
+        <f>AVERAGE(C19:H19)</f>
+        <v>114.60833333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6160</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6160</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6160</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6160</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6160</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="I21">
+        <f>I19/SUM(N5:W5)</f>
+        <v>7.1630208333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38988B24-B106-42DF-A1CC-74C5D57DF5D3}">
   <dimension ref="B2:AH23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:34">
       <c r="B2" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="2">
@@ -11392,7 +12189,7 @@
         <v>2019</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="U2">
         <v>11</v>
@@ -11425,62 +12222,62 @@
         <v>20</v>
       </c>
       <c r="AG2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34">
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U3" s="28">
         <v>1</v>
@@ -11513,18 +12310,18 @@
         <v>1</v>
       </c>
       <c r="AG3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="AH3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34">
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -11572,55 +12369,55 @@
         <v>107</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="U4" s="27">
-        <f t="shared" ref="U4:AD4" si="0">$D$23*U3</f>
-        <v>3.75</v>
+        <f>$D$23*U3</f>
+        <v>4.3718750000000002</v>
       </c>
       <c r="V4" s="27">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
+        <f t="shared" ref="V4:AD4" si="0">$D$23*V3</f>
+        <v>13.115625000000001</v>
       </c>
       <c r="W4" s="27">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.7437500000000004</v>
       </c>
       <c r="X4" s="27">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.3718750000000002</v>
       </c>
       <c r="Y4" s="27">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.3718750000000002</v>
       </c>
       <c r="Z4" s="27">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.3718750000000002</v>
       </c>
       <c r="AA4" s="27">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.3718750000000002</v>
       </c>
       <c r="AB4" s="27">
         <f t="shared" si="0"/>
-        <v>11.25</v>
+        <v>13.115625000000001</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.7437500000000004</v>
       </c>
       <c r="AD4" s="27">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.35">
+        <v>4.3718750000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34">
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>121</v>
@@ -11668,151 +12465,141 @@
         <v>202</v>
       </c>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:AD5" si="1">IF(U3&gt;1,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34">
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2">
+        <v>503</v>
+      </c>
+      <c r="E6" s="2">
+        <v>452</v>
+      </c>
+      <c r="F6" s="2">
+        <v>378</v>
+      </c>
+      <c r="G6" s="2">
+        <v>396</v>
+      </c>
+      <c r="H6" s="2">
+        <v>216</v>
+      </c>
+      <c r="I6" s="2">
+        <v>570</v>
+      </c>
+      <c r="J6" s="2">
+        <v>426</v>
+      </c>
+      <c r="K6" s="2">
+        <v>412</v>
+      </c>
+      <c r="L6" s="2">
+        <v>414</v>
+      </c>
+      <c r="M6" s="2">
+        <v>362</v>
+      </c>
+      <c r="N6" s="2">
+        <v>351</v>
+      </c>
+      <c r="O6" s="2">
+        <v>403</v>
+      </c>
+      <c r="P6" s="2">
+        <v>426</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2">
+        <v>388</v>
+      </c>
+      <c r="T6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:AD6" si="1">IF(U3&gt;1,2,1)</f>
         <v>1</v>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA5">
+      <c r="AA6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB5">
+      <c r="AB6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC5">
+      <c r="AC6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD5">
+      <c r="AD6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2">
-        <v>503</v>
-      </c>
-      <c r="E6" s="2">
-        <v>452</v>
-      </c>
-      <c r="F6" s="2">
-        <v>378</v>
-      </c>
-      <c r="G6" s="2">
-        <v>396</v>
-      </c>
-      <c r="H6" s="2">
-        <v>216</v>
-      </c>
-      <c r="I6" s="2">
-        <v>570</v>
-      </c>
-      <c r="J6" s="2">
-        <v>426</v>
-      </c>
-      <c r="K6" s="2">
-        <v>412</v>
-      </c>
-      <c r="L6" s="2">
-        <v>414</v>
-      </c>
-      <c r="M6" s="2">
-        <v>362</v>
-      </c>
-      <c r="N6" s="2">
-        <v>351</v>
-      </c>
-      <c r="O6" s="2">
-        <v>403</v>
-      </c>
-      <c r="P6" s="2">
-        <v>426</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>19</v>
-      </c>
-      <c r="R6" s="2">
-        <v>388</v>
-      </c>
-      <c r="T6" t="s">
-        <v>98</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ref="U6:AD6" si="2">IF(U3&gt;1,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:34">
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
         <v>115</v>
@@ -11860,55 +12647,55 @@
         <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:AD7" si="3">U5*$AH$2+U6*$AH$3</f>
-        <v>22</v>
+        <f>U6*$AH$3</f>
+        <v>9</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" ref="V7:AD7" si="2">V6*$AH$3</f>
+        <v>18</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -11956,19 +12743,19 @@
         <v>201</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="U8">
-        <f>SUM(U7:AD7)</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.35">
+        <f>2000*2</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>300</v>
@@ -12016,19 +12803,19 @@
         <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="U9">
-        <f>U8*20</f>
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.35">
+        <f>SUM(U7:AD7)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34">
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>302</v>
@@ -12075,13 +12862,20 @@
       <c r="R10" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="T10" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10">
+        <f>U8+U9*20</f>
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>206</v>
@@ -12129,12 +12923,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:34">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -12182,12 +12976,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:34">
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>81</v>
@@ -12235,12 +13029,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:34">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
         <v>141</v>
@@ -12288,75 +13082,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:34">
       <c r="B16" s="43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:R16" si="4">SUM(D4:D14)</f>
+        <f t="shared" ref="D16:R16" si="3">SUM(D4:D14)</f>
         <v>1769</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1666</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1720</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>648</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1987</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1608</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1384</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1305</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1229</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1405</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1534</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1630</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>568</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1332</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18">
       <c r="B17" s="44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="2">
@@ -12405,101 +13199,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18">
       <c r="B18" s="44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="26">
-        <f t="shared" ref="D18:R18" si="5">D16/D17</f>
+        <f t="shared" ref="D18:R18" si="4">D16/D17</f>
         <v>88.45</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>83.3</v>
       </c>
       <c r="F18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32.4</v>
       </c>
       <c r="I18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>99.35</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>80.400000000000006</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69.2</v>
       </c>
       <c r="L18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.25</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.45</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>70.25</v>
       </c>
       <c r="O18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>76.7</v>
       </c>
       <c r="P18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>81.5</v>
       </c>
       <c r="Q18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28.4</v>
       </c>
       <c r="R18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18">
       <c r="B19" s="44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="44"/>
-      <c r="D19" s="2">
-        <v>6160</v>
-      </c>
-      <c r="E19">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22" s="44" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C22" s="44"/>
-      <c r="D22" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D22" s="47">
+        <f>AVERAGE(D18:R18)</f>
+        <v>69.95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="25">
         <f>D22/SUM(U3:AD3)</f>
-        <v>3.75</v>
+        <v>4.3718750000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12516,780 +13306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4AF215-0496-4E4C-B017-88A497F0FD0B}">
-  <dimension ref="B2:AA24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="M4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4">
-        <v>11</v>
-      </c>
-      <c r="O4">
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <v>13</v>
-      </c>
-      <c r="Q4">
-        <v>14</v>
-      </c>
-      <c r="R4">
-        <v>15</v>
-      </c>
-      <c r="S4">
-        <v>16</v>
-      </c>
-      <c r="T4">
-        <v>17</v>
-      </c>
-      <c r="U4">
-        <v>18</v>
-      </c>
-      <c r="V4">
-        <v>19</v>
-      </c>
-      <c r="W4">
-        <v>20</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="34">
-        <v>31</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="28">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="42">
-        <v>111</v>
-      </c>
-      <c r="D6" s="41">
-        <v>117</v>
-      </c>
-      <c r="E6" s="41">
-        <v>122</v>
-      </c>
-      <c r="F6" s="41">
-        <v>82</v>
-      </c>
-      <c r="G6" s="41">
-        <v>145</v>
-      </c>
-      <c r="H6" s="40">
-        <v>67</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="34">
-        <v>28</v>
-      </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="27">
-        <f t="shared" ref="N6:W6" si="0">$I$21*N5</f>
-        <v>7.4375</v>
-      </c>
-      <c r="O6" s="27">
-        <f t="shared" si="0"/>
-        <v>22.3125</v>
-      </c>
-      <c r="P6" s="27">
-        <f t="shared" si="0"/>
-        <v>14.875</v>
-      </c>
-      <c r="Q6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.4375</v>
-      </c>
-      <c r="R6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.4375</v>
-      </c>
-      <c r="S6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.4375</v>
-      </c>
-      <c r="T6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.4375</v>
-      </c>
-      <c r="U6" s="27">
-        <f t="shared" si="0"/>
-        <v>22.3125</v>
-      </c>
-      <c r="V6" s="27">
-        <f t="shared" si="0"/>
-        <v>14.875</v>
-      </c>
-      <c r="W6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.4375</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="39">
-        <v>499</v>
-      </c>
-      <c r="D7" s="5">
-        <v>611</v>
-      </c>
-      <c r="E7" s="5">
-        <v>703</v>
-      </c>
-      <c r="F7" s="5">
-        <v>526</v>
-      </c>
-      <c r="G7" s="5">
-        <v>442</v>
-      </c>
-      <c r="H7" s="38">
-        <v>185</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="34">
-        <v>31</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:W7" si="1">IF(N5&gt;1,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="39">
-        <v>564</v>
-      </c>
-      <c r="D8" s="5">
-        <v>565</v>
-      </c>
-      <c r="E8" s="5">
-        <v>593</v>
-      </c>
-      <c r="F8" s="5">
-        <v>400</v>
-      </c>
-      <c r="G8" s="5">
-        <v>347</v>
-      </c>
-      <c r="H8" s="38">
-        <v>211</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="34">
-        <v>30</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:W8" si="2">IF(N5&gt;1,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="39">
-        <v>122</v>
-      </c>
-      <c r="D9" s="5">
-        <v>120</v>
-      </c>
-      <c r="E9" s="5">
-        <v>178</v>
-      </c>
-      <c r="F9" s="5">
-        <v>119</v>
-      </c>
-      <c r="G9" s="5">
-        <v>104</v>
-      </c>
-      <c r="H9" s="38">
-        <v>42</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="34">
-        <v>31</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ref="N9:W9" si="3">N7*$AA$4+N8*$AA$5</f>
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="39">
-        <v>142</v>
-      </c>
-      <c r="D10" s="5">
-        <v>396</v>
-      </c>
-      <c r="E10" s="5">
-        <v>459</v>
-      </c>
-      <c r="F10" s="5">
-        <v>340</v>
-      </c>
-      <c r="G10" s="5">
-        <v>303</v>
-      </c>
-      <c r="H10" s="38">
-        <v>141</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="34">
-        <v>30</v>
-      </c>
-      <c r="L10" s="33"/>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10">
-        <f>SUM(N9:W9)</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="39">
-        <v>195</v>
-      </c>
-      <c r="D11" s="5">
-        <v>172</v>
-      </c>
-      <c r="E11" s="5">
-        <v>177</v>
-      </c>
-      <c r="F11" s="5">
-        <v>167</v>
-      </c>
-      <c r="G11" s="5">
-        <v>113</v>
-      </c>
-      <c r="H11" s="38">
-        <v>74</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="34">
-        <v>31</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11">
-        <f>N10*20</f>
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="39">
-        <v>128</v>
-      </c>
-      <c r="D12" s="5">
-        <v>153</v>
-      </c>
-      <c r="E12" s="5">
-        <v>214</v>
-      </c>
-      <c r="F12" s="5">
-        <v>249</v>
-      </c>
-      <c r="G12" s="5">
-        <v>198</v>
-      </c>
-      <c r="H12" s="38">
-        <v>79</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="34">
-        <v>31</v>
-      </c>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="39">
-        <v>149</v>
-      </c>
-      <c r="D13" s="5">
-        <v>158</v>
-      </c>
-      <c r="E13" s="5">
-        <v>169</v>
-      </c>
-      <c r="F13" s="5">
-        <v>97</v>
-      </c>
-      <c r="G13" s="5">
-        <v>104</v>
-      </c>
-      <c r="H13" s="38">
-        <v>51</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="34">
-        <v>30</v>
-      </c>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="39">
-        <v>91</v>
-      </c>
-      <c r="D14" s="5">
-        <v>90</v>
-      </c>
-      <c r="E14" s="5">
-        <v>143</v>
-      </c>
-      <c r="F14" s="5">
-        <v>101</v>
-      </c>
-      <c r="G14" s="5">
-        <v>106</v>
-      </c>
-      <c r="H14" s="38">
-        <v>73</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="34">
-        <v>31</v>
-      </c>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="39">
-        <v>164</v>
-      </c>
-      <c r="D15" s="5">
-        <v>209</v>
-      </c>
-      <c r="E15" s="5">
-        <v>239</v>
-      </c>
-      <c r="F15" s="5">
-        <v>211</v>
-      </c>
-      <c r="G15" s="5">
-        <v>205</v>
-      </c>
-      <c r="H15" s="38">
-        <v>115</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="34">
-        <v>30</v>
-      </c>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="2:27" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="37">
-        <v>112</v>
-      </c>
-      <c r="D16" s="36">
-        <v>154</v>
-      </c>
-      <c r="E16" s="36">
-        <v>105</v>
-      </c>
-      <c r="F16" s="36">
-        <v>91</v>
-      </c>
-      <c r="G16" s="36">
-        <v>78</v>
-      </c>
-      <c r="H16" s="35">
-        <v>63</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="34">
-        <v>31</v>
-      </c>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:H17" si="4">SUM(C6:C16)</f>
-        <v>2277</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="4"/>
-        <v>2745</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="4"/>
-        <v>3102</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
-        <v>2383</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>2145</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="4"/>
-        <v>1101</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="2:12" ht="18.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="26">
-        <f t="shared" ref="C19:H19" si="5">C17/C18</f>
-        <v>113.85</v>
-      </c>
-      <c r="D19" s="26">
-        <f t="shared" si="5"/>
-        <v>137.25</v>
-      </c>
-      <c r="E19" s="26">
-        <f t="shared" si="5"/>
-        <v>155.1</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="5"/>
-        <v>119.15</v>
-      </c>
-      <c r="G19" s="26">
-        <f t="shared" si="5"/>
-        <v>107.25</v>
-      </c>
-      <c r="H19" s="26">
-        <f t="shared" si="5"/>
-        <v>55.05</v>
-      </c>
-      <c r="I19" s="29">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="F20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="I20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="I21">
-        <f>I19/SUM(N5:W5)</f>
-        <v>7.4375</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100640BA8BB502F164CBCD50E73C622A2F0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ee0c01049a29cda806ee4140c302f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f68e04f-749a-4f9f-b073-6c8e4caa1efe" xmlns:ns4="1d7ff15b-21c4-4e42-8404-310e502b1a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c01d0cd1d0885ebc0dd33a4ee29d94f" ns3:_="" ns4:_="">
     <xsd:import namespace="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
@@ -13474,6 +13491,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13481,14 +13507,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA295D57-89A1-4C31-85B3-167F05258456}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13503,6 +13521,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Matt's calculations.xlsx
+++ b/Data/Matt's calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56023E7-3E37-41CA-9B7B-6559ABA769BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F4F8C-BBA5-488F-A0EA-8F9CDBC2CC56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="127">
   <si>
     <t>Noodle</t>
   </si>
@@ -395,6 +395,27 @@
   </si>
   <si>
     <t>Average Customers per day</t>
+  </si>
+  <si>
+    <t>Current:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 full time and 3 part timers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this case, it is assumed that the full timers are the cooks </t>
+  </si>
+  <si>
+    <t>It can be shown that in a day, we would need a maximum of 2 full time 2 part timers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 full timers </t>
+  </si>
+  <si>
+    <t>8000 to 16000 dollars. This is way higher than what is done at the current moment</t>
   </si>
 </sst>
 </file>
@@ -782,11 +803,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -794,7 +815,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4469,10 +4490,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="43"/>
+      <c r="AJ3" s="44"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -4605,8 +4626,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -7949,7 +7970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC267F-CA5F-48F6-BEC5-AC68AE117715}">
   <dimension ref="B3:AZ118"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -8066,10 +8087,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="43"/>
+      <c r="AJ3" s="44"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -8184,8 +8205,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -11365,8 +11386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4AF215-0496-4E4C-B017-88A497F0FD0B}">
   <dimension ref="B2:AA24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:AA12"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11987,7 +12008,7 @@
       </c>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="2:12" ht="18.5" thickTop="1" thickBot="1">
+    <row r="17" spans="2:13" ht="18.5" thickTop="1" thickBot="1">
       <c r="B17" t="s">
         <v>100</v>
       </c>
@@ -12017,8 +12038,11 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="2:12" ht="18.5" thickTop="1" thickBot="1">
+      <c r="M17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="18.5" thickTop="1" thickBot="1">
       <c r="B18" t="s">
         <v>110</v>
       </c>
@@ -12045,8 +12069,11 @@
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickTop="1">
+      <c r="M18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickTop="1">
       <c r="B19" t="s">
         <v>99</v>
       </c>
@@ -12078,8 +12105,11 @@
         <f>AVERAGE(C19:H19)</f>
         <v>114.60833333333333</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>98</v>
       </c>
@@ -12104,14 +12134,17 @@
       <c r="I20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="I21">
         <f>I19/SUM(N5:W5)</f>
         <v>7.1630208333333334</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:13">
       <c r="C24" t="s">
         <v>96</v>
       </c>
@@ -12128,8 +12161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38988B24-B106-42DF-A1CC-74C5D57DF5D3}">
   <dimension ref="B2:AH23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AD7"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12139,10 +12172,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="2">
         <v>2018</v>
       </c>
@@ -12229,8 +12262,8 @@
       </c>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
@@ -12975,6 +13008,9 @@
       <c r="R12" s="2">
         <v>65</v>
       </c>
+      <c r="T12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="2" t="s">
@@ -13028,6 +13064,12 @@
       <c r="R13" s="2">
         <v>95</v>
       </c>
+      <c r="T13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="2" t="s">
@@ -13083,10 +13125,10 @@
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="2">
         <f t="shared" ref="D16:R16" si="3">SUM(D4:D14)</f>
         <v>1769</v>
@@ -13149,10 +13191,10 @@
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="2">
         <v>20</v>
       </c>
@@ -13200,10 +13242,10 @@
       </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="26">
         <f t="shared" ref="D18:R18" si="4">D16/D17</f>
         <v>88.45</v>
@@ -13266,27 +13308,27 @@
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="2"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="47">
+      <c r="C22" s="47"/>
+      <c r="D22" s="43">
         <f>AVERAGE(D18:R18)</f>
         <v>69.95</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="25">
         <f>D22/SUM(U3:AD3)</f>
         <v>4.3718750000000002</v>
@@ -13307,6 +13349,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100640BA8BB502F164CBCD50E73C622A2F0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ee0c01049a29cda806ee4140c302f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f68e04f-749a-4f9f-b073-6c8e4caa1efe" xmlns:ns4="1d7ff15b-21c4-4e42-8404-310e502b1a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c01d0cd1d0885ebc0dd33a4ee29d94f" ns3:_="" ns4:_="">
     <xsd:import namespace="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
@@ -13491,15 +13542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13507,6 +13549,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA295D57-89A1-4C31-85B3-167F05258456}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13521,14 +13571,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Matt's calculations.xlsx
+++ b/Data/Matt's calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Tan\Documents\GitHub\soiSMA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F4F8C-BBA5-488F-A0EA-8F9CDBC2CC56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B54FA71-9905-476C-9AA9-A4D4839F8278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
+    <workbookView xWindow="28680" yWindow="-7650" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="139">
   <si>
     <t>Noodle</t>
   </si>
@@ -304,9 +306,6 @@
     <t>Customers per day</t>
   </si>
   <si>
-    <t>Average Manpower costs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of working days </t>
   </si>
   <si>
@@ -325,13 +324,7 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>You can drop manpower to around 6k</t>
-  </si>
-  <si>
     <t>One Unit</t>
-  </si>
-  <si>
-    <t>Manpower</t>
   </si>
   <si>
     <t xml:space="preserve">Number of people in a day </t>
@@ -341,9 +334,6 @@
   </si>
   <si>
     <t>Jan</t>
-  </si>
-  <si>
-    <t>Monthly traffic</t>
   </si>
   <si>
     <t>On average, SMU serves more customers than SL. But because they have similar foot traffic, we can assume that their food costs are roughly the same. The reason for this descrepancy was because some dishes were given later which we assume had taken place the entire time</t>
@@ -391,9 +381,6 @@
     <t>Fixed manpower costs monthly</t>
   </si>
   <si>
-    <t>1600 to 2000</t>
-  </si>
-  <si>
     <t>Average Customers per day</t>
   </si>
   <si>
@@ -406,16 +393,67 @@
     <t xml:space="preserve">In this case, it is assumed that the full timers are the cooks </t>
   </si>
   <si>
-    <t>It can be shown that in a day, we would need a maximum of 2 full time 2 part timers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current </t>
   </si>
   <si>
-    <t xml:space="preserve">4 full timers </t>
+    <t>8000 to 16000 dollars. This is way higher than what is done at the current moment</t>
   </si>
   <si>
-    <t>8000 to 16000 dollars. This is way higher than what is done at the current moment</t>
+    <t xml:space="preserve">Parameters: Maximum of 2 cooks </t>
+  </si>
+  <si>
+    <t>1 server per 3 to 4 tables: 1 per 10 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The third part timer does not have to be available all the time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario 1: Reduce part timer hours </t>
+  </si>
+  <si>
+    <t>We can have one full timer (cook)</t>
+  </si>
+  <si>
+    <t>Cook (1 Fixed, one variable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume that in that hour, they all come at the same time, so this will be the maximum possibility of the minimum possiblity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume that 1 cook can cook 20 dishes </t>
+  </si>
+  <si>
+    <t>Currently 4 full time in Sim Lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario 1: Integrate Part Timers instead of full timers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Full timers </t>
+  </si>
+  <si>
+    <t>Cook (Minimum 1 full timer)</t>
+  </si>
+  <si>
+    <t>Full timer wage (assume cook)</t>
+  </si>
+  <si>
+    <t>Part timer wage (POS)</t>
+  </si>
+  <si>
+    <t>Scenario 2: Reduce number of full timers to 1</t>
+  </si>
+  <si>
+    <t>This is the minimal requirements</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Data table for different scenarios and manpower costs</t>
   </si>
 </sst>
 </file>
@@ -428,7 +466,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.0000_-;\-&quot;$&quot;* #,##0.0000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +515,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A0EFA"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +539,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +860,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,6 +875,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -825,6 +899,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2A0EFA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4323,47 +4402,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A92F12E-2D4C-476F-8ED4-12D8E7DDF219}">
-  <dimension ref="B3:B10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>109</v>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4373,45 +4478,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84AE09D-EC1B-45A8-9708-C9988E4467D6}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:BA73"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7265625" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:53">
+    <row r="3" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>82</v>
       </c>
@@ -4490,10 +4596,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="44" t="s">
+      <c r="AI3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="44"/>
+      <c r="AJ3" s="46"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -4540,7 +4646,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="2:53">
+    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -4626,8 +4732,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -4680,7 +4786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:53">
+    <row r="5" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +4929,7 @@
         <v>65.466666666666669</v>
       </c>
     </row>
-    <row r="6" spans="2:53">
+    <row r="6" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -4962,7 +5068,7 @@
         <v>202.86666666666667</v>
       </c>
     </row>
-    <row r="7" spans="2:53">
+    <row r="7" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -5101,7 +5207,7 @@
         <v>381.06666666666666</v>
       </c>
     </row>
-    <row r="8" spans="2:53">
+    <row r="8" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -5239,7 +5345,7 @@
         <v>81.13333333333334</v>
       </c>
     </row>
-    <row r="9" spans="2:53">
+    <row r="9" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -5381,7 +5487,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="10" spans="2:53">
+    <row r="10" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -5526,7 +5632,7 @@
         <v>122.2</v>
       </c>
     </row>
-    <row r="11" spans="2:53">
+    <row r="11" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -5671,7 +5777,7 @@
         <v>132.73333333333332</v>
       </c>
     </row>
-    <row r="12" spans="2:53">
+    <row r="12" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
@@ -5807,7 +5913,7 @@
         <v>111.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:53">
+    <row r="13" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -5944,7 +6050,7 @@
         <v>25.066666666666666</v>
       </c>
     </row>
-    <row r="14" spans="2:53">
+    <row r="14" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -6080,7 +6186,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="2:53">
+    <row r="15" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -6218,7 +6324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:53">
+    <row r="16" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -6295,7 +6401,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -6376,7 +6482,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -6456,7 +6562,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -6542,7 +6648,7 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -6619,7 +6725,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -6696,7 +6802,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -6774,7 +6880,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -6855,7 +6961,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -6935,7 +7041,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -7024,7 +7130,7 @@
         <v>5716</v>
       </c>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -7104,7 +7210,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -7184,7 +7290,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -7264,7 +7370,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -7344,7 +7450,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="AB30" t="s">
         <v>35</v>
       </c>
@@ -7367,7 +7473,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -7417,7 +7523,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>32</v>
       </c>
@@ -7442,7 +7548,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="33" spans="15:36">
+    <row r="33" spans="15:36" x14ac:dyDescent="0.25">
       <c r="O33" t="s">
         <v>31</v>
       </c>
@@ -7463,7 +7569,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="34" spans="15:36">
+    <row r="34" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD34" t="s">
         <v>2</v>
       </c>
@@ -7474,7 +7580,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="15:36">
+    <row r="35" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD35" t="s">
         <v>1</v>
       </c>
@@ -7485,7 +7591,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="15:36">
+    <row r="36" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD36" t="s">
         <v>0</v>
       </c>
@@ -7496,7 +7602,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="15:36">
+    <row r="37" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AB37" t="s">
         <v>30</v>
       </c>
@@ -7516,7 +7622,7 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="15:36">
+    <row r="38" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD38" t="s">
         <v>5</v>
       </c>
@@ -7527,7 +7633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="15:36">
+    <row r="39" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD39" t="s">
         <v>24</v>
       </c>
@@ -7538,7 +7644,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="15:36">
+    <row r="40" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD40" t="s">
         <v>23</v>
       </c>
@@ -7549,7 +7655,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="15:36">
+    <row r="41" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD41" t="s">
         <v>22</v>
       </c>
@@ -7560,7 +7666,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="15:36">
+    <row r="42" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD42" t="s">
         <v>0</v>
       </c>
@@ -7571,7 +7677,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="15:36">
+    <row r="43" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AB43" t="s">
         <v>27</v>
       </c>
@@ -7591,7 +7697,7 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="15:36">
+    <row r="44" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD44" t="s">
         <v>5</v>
       </c>
@@ -7602,7 +7708,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="15:36">
+    <row r="45" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD45" t="s">
         <v>24</v>
       </c>
@@ -7613,7 +7719,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="15:36">
+    <row r="46" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD46" t="s">
         <v>23</v>
       </c>
@@ -7624,7 +7730,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="15:36">
+    <row r="47" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD47" t="s">
         <v>22</v>
       </c>
@@ -7635,7 +7741,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="15:36">
+    <row r="48" spans="15:36" x14ac:dyDescent="0.25">
       <c r="AD48" t="s">
         <v>1</v>
       </c>
@@ -7646,7 +7752,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="28:33">
+    <row r="49" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD49" t="s">
         <v>0</v>
       </c>
@@ -7657,7 +7763,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="50" spans="28:33">
+    <row r="50" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB50" t="s">
         <v>21</v>
       </c>
@@ -7677,7 +7783,7 @@
         <v>1.9720000000000002</v>
       </c>
     </row>
-    <row r="51" spans="28:33">
+    <row r="51" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD51" t="s">
         <v>18</v>
       </c>
@@ -7688,7 +7794,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="28:33">
+    <row r="52" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD52" t="s">
         <v>17</v>
       </c>
@@ -7699,7 +7805,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="28:33">
+    <row r="53" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD53" t="s">
         <v>4</v>
       </c>
@@ -7710,7 +7816,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="28:33">
+    <row r="54" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD54" t="s">
         <v>16</v>
       </c>
@@ -7721,7 +7827,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="55" spans="28:33">
+    <row r="55" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD55" t="s">
         <v>0</v>
       </c>
@@ -7732,7 +7838,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="56" spans="28:33">
+    <row r="56" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB56" t="s">
         <v>15</v>
       </c>
@@ -7752,7 +7858,7 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="57" spans="28:33">
+    <row r="57" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD57" t="s">
         <v>5</v>
       </c>
@@ -7763,7 +7869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="28:33">
+    <row r="58" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD58" t="s">
         <v>4</v>
       </c>
@@ -7774,7 +7880,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="28:33">
+    <row r="59" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD59" t="s">
         <v>2</v>
       </c>
@@ -7785,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="28:33">
+    <row r="60" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD60" t="s">
         <v>13</v>
       </c>
@@ -7796,7 +7902,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="28:33">
+    <row r="61" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB61" t="s">
         <v>12</v>
       </c>
@@ -7816,7 +7922,7 @@
         <v>2.3945000000000007</v>
       </c>
     </row>
-    <row r="62" spans="28:33">
+    <row r="62" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD62" t="s">
         <v>5</v>
       </c>
@@ -7827,7 +7933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="28:33">
+    <row r="63" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD63" t="s">
         <v>4</v>
       </c>
@@ -7838,7 +7944,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="28:33">
+    <row r="64" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD64" t="s">
         <v>3</v>
       </c>
@@ -7849,7 +7955,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="28:33">
+    <row r="65" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD65" t="s">
         <v>9</v>
       </c>
@@ -7860,7 +7966,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="28:33">
+    <row r="66" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD66" t="s">
         <v>0</v>
       </c>
@@ -7871,7 +7977,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="67" spans="28:33">
+    <row r="67" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB67" t="s">
         <v>8</v>
       </c>
@@ -7891,7 +7997,7 @@
         <v>2.7444999999999995</v>
       </c>
     </row>
-    <row r="68" spans="28:33">
+    <row r="68" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD68" t="s">
         <v>5</v>
       </c>
@@ -7902,7 +8008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="28:33">
+    <row r="69" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD69" t="s">
         <v>4</v>
       </c>
@@ -7913,7 +8019,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="28:33">
+    <row r="70" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD70" t="s">
         <v>3</v>
       </c>
@@ -7924,7 +8030,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="28:33">
+    <row r="71" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD71" t="s">
         <v>2</v>
       </c>
@@ -7935,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="28:33">
+    <row r="72" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD72" t="s">
         <v>1</v>
       </c>
@@ -7946,7 +8052,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="28:33">
+    <row r="73" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD73" t="s">
         <v>0</v>
       </c>
@@ -7968,47 +8074,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC267F-CA5F-48F6-BEC5-AC68AE117715}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:AZ118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.26953125" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:52">
+    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>82</v>
       </c>
@@ -8087,10 +8194,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="44" t="s">
+      <c r="AI3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="44"/>
+      <c r="AJ3" s="46"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -8119,7 +8226,7 @@
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
     </row>
-    <row r="4" spans="2:52" ht="15" thickBot="1">
+    <row r="4" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -8205,8 +8312,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -8240,7 +8347,7 @@
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
     </row>
-    <row r="5" spans="2:52">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -8356,7 +8463,7 @@
         <v>107.33333333333333</v>
       </c>
     </row>
-    <row r="6" spans="2:52">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -8468,7 +8575,7 @@
         <v>494.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="2:52">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -8580,7 +8687,7 @@
         <v>446.66666666666669</v>
       </c>
     </row>
-    <row r="8" spans="2:52">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -8691,7 +8798,7 @@
         <v>114.16666666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:52">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -8806,7 +8913,7 @@
         <v>296.83333333333331</v>
       </c>
     </row>
-    <row r="10" spans="2:52">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -8924,7 +9031,7 @@
         <v>149.66666666666666</v>
       </c>
     </row>
-    <row r="11" spans="2:52">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -9042,7 +9149,7 @@
         <v>170.16666666666666</v>
       </c>
     </row>
-    <row r="12" spans="2:52">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
@@ -9151,7 +9258,7 @@
         <v>121.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="2:52">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -9261,7 +9368,7 @@
         <v>100.66666666666667</v>
       </c>
     </row>
-    <row r="14" spans="2:52">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>39</v>
       </c>
@@ -9370,7 +9477,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="15" spans="2:52" ht="15" thickBot="1">
+    <row r="15" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -9481,7 +9588,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="16" spans="2:52">
+    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -9558,7 +9665,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -9639,7 +9746,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -9719,7 +9826,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -9805,7 +9912,7 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -9882,7 +9989,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -9959,7 +10066,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -10037,7 +10144,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -10115,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -10192,7 +10299,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -10278,7 +10385,7 @@
         <v>4.8800000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -10355,7 +10462,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -10432,7 +10539,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -10509,7 +10616,7 @@
         <v>0.36000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -10586,7 +10693,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AB30" t="s">
         <v>35</v>
       </c>
@@ -10606,7 +10713,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -10653,7 +10760,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>84</v>
       </c>
@@ -10675,7 +10782,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="14:33">
+    <row r="33" spans="14:33" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
         <v>83</v>
       </c>
@@ -10693,7 +10800,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="14:33">
+    <row r="34" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD34" t="s">
         <v>2</v>
       </c>
@@ -10704,7 +10811,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="14:33">
+    <row r="35" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD35" t="s">
         <v>1</v>
       </c>
@@ -10715,7 +10822,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="14:33">
+    <row r="36" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD36" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +10833,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="37" spans="14:33">
+    <row r="37" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AB37" t="s">
         <v>30</v>
       </c>
@@ -10746,7 +10853,7 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="38" spans="14:33">
+    <row r="38" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD38" t="s">
         <v>5</v>
       </c>
@@ -10757,7 +10864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="14:33">
+    <row r="39" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD39" t="s">
         <v>24</v>
       </c>
@@ -10768,7 +10875,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="14:33">
+    <row r="40" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD40" t="s">
         <v>23</v>
       </c>
@@ -10779,7 +10886,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="14:33">
+    <row r="41" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD41" t="s">
         <v>22</v>
       </c>
@@ -10790,7 +10897,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="14:33">
+    <row r="42" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD42" t="s">
         <v>0</v>
       </c>
@@ -10801,7 +10908,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="43" spans="14:33">
+    <row r="43" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AB43" t="s">
         <v>27</v>
       </c>
@@ -10821,7 +10928,7 @@
         <v>2.0600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="14:33">
+    <row r="44" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD44" t="s">
         <v>5</v>
       </c>
@@ -10832,7 +10939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="14:33">
+    <row r="45" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD45" t="s">
         <v>24</v>
       </c>
@@ -10843,7 +10950,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="14:33">
+    <row r="46" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD46" t="s">
         <v>23</v>
       </c>
@@ -10854,7 +10961,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="14:33">
+    <row r="47" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD47" t="s">
         <v>22</v>
       </c>
@@ -10865,7 +10972,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="14:33">
+    <row r="48" spans="14:33" x14ac:dyDescent="0.25">
       <c r="AD48" t="s">
         <v>1</v>
       </c>
@@ -10876,7 +10983,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="28:33">
+    <row r="49" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD49" t="s">
         <v>0</v>
       </c>
@@ -10887,7 +10994,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="50" spans="28:33">
+    <row r="50" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB50" t="s">
         <v>21</v>
       </c>
@@ -10907,7 +11014,7 @@
         <v>1.9720000000000002</v>
       </c>
     </row>
-    <row r="51" spans="28:33">
+    <row r="51" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD51" t="s">
         <v>18</v>
       </c>
@@ -10918,7 +11025,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="52" spans="28:33">
+    <row r="52" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD52" t="s">
         <v>17</v>
       </c>
@@ -10929,7 +11036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="28:33">
+    <row r="53" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD53" t="s">
         <v>4</v>
       </c>
@@ -10940,7 +11047,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="28:33">
+    <row r="54" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD54" t="s">
         <v>16</v>
       </c>
@@ -10951,7 +11058,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="55" spans="28:33">
+    <row r="55" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD55" t="s">
         <v>0</v>
       </c>
@@ -10962,7 +11069,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="56" spans="28:33">
+    <row r="56" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB56" t="s">
         <v>15</v>
       </c>
@@ -10982,7 +11089,7 @@
         <v>2.052</v>
       </c>
     </row>
-    <row r="57" spans="28:33">
+    <row r="57" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD57" t="s">
         <v>5</v>
       </c>
@@ -10993,7 +11100,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="28:33">
+    <row r="58" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD58" t="s">
         <v>4</v>
       </c>
@@ -11004,7 +11111,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="28:33">
+    <row r="59" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD59" t="s">
         <v>2</v>
       </c>
@@ -11015,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="28:33">
+    <row r="60" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD60" t="s">
         <v>13</v>
       </c>
@@ -11026,7 +11133,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="28:33">
+    <row r="61" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB61" t="s">
         <v>12</v>
       </c>
@@ -11046,7 +11153,7 @@
         <v>2.3945000000000007</v>
       </c>
     </row>
-    <row r="62" spans="28:33">
+    <row r="62" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD62" t="s">
         <v>5</v>
       </c>
@@ -11057,7 +11164,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="28:33">
+    <row r="63" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD63" t="s">
         <v>4</v>
       </c>
@@ -11068,7 +11175,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="28:33">
+    <row r="64" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD64" t="s">
         <v>3</v>
       </c>
@@ -11079,7 +11186,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="28:33">
+    <row r="65" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD65" t="s">
         <v>9</v>
       </c>
@@ -11090,7 +11197,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="28:33">
+    <row r="66" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD66" t="s">
         <v>0</v>
       </c>
@@ -11101,7 +11208,7 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="67" spans="28:33">
+    <row r="67" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AB67" t="s">
         <v>8</v>
       </c>
@@ -11121,7 +11228,7 @@
         <v>2.7444999999999995</v>
       </c>
     </row>
-    <row r="68" spans="28:33">
+    <row r="68" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD68" t="s">
         <v>5</v>
       </c>
@@ -11132,7 +11239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="28:33">
+    <row r="69" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD69" t="s">
         <v>4</v>
       </c>
@@ -11143,7 +11250,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="28:33">
+    <row r="70" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD70" t="s">
         <v>3</v>
       </c>
@@ -11154,7 +11261,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="28:33">
+    <row r="71" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD71" t="s">
         <v>2</v>
       </c>
@@ -11165,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="28:33">
+    <row r="72" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD72" t="s">
         <v>1</v>
       </c>
@@ -11176,7 +11283,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="28:33">
+    <row r="73" spans="28:33" x14ac:dyDescent="0.25">
       <c r="AD73" t="s">
         <v>0</v>
       </c>
@@ -11187,189 +11294,189 @@
         <v>0.32000000000000006</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
       <c r="D92" s="1"/>
       <c r="E92" s="15">
         <v>240.76800000000003</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
       <c r="D93" s="1"/>
       <c r="E93" s="15">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="D94" s="1"/>
       <c r="E94" s="15">
         <v>26.148333333333333</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
       <c r="D95" s="1"/>
       <c r="E95" s="15">
         <v>11.584</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
       <c r="D96" s="1"/>
       <c r="E96" s="15">
         <v>136.69333333333333</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
       <c r="D97" s="1"/>
       <c r="E97" s="15">
         <v>221.33333333333334</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="D98" s="1"/>
       <c r="E98" s="15">
         <v>280.512</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
       <c r="D99" s="1"/>
       <c r="E99" s="15">
         <v>49.43333333333333</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="D100" s="1"/>
       <c r="E100" s="15">
         <v>20.762</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
       <c r="D101" s="1"/>
       <c r="E101" s="15">
         <v>15.056000000000001</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
       <c r="D102" s="1"/>
       <c r="E102" s="15">
         <v>18.982399999999998</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
       <c r="D103" s="1"/>
       <c r="E103" s="15">
         <v>16.492000000000001</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
       <c r="D104" s="1"/>
       <c r="E104" s="15">
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
       <c r="D105" s="1"/>
       <c r="E105" s="15">
         <v>27.638399999999997</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="1"/>
       <c r="E106" s="15">
         <v>288.81666666666666</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
       <c r="D107" s="1"/>
       <c r="E107" s="15">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="D108" s="1"/>
       <c r="E108" s="15">
         <v>36.533333333333331</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
       <c r="D109" s="1"/>
       <c r="E109" s="15">
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="D110" s="1"/>
       <c r="E110" s="15">
         <v>60.71</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
       <c r="D111" s="1"/>
       <c r="E111" s="15">
         <v>13.758333333333333</v>
       </c>
     </row>
-    <row r="112" spans="3:5">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="D112" s="1"/>
       <c r="E112" s="15">
         <v>31.061333333333334</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
       <c r="D113" s="1"/>
       <c r="E113" s="15">
         <v>11.648</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
       <c r="D114" s="1"/>
       <c r="E114" s="15">
         <v>29.12</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" s="7"/>
       <c r="D115" s="1"/>
       <c r="E115" s="15">
         <v>3.2213333333333334</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" s="7"/>
       <c r="D116" s="1"/>
       <c r="E116" s="15">
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" s="7"/>
       <c r="D117" s="1"/>
       <c r="E117" s="15">
         <v>32.160000000000004</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
       <c r="E118" s="14"/>
     </row>
@@ -11384,774 +11491,1528 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4AF215-0496-4E4C-B017-88A497F0FD0B}">
-  <dimension ref="B2:AA24"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="15" thickBot="1">
-      <c r="C4" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
         <v>2018</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>2018</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>2018</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>2019</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>2019</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>2019</v>
       </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4">
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5">
         <v>11</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>14</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <v>15</v>
       </c>
-      <c r="S4">
+      <c r="S5">
         <v>16</v>
       </c>
-      <c r="T4">
+      <c r="T5">
         <v>17</v>
       </c>
-      <c r="U4">
+      <c r="U5">
         <v>18</v>
       </c>
-      <c r="V4">
+      <c r="V5">
         <v>19</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>20</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z5" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="34">
+        <v>31</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="50">
+        <v>1</v>
+      </c>
+      <c r="O6" s="51">
+        <v>3</v>
+      </c>
+      <c r="P6" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>1</v>
+      </c>
+      <c r="R6" s="51">
+        <v>1</v>
+      </c>
+      <c r="S6" s="51">
+        <v>1</v>
+      </c>
+      <c r="T6" s="51">
+        <v>1</v>
+      </c>
+      <c r="U6" s="51">
+        <v>3</v>
+      </c>
+      <c r="V6" s="51">
+        <v>2</v>
+      </c>
+      <c r="W6" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" s="51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42">
         <v>111</v>
       </c>
-      <c r="AA4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D7" s="41">
+        <v>117</v>
+      </c>
+      <c r="E7" s="41">
+        <v>122</v>
+      </c>
+      <c r="F7" s="41">
+        <v>82</v>
+      </c>
+      <c r="G7" s="41">
+        <v>145</v>
+      </c>
+      <c r="H7" s="40">
+        <v>67</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K7" s="34">
+        <v>28</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" ref="N7:W7" si="0">$I$22*N6</f>
+        <v>3.4375</v>
+      </c>
+      <c r="O7" s="27">
+        <f t="shared" si="0"/>
+        <v>10.3125</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="0"/>
+        <v>6.875</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4375</v>
+      </c>
+      <c r="R7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4375</v>
+      </c>
+      <c r="S7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4375</v>
+      </c>
+      <c r="T7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4375</v>
+      </c>
+      <c r="U7" s="27">
+        <f t="shared" si="0"/>
+        <v>10.3125</v>
+      </c>
+      <c r="V7" s="27">
+        <f t="shared" si="0"/>
+        <v>6.875</v>
+      </c>
+      <c r="W7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="39">
+        <v>499</v>
+      </c>
+      <c r="D8" s="5">
+        <v>611</v>
+      </c>
+      <c r="E8" s="5">
+        <v>703</v>
+      </c>
+      <c r="F8" s="5">
+        <v>526</v>
+      </c>
+      <c r="G8" s="5">
+        <v>442</v>
+      </c>
+      <c r="H8" s="38">
+        <v>185</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="34">
+      <c r="K8" s="34">
         <v>31</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="28">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="15" thickBot="1">
-      <c r="C6" s="42">
-        <v>111</v>
-      </c>
-      <c r="D6" s="41">
-        <v>117</v>
-      </c>
-      <c r="E6" s="41">
-        <v>122</v>
-      </c>
-      <c r="F6" s="41">
-        <v>82</v>
-      </c>
-      <c r="G6" s="41">
-        <v>145</v>
-      </c>
-      <c r="H6" s="40">
-        <v>67</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="34">
-        <v>28</v>
-      </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="27">
-        <f t="shared" ref="N6:W6" si="0">$I$21*N5</f>
-        <v>7.1630208333333334</v>
-      </c>
-      <c r="O6" s="27">
-        <f t="shared" si="0"/>
-        <v>21.489062499999999</v>
-      </c>
-      <c r="P6" s="27">
-        <f t="shared" si="0"/>
-        <v>14.326041666666667</v>
-      </c>
-      <c r="Q6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.1630208333333334</v>
-      </c>
-      <c r="R6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.1630208333333334</v>
-      </c>
-      <c r="S6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.1630208333333334</v>
-      </c>
-      <c r="T6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.1630208333333334</v>
-      </c>
-      <c r="U6" s="27">
-        <f t="shared" si="0"/>
-        <v>21.489062499999999</v>
-      </c>
-      <c r="V6" s="27">
-        <f t="shared" si="0"/>
-        <v>14.326041666666667</v>
-      </c>
-      <c r="W6" s="27">
-        <f t="shared" si="0"/>
-        <v>7.1630208333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C7" s="39">
-        <v>499</v>
-      </c>
-      <c r="D7" s="5">
-        <v>611</v>
-      </c>
-      <c r="E7" s="5">
-        <v>703</v>
-      </c>
-      <c r="F7" s="5">
-        <v>526</v>
-      </c>
-      <c r="G7" s="5">
-        <v>442</v>
-      </c>
-      <c r="H7" s="38">
-        <v>185</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="34">
-        <v>31</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C8" s="39">
-        <v>564</v>
-      </c>
-      <c r="D8" s="5">
-        <v>565</v>
-      </c>
-      <c r="E8" s="5">
-        <v>593</v>
-      </c>
-      <c r="F8" s="5">
-        <v>400</v>
-      </c>
-      <c r="G8" s="5">
-        <v>347</v>
-      </c>
-      <c r="H8" s="38">
-        <v>211</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="34">
-        <v>30</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:W8" si="1">IF(N5&gt;1,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="39">
+        <v>564</v>
+      </c>
+      <c r="D9" s="5">
+        <v>565</v>
+      </c>
+      <c r="E9" s="5">
+        <v>593</v>
+      </c>
+      <c r="F9" s="5">
+        <v>400</v>
+      </c>
+      <c r="G9" s="5">
+        <v>347</v>
+      </c>
+      <c r="H9" s="38">
+        <v>211</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="34">
+        <v>30</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9">
+        <f>IF(N7&lt;10,1,ROUNDUP(N7/10,0))</f>
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="O9">
+        <f t="shared" ref="O9:W9" si="1">IF(O7&lt;10,1,ROUNDUP(O7/10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f>IF(P7&lt;10,1,ROUNDUP(P7/10,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q8">
+      <c r="V9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R8">
+      <c r="W9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C9" s="39">
+    </row>
+    <row r="10" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="39">
         <v>122</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>120</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>178</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>119</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>104</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H10" s="38">
         <v>42</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K10" s="34">
         <v>31</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9">
-        <f>N8*$AA$5</f>
+      <c r="L10" s="33"/>
+      <c r="M10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10">
+        <f>N9*$AA$6</f>
         <v>9</v>
       </c>
-      <c r="O9">
-        <f t="shared" ref="O9:W9" si="2">O8*$AA$5</f>
+      <c r="O10">
+        <f>O9*$AA$6</f>
         <v>18</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="Q9">
+      <c r="P10">
+        <f>P9*$AA$6</f>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="O10:W10" si="2">Q9*$AA$6</f>
+        <v>9</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R9">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="S9">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T9">
+      <c r="U10">
+        <f>U9*$AA$6</f>
+        <v>18</v>
+      </c>
+      <c r="V10">
+        <f>V9*$AA$6</f>
+        <v>9</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C10" s="39">
+    </row>
+    <row r="11" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="39">
         <v>142</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>396</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>459</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>340</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>303</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H11" s="38">
         <v>141</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K11" s="34">
         <v>30</v>
-      </c>
-      <c r="L10" s="33"/>
-      <c r="M10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10">
-        <f>2000*2</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C11" s="39">
-        <v>195</v>
-      </c>
-      <c r="D11" s="5">
-        <v>172</v>
-      </c>
-      <c r="E11" s="5">
-        <v>177</v>
-      </c>
-      <c r="F11" s="5">
-        <v>167</v>
-      </c>
-      <c r="G11" s="5">
-        <v>113</v>
-      </c>
-      <c r="H11" s="38">
-        <v>74</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="34">
-        <v>31</v>
       </c>
       <c r="L11" s="33"/>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N11">
-        <f>SUM(N9:W9)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+        <f>AA5*MAX(N9:W9)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="D12" s="5">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E12" s="5">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F12" s="5">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="G12" s="5">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="H12" s="38">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" s="34">
         <v>31</v>
       </c>
       <c r="L12" s="33"/>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="N12">
-        <f>N10+N11*20</f>
-        <v>6520</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
+        <f>SUM(N10:W10)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
+        <v>128</v>
+      </c>
+      <c r="D13" s="5">
+        <v>153</v>
+      </c>
+      <c r="E13" s="5">
+        <v>214</v>
+      </c>
+      <c r="F13" s="5">
+        <v>249</v>
+      </c>
+      <c r="G13" s="5">
+        <v>198</v>
+      </c>
+      <c r="H13" s="38">
+        <v>79</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="34">
+        <v>31</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13">
+        <f>N11+N12*20</f>
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="39">
         <v>149</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <v>158</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>169</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>97</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="5">
         <v>104</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H14" s="38">
         <v>51</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J14" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K14" s="34">
         <v>30</v>
       </c>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C14" s="39">
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="39">
         <v>91</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>90</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>143</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="5">
         <v>101</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <v>106</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H15" s="38">
         <v>73</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J15" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K15" s="34">
         <v>31</v>
       </c>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C15" s="39">
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="39">
         <v>164</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>209</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>239</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>211</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>205</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H16" s="38">
         <v>115</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K16" s="34">
         <v>30</v>
       </c>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="2:27" ht="18.5" thickTop="1" thickBot="1">
-      <c r="C16" s="37">
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="37">
         <v>112</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D17" s="36">
         <v>154</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E17" s="36">
         <v>105</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F17" s="36">
         <v>91</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G17" s="36">
         <v>78</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H17" s="35">
         <v>63</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K17" s="34">
         <v>31</v>
       </c>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:13" ht="18.5" thickTop="1" thickBot="1">
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:H17" si="3">SUM(C6:C16)</f>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:H18" si="3">SUM(C7:C17)</f>
         <v>2277</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <f t="shared" si="3"/>
         <v>2745</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>3102</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
         <v>2383</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="3"/>
         <v>2145</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="3"/>
         <v>1101</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-      <c r="M17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="18.5" thickTop="1" thickBot="1">
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="30"/>
       <c r="M18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15" thickTop="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="26">
-        <f t="shared" ref="C19:H19" si="4">C17/C18</f>
+        <v>106</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="30"/>
+      <c r="M19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" ref="C20:H20" si="4">C18/C19</f>
         <v>113.85</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D20" s="26">
         <f t="shared" si="4"/>
         <v>137.25</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E20" s="26">
         <f t="shared" si="4"/>
         <v>155.1</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F20" s="26">
         <f t="shared" si="4"/>
         <v>119.15</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <f t="shared" si="4"/>
         <v>107.25</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H20" s="26">
         <f t="shared" si="4"/>
         <v>55.05</v>
       </c>
-      <c r="I19" s="29">
-        <f>AVERAGE(C19:H19)</f>
-        <v>114.60833333333333</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="I20" s="29">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>6880</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6880</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6880</v>
+      </c>
+      <c r="F21" s="44">
+        <v>6880</v>
+      </c>
+      <c r="G21" s="44">
+        <v>6880</v>
+      </c>
+      <c r="H21" s="44">
+        <v>6160</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>I20/SUM(N6:W6)</f>
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="44">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="44">
+        <v>2018</v>
+      </c>
+      <c r="E31" s="44">
+        <v>2018</v>
+      </c>
+      <c r="F31" s="44">
+        <v>2019</v>
+      </c>
+      <c r="G31" s="44">
+        <v>2019</v>
+      </c>
+      <c r="H31" s="44">
+        <v>2019</v>
+      </c>
+      <c r="M31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>12</v>
+      </c>
+      <c r="P31">
+        <v>13</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>15</v>
+      </c>
+      <c r="S31">
+        <v>16</v>
+      </c>
+      <c r="T31">
+        <v>17</v>
+      </c>
+      <c r="U31">
+        <v>18</v>
+      </c>
+      <c r="V31">
+        <v>19</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="Z31" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA31" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="F20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6160</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G32" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="34">
+        <v>31</v>
+      </c>
+      <c r="L32" s="47"/>
+      <c r="M32" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="N32" s="50">
+        <v>1</v>
+      </c>
+      <c r="O32" s="51">
+        <v>3</v>
+      </c>
+      <c r="P32" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="51">
+        <v>1</v>
+      </c>
+      <c r="R32" s="51">
+        <v>1</v>
+      </c>
+      <c r="S32" s="51">
+        <v>1</v>
+      </c>
+      <c r="T32" s="51">
+        <v>1</v>
+      </c>
+      <c r="U32" s="51">
+        <v>3</v>
+      </c>
+      <c r="V32" s="51">
+        <v>2</v>
+      </c>
+      <c r="W32" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA32" s="51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="42">
+        <v>111</v>
+      </c>
+      <c r="D33" s="41">
+        <v>117</v>
+      </c>
+      <c r="E33" s="41">
+        <v>122</v>
+      </c>
+      <c r="F33" s="41">
+        <v>82</v>
+      </c>
+      <c r="G33" s="41">
+        <v>145</v>
+      </c>
+      <c r="H33" s="40">
+        <v>67</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="34">
+        <v>28</v>
+      </c>
+      <c r="L33" s="48"/>
+      <c r="M33" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="27">
+        <f t="shared" ref="N33:O33" si="5">$I$48*N32</f>
+        <v>3.4375</v>
+      </c>
+      <c r="O33" s="27">
+        <f t="shared" ref="O33" si="6">$I$48*O32</f>
+        <v>10.3125</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" ref="P33" si="7">$I$48*P32</f>
+        <v>6.875</v>
+      </c>
+      <c r="Q33" s="27">
+        <f t="shared" ref="Q33" si="8">$I$48*Q32</f>
+        <v>3.4375</v>
+      </c>
+      <c r="R33" s="27">
+        <f t="shared" ref="R33" si="9">$I$48*R32</f>
+        <v>3.4375</v>
+      </c>
+      <c r="S33" s="27">
+        <f t="shared" ref="S33" si="10">$I$48*S32</f>
+        <v>3.4375</v>
+      </c>
+      <c r="T33" s="27">
+        <f t="shared" ref="T33" si="11">$I$48*T32</f>
+        <v>3.4375</v>
+      </c>
+      <c r="U33" s="27">
+        <f t="shared" ref="U33" si="12">$I$48*U32</f>
+        <v>10.3125</v>
+      </c>
+      <c r="V33" s="27">
+        <f t="shared" ref="V33" si="13">$I$48*V32</f>
+        <v>6.875</v>
+      </c>
+      <c r="W33" s="27">
+        <f t="shared" ref="W33" si="14">$I$48*W32</f>
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="39">
+        <v>499</v>
+      </c>
+      <c r="D34" s="5">
+        <v>611</v>
+      </c>
+      <c r="E34" s="5">
+        <v>703</v>
+      </c>
+      <c r="F34" s="5">
+        <v>526</v>
+      </c>
+      <c r="G34" s="5">
+        <v>442</v>
+      </c>
+      <c r="H34" s="38">
+        <v>185</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="34">
+        <v>31</v>
+      </c>
+      <c r="L34" s="33"/>
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34">
+        <f>IF(N33&lt;20,1,ROUNDUP(N33/20,0))</f>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:W34" si="15">IF(O33&lt;20,1,ROUNDUP(O33/20,0))</f>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="39">
+        <v>564</v>
+      </c>
+      <c r="D35" s="5">
+        <v>565</v>
+      </c>
+      <c r="E35" s="5">
+        <v>593</v>
+      </c>
+      <c r="F35" s="5">
+        <v>400</v>
+      </c>
+      <c r="G35" s="5">
+        <v>347</v>
+      </c>
+      <c r="H35" s="38">
+        <v>211</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="34">
+        <v>30</v>
+      </c>
+      <c r="L35" s="33"/>
+      <c r="M35" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35">
+        <f>IF(N33&lt;10,1,ROUNDUP(N33/10,0))</f>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f>IF(O33&lt;10,1,ROUNDUP(O33/10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f>IF(P33&lt;10,1,ROUNDUP(P33/10,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Y35" si="16">IF(Q33&lt;10,1,ROUNDUP(Q33/10,0))</f>
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="39">
+        <v>122</v>
+      </c>
+      <c r="D36" s="5">
+        <v>120</v>
+      </c>
+      <c r="E36" s="5">
+        <v>178</v>
+      </c>
+      <c r="F36" s="5">
+        <v>119</v>
+      </c>
+      <c r="G36" s="5">
+        <v>104</v>
+      </c>
+      <c r="H36" s="38">
+        <v>42</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="34">
+        <v>31</v>
+      </c>
+      <c r="L36" s="33"/>
+      <c r="M36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36">
+        <f>$AA$32*(SUM(N34:N35)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <f>$AA$32*(SUM(O34:O35)-1)</f>
+        <v>18</v>
+      </c>
+      <c r="P36">
+        <f>$AA$32*(SUM(P34:P35)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <f>$AA$32*(SUM(Q34:Q35)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:W36" si="17">$AA$32*(SUM(R34:R35)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="39">
+        <v>142</v>
+      </c>
+      <c r="D37" s="5">
+        <v>396</v>
+      </c>
+      <c r="E37" s="5">
+        <v>459</v>
+      </c>
+      <c r="F37" s="5">
+        <v>340</v>
+      </c>
+      <c r="G37" s="5">
+        <v>303</v>
+      </c>
+      <c r="H37" s="38">
+        <v>141</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="34">
+        <v>30</v>
+      </c>
+      <c r="L37" s="33"/>
+      <c r="M37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37">
+        <f>AA31</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="39">
+        <v>195</v>
+      </c>
+      <c r="D38" s="5">
+        <v>172</v>
+      </c>
+      <c r="E38" s="5">
+        <v>177</v>
+      </c>
+      <c r="F38" s="5">
+        <v>167</v>
+      </c>
+      <c r="G38" s="5">
+        <v>113</v>
+      </c>
+      <c r="H38" s="38">
+        <v>74</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="34">
+        <v>31</v>
+      </c>
+      <c r="L38" s="33"/>
+      <c r="M38" t="s">
+        <v>110</v>
+      </c>
+      <c r="N38">
+        <f>SUM(N36:W36)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="39">
+        <v>128</v>
+      </c>
+      <c r="D39" s="5">
+        <v>153</v>
+      </c>
+      <c r="E39" s="5">
+        <v>214</v>
+      </c>
+      <c r="F39" s="5">
+        <v>249</v>
+      </c>
+      <c r="G39" s="5">
+        <v>198</v>
+      </c>
+      <c r="H39" s="38">
+        <v>79</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="34">
+        <v>31</v>
+      </c>
+      <c r="L39" s="33"/>
+      <c r="M39" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39">
+        <f>N37+N38*20</f>
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="39">
+        <v>149</v>
+      </c>
+      <c r="D40" s="5">
+        <v>158</v>
+      </c>
+      <c r="E40" s="5">
+        <v>169</v>
+      </c>
+      <c r="F40" s="5">
         <v>97</v>
       </c>
-      <c r="M20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="I21">
-        <f>I19/SUM(N5:W5)</f>
-        <v>7.1630208333333334</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="C24" t="s">
+      <c r="G40" s="5">
+        <v>104</v>
+      </c>
+      <c r="H40" s="38">
+        <v>51</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="34">
+        <v>30</v>
+      </c>
+      <c r="L40" s="33"/>
+    </row>
+    <row r="41" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="39">
+        <v>91</v>
+      </c>
+      <c r="D41" s="5">
+        <v>90</v>
+      </c>
+      <c r="E41" s="5">
+        <v>143</v>
+      </c>
+      <c r="F41" s="5">
+        <v>101</v>
+      </c>
+      <c r="G41" s="5">
+        <v>106</v>
+      </c>
+      <c r="H41" s="38">
+        <v>73</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="34">
+        <v>31</v>
+      </c>
+      <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="39">
+        <v>164</v>
+      </c>
+      <c r="D42" s="5">
+        <v>209</v>
+      </c>
+      <c r="E42" s="5">
+        <v>239</v>
+      </c>
+      <c r="F42" s="5">
+        <v>211</v>
+      </c>
+      <c r="G42" s="5">
+        <v>205</v>
+      </c>
+      <c r="H42" s="38">
+        <v>115</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="34">
+        <v>30</v>
+      </c>
+      <c r="L42" s="33"/>
+    </row>
+    <row r="43" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="37">
+        <v>112</v>
+      </c>
+      <c r="D43" s="36">
+        <v>154</v>
+      </c>
+      <c r="E43" s="36">
+        <v>105</v>
+      </c>
+      <c r="F43" s="36">
+        <v>91</v>
+      </c>
+      <c r="G43" s="36">
+        <v>78</v>
+      </c>
+      <c r="H43" s="35">
+        <v>63</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="34">
+        <v>31</v>
+      </c>
+      <c r="L43" s="33"/>
+    </row>
+    <row r="44" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="44">
+        <f t="shared" ref="C44:H44" si="18">SUM(C33:C43)</f>
+        <v>2277</v>
+      </c>
+      <c r="D44" s="44">
+        <f t="shared" si="18"/>
+        <v>2745</v>
+      </c>
+      <c r="E44" s="44">
+        <f t="shared" si="18"/>
+        <v>3102</v>
+      </c>
+      <c r="F44" s="44">
+        <f t="shared" si="18"/>
+        <v>2383</v>
+      </c>
+      <c r="G44" s="44">
+        <f t="shared" si="18"/>
+        <v>2145</v>
+      </c>
+      <c r="H44" s="44">
+        <f t="shared" si="18"/>
+        <v>1101</v>
+      </c>
+      <c r="K44" s="32"/>
+      <c r="L44" s="30"/>
+      <c r="M44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="44">
+        <v>20</v>
+      </c>
+      <c r="D45" s="44">
+        <v>20</v>
+      </c>
+      <c r="E45" s="44">
+        <v>20</v>
+      </c>
+      <c r="F45" s="44">
+        <v>20</v>
+      </c>
+      <c r="G45" s="44">
+        <v>20</v>
+      </c>
+      <c r="H45" s="44">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="30"/>
+      <c r="M45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>96</v>
       </c>
+      <c r="C46" s="26">
+        <f t="shared" ref="C46:H46" si="19">C44/C45</f>
+        <v>113.85</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="19"/>
+        <v>137.25</v>
+      </c>
+      <c r="E46" s="26">
+        <f t="shared" si="19"/>
+        <v>155.1</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="19"/>
+        <v>119.15</v>
+      </c>
+      <c r="G46" s="26">
+        <f t="shared" si="19"/>
+        <v>107.25</v>
+      </c>
+      <c r="H46" s="26">
+        <f t="shared" si="19"/>
+        <v>55.05</v>
+      </c>
+      <c r="I46" s="29">
+        <v>55</v>
+      </c>
+      <c r="M46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C47" s="44">
+        <v>5240</v>
+      </c>
+      <c r="D47" s="44">
+        <v>5240</v>
+      </c>
+      <c r="E47" s="44">
+        <v>5240</v>
+      </c>
+      <c r="F47" s="44">
+        <v>5240</v>
+      </c>
+      <c r="G47" s="44">
+        <v>5240</v>
+      </c>
+      <c r="H47" s="44">
+        <v>4160</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>I46/SUM(N32:W32)</f>
+        <v>3.4375</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L5:L6"/>
+  <mergeCells count="2">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12159,1202 +13020,1362 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38988B24-B106-42DF-A1CC-74C5D57DF5D3}">
-  <dimension ref="B2:AH23"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:AH35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB1:AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="2">
+      <c r="C4" s="52"/>
+      <c r="D4" s="5">
         <v>2018</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E4" s="5">
         <v>2018</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F4" s="5">
         <v>2018</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G4" s="5">
         <v>2019</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H4" s="5">
         <v>2019</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I4" s="5">
         <v>2019</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J4" s="5">
         <v>2019</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K4" s="5">
         <v>2019</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L4" s="5">
         <v>2019</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M4" s="5">
         <v>2019</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N4" s="5">
         <v>2019</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O4" s="5">
         <v>2019</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P4" s="5">
         <v>2019</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q4" s="5">
         <v>2019</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R4" s="5">
         <v>2019</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="V4">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <v>13</v>
+      </c>
+      <c r="X4">
+        <v>14</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4">
+        <v>16</v>
+      </c>
+      <c r="AA4">
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>19</v>
+      </c>
+      <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH4" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="50">
+        <v>1</v>
+      </c>
+      <c r="V5" s="51">
+        <v>3</v>
+      </c>
+      <c r="W5" s="51">
+        <v>2</v>
+      </c>
+      <c r="X5" s="51">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="51">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="51">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="51">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="51">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="51">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH5" s="51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>94</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <v>124</v>
+      </c>
+      <c r="J6" s="5">
+        <v>87</v>
+      </c>
+      <c r="K6" s="5">
+        <v>82</v>
+      </c>
+      <c r="L6" s="5">
+        <v>96</v>
+      </c>
+      <c r="M6" s="5">
+        <v>79</v>
+      </c>
+      <c r="N6" s="5">
+        <v>80</v>
+      </c>
+      <c r="O6" s="5">
+        <v>97</v>
+      </c>
+      <c r="P6" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>24</v>
+      </c>
+      <c r="R6" s="5">
+        <v>107</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="27">
+        <f>$D$25*U5</f>
+        <v>62.5</v>
+      </c>
+      <c r="V6" s="27">
+        <f>$D$25*V5</f>
+        <v>187.5</v>
+      </c>
+      <c r="W6" s="27">
+        <f>$D$25*W5</f>
+        <v>125</v>
+      </c>
+      <c r="X6" s="27">
+        <f>$D$25*X5</f>
+        <v>62.5</v>
+      </c>
+      <c r="Y6" s="27">
+        <f>$D$25*Y5</f>
+        <v>62.5</v>
+      </c>
+      <c r="Z6" s="27">
+        <f>$D$25*Z5</f>
+        <v>62.5</v>
+      </c>
+      <c r="AA6" s="27">
+        <f>$D$25*AA5</f>
+        <v>62.5</v>
+      </c>
+      <c r="AB6" s="27">
+        <f>$D$25*AB5</f>
+        <v>187.5</v>
+      </c>
+      <c r="AC6" s="27">
+        <f>$D$25*AC5</f>
+        <v>125</v>
+      </c>
+      <c r="AD6" s="27">
+        <f>$D$25*AD5</f>
+        <v>62.5</v>
+      </c>
+      <c r="AG6" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH6" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5">
+        <v>121</v>
+      </c>
+      <c r="E7" s="5">
+        <v>175</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+      <c r="G7" s="5">
+        <v>270</v>
+      </c>
+      <c r="H7" s="5">
+        <v>294</v>
+      </c>
+      <c r="I7" s="5">
+        <v>269</v>
+      </c>
+      <c r="J7" s="5">
+        <v>232</v>
+      </c>
+      <c r="K7" s="5">
+        <v>167</v>
+      </c>
+      <c r="L7" s="5">
+        <v>140</v>
+      </c>
+      <c r="M7" s="5">
+        <v>159</v>
+      </c>
+      <c r="N7" s="5">
+        <v>245</v>
+      </c>
+      <c r="O7" s="5">
+        <v>283</v>
+      </c>
+      <c r="P7" s="5">
+        <v>291</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>45</v>
+      </c>
+      <c r="R7" s="5">
+        <v>202</v>
+      </c>
+      <c r="T7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7">
+        <f>IF(U6&lt;10,1,ROUNDUP(U6/20,0))</f>
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <f>IF(V6&lt;10,1,ROUNDUP(V6/20,0))</f>
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <f>IF(W6&lt;10,1,ROUNDUP(W6/20,0))</f>
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:AD7" si="0">IF(X6&lt;10,1,ROUNDUP(X6/20,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5">
+        <v>503</v>
+      </c>
+      <c r="E8" s="5">
+        <v>452</v>
+      </c>
+      <c r="F8" s="5">
+        <v>378</v>
+      </c>
+      <c r="G8" s="5">
+        <v>396</v>
+      </c>
+      <c r="H8" s="5">
+        <v>216</v>
+      </c>
+      <c r="I8" s="5">
+        <v>570</v>
+      </c>
+      <c r="J8" s="5">
+        <v>426</v>
+      </c>
+      <c r="K8" s="5">
+        <v>412</v>
+      </c>
+      <c r="L8" s="5">
+        <v>414</v>
+      </c>
+      <c r="M8" s="5">
+        <v>362</v>
+      </c>
+      <c r="N8" s="5">
+        <v>351</v>
+      </c>
+      <c r="O8" s="5">
+        <v>403</v>
+      </c>
+      <c r="P8" s="5">
+        <v>426</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>19</v>
+      </c>
+      <c r="R8" s="5">
+        <v>388</v>
+      </c>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8">
+        <f>IF(U6&lt;10,1,ROUNDUP(U6/10,0))</f>
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <f>IF(V6&lt;10,1,ROUNDUP(V6/10,0))</f>
+        <v>19</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:AD8" si="1">IF(W6&lt;10,1,ROUNDUP(W6/10,0))</f>
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <f>IF(AA6&lt;10,1,ROUNDUP(AA6/10,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <f>IF(AB6&lt;10,1,ROUNDUP(AB6/10,0))</f>
+        <v>19</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5">
+        <v>115</v>
+      </c>
+      <c r="E9" s="5">
         <v>95</v>
       </c>
-      <c r="U2">
+      <c r="F9" s="5">
+        <v>52</v>
+      </c>
+      <c r="G9" s="5">
+        <v>145</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>110</v>
+      </c>
+      <c r="J9" s="5">
+        <v>104</v>
+      </c>
+      <c r="K9" s="5">
+        <v>83</v>
+      </c>
+      <c r="L9" s="5">
+        <v>89</v>
+      </c>
+      <c r="M9" s="5">
+        <v>74</v>
+      </c>
+      <c r="N9" s="5">
+        <v>79</v>
+      </c>
+      <c r="O9" s="5">
+        <v>78</v>
+      </c>
+      <c r="P9" s="5">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>46</v>
+      </c>
+      <c r="R9" s="5">
+        <v>61</v>
+      </c>
+      <c r="T9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U9">
+        <f>IF(AH6&gt;SUM(U7:U8),$AH$5*(SUM(U7:U8)-1),$AH$5*(SUM(U7:U8)-AH6))</f>
+        <v>90</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:AD9" si="2">IF(AI6&gt;SUM(V7:V8),$AH$5*(SUM(V7:V8)-1),$AH$5*(SUM(V7:V8)-AI6))</f>
+        <v>261</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>26</v>
+      </c>
+      <c r="M10" s="5">
+        <v>129</v>
+      </c>
+      <c r="N10" s="5">
+        <v>173</v>
+      </c>
+      <c r="O10" s="5">
+        <v>191</v>
+      </c>
+      <c r="P10" s="5">
+        <v>247</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>79</v>
+      </c>
+      <c r="R10" s="5">
+        <v>201</v>
+      </c>
+      <c r="T10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U10">
+        <f>AH6*AH4</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5">
+        <v>300</v>
+      </c>
+      <c r="E11" s="5">
+        <v>275</v>
+      </c>
+      <c r="F11" s="5">
+        <v>126</v>
+      </c>
+      <c r="G11" s="5">
+        <v>184</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>173</v>
+      </c>
+      <c r="J11" s="5">
+        <v>117</v>
+      </c>
+      <c r="K11" s="5">
+        <v>117</v>
+      </c>
+      <c r="L11" s="5">
+        <v>121</v>
+      </c>
+      <c r="M11" s="5">
+        <v>59</v>
+      </c>
+      <c r="N11" s="5">
+        <v>75</v>
+      </c>
+      <c r="O11" s="5">
+        <v>73</v>
+      </c>
+      <c r="P11" s="5">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>96</v>
+      </c>
+      <c r="R11" s="5">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U11">
+        <f>SUM(U9:AD9)</f>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5">
+        <v>302</v>
+      </c>
+      <c r="E12" s="5">
+        <v>281</v>
+      </c>
+      <c r="F12" s="5">
+        <v>137</v>
+      </c>
+      <c r="G12" s="5">
+        <v>183</v>
+      </c>
+      <c r="H12" s="5">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <v>176</v>
+      </c>
+      <c r="J12" s="5">
+        <v>169</v>
+      </c>
+      <c r="K12" s="5">
+        <v>119</v>
+      </c>
+      <c r="L12" s="5">
+        <v>96</v>
+      </c>
+      <c r="M12" s="5">
+        <v>85</v>
+      </c>
+      <c r="N12" s="5">
+        <v>77</v>
+      </c>
+      <c r="O12" s="5">
+        <v>110</v>
+      </c>
+      <c r="P12" s="5">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>37</v>
+      </c>
+      <c r="R12" s="5">
+        <v>52</v>
+      </c>
+      <c r="T12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12">
+        <f>U10+U11*20</f>
+        <v>31340</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5">
+        <v>206</v>
+      </c>
+      <c r="E13" s="5">
+        <v>163</v>
+      </c>
+      <c r="F13" s="5">
+        <v>133</v>
+      </c>
+      <c r="G13" s="5">
+        <v>149</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5">
+        <v>159</v>
+      </c>
+      <c r="J13" s="5">
+        <v>134</v>
+      </c>
+      <c r="K13" s="5">
+        <v>111</v>
+      </c>
+      <c r="L13" s="5">
+        <v>97</v>
+      </c>
+      <c r="M13" s="5">
+        <v>93</v>
+      </c>
+      <c r="N13" s="5">
+        <v>95</v>
+      </c>
+      <c r="O13" s="5">
+        <v>112</v>
+      </c>
+      <c r="P13" s="5">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>52</v>
+      </c>
+      <c r="R13" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>14</v>
+      </c>
+      <c r="J14" s="5">
+        <v>8</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>15</v>
+      </c>
+      <c r="M14" s="5">
+        <v>57</v>
+      </c>
+      <c r="N14" s="5">
+        <v>80</v>
+      </c>
+      <c r="O14" s="5">
+        <v>50</v>
+      </c>
+      <c r="P14" s="5">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>6</v>
+      </c>
+      <c r="R14" s="5">
+        <v>65</v>
+      </c>
+      <c r="T14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V2">
-        <v>12</v>
-      </c>
-      <c r="W2">
-        <v>13</v>
-      </c>
-      <c r="X2">
-        <v>14</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
-      </c>
-      <c r="Z2">
-        <v>16</v>
-      </c>
-      <c r="AA2">
-        <v>17</v>
-      </c>
-      <c r="AB2">
-        <v>18</v>
-      </c>
-      <c r="AC2">
-        <v>19</v>
-      </c>
-      <c r="AD2">
+      <c r="D15" s="5">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5">
+        <v>87</v>
+      </c>
+      <c r="G15" s="5">
+        <v>106</v>
+      </c>
+      <c r="H15" s="5">
+        <v>48</v>
+      </c>
+      <c r="I15" s="5">
+        <v>111</v>
+      </c>
+      <c r="J15" s="5">
+        <v>100</v>
+      </c>
+      <c r="K15" s="5">
+        <v>90</v>
+      </c>
+      <c r="L15" s="5">
+        <v>78</v>
+      </c>
+      <c r="M15" s="5">
+        <v>96</v>
+      </c>
+      <c r="N15" s="5">
+        <v>103</v>
+      </c>
+      <c r="O15" s="5">
+        <v>101</v>
+      </c>
+      <c r="P15" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>52</v>
+      </c>
+      <c r="R15" s="5">
+        <v>95</v>
+      </c>
+      <c r="T15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>141</v>
+      </c>
+      <c r="E16" s="5">
+        <v>148</v>
+      </c>
+      <c r="F16" s="5">
+        <v>137</v>
+      </c>
+      <c r="G16" s="5">
+        <v>193</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>261</v>
+      </c>
+      <c r="J16" s="5">
+        <v>215</v>
+      </c>
+      <c r="K16" s="5">
+        <v>199</v>
+      </c>
+      <c r="L16" s="5">
+        <v>133</v>
+      </c>
+      <c r="M16" s="5">
+        <v>36</v>
+      </c>
+      <c r="N16" s="5">
+        <v>47</v>
+      </c>
+      <c r="O16" s="5">
+        <v>36</v>
+      </c>
+      <c r="P16" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>112</v>
+      </c>
+      <c r="R16" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T18" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T19" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="44">
+        <f>SUM(D6:D16)</f>
+        <v>1769</v>
+      </c>
+      <c r="E20" s="44">
+        <f>SUM(E6:E16)</f>
+        <v>1666</v>
+      </c>
+      <c r="F20" s="44">
+        <f>SUM(F6:F16)</f>
+        <v>1200</v>
+      </c>
+      <c r="G20" s="44">
+        <f>SUM(G6:G16)</f>
+        <v>1720</v>
+      </c>
+      <c r="H20" s="44">
+        <f>SUM(H6:H16)</f>
+        <v>648</v>
+      </c>
+      <c r="I20" s="44">
+        <f>SUM(I6:I16)</f>
+        <v>1987</v>
+      </c>
+      <c r="J20" s="44">
+        <f>SUM(J6:J16)</f>
+        <v>1608</v>
+      </c>
+      <c r="K20" s="44">
+        <f>SUM(K6:K16)</f>
+        <v>1384</v>
+      </c>
+      <c r="L20" s="44">
+        <f>SUM(L6:L16)</f>
+        <v>1305</v>
+      </c>
+      <c r="M20" s="44">
+        <f>SUM(M6:M16)</f>
+        <v>1229</v>
+      </c>
+      <c r="N20" s="44">
+        <f>SUM(N6:N16)</f>
+        <v>1405</v>
+      </c>
+      <c r="O20" s="44">
+        <f>SUM(O6:O16)</f>
+        <v>1534</v>
+      </c>
+      <c r="P20" s="44">
+        <f>SUM(P6:P16)</f>
+        <v>1630</v>
+      </c>
+      <c r="Q20" s="44">
+        <f>SUM(Q6:Q16)</f>
+        <v>568</v>
+      </c>
+      <c r="R20" s="44">
+        <f>SUM(R6:R16)</f>
+        <v>1332</v>
+      </c>
+      <c r="T20" s="56">
+        <f>U10+U11*20</f>
+        <v>31340</v>
+      </c>
+      <c r="U20" s="54"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="44">
         <v>20</v>
       </c>
-      <c r="AG2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="E21" s="44">
+        <v>20</v>
+      </c>
+      <c r="F21" s="44">
+        <v>20</v>
+      </c>
+      <c r="G21" s="44">
+        <v>20</v>
+      </c>
+      <c r="H21" s="44">
+        <v>20</v>
+      </c>
+      <c r="I21" s="44">
+        <v>20</v>
+      </c>
+      <c r="J21" s="44">
+        <v>20</v>
+      </c>
+      <c r="K21" s="44">
+        <v>20</v>
+      </c>
+      <c r="L21" s="44">
+        <v>20</v>
+      </c>
+      <c r="M21" s="44">
+        <v>20</v>
+      </c>
+      <c r="N21" s="44">
+        <v>20</v>
+      </c>
+      <c r="O21" s="44">
+        <v>20</v>
+      </c>
+      <c r="P21" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>20</v>
+      </c>
+      <c r="R21" s="44">
+        <v>20</v>
+      </c>
+      <c r="T21" s="55">
+        <v>88.45</v>
+      </c>
+      <c r="U21" s="53">
+        <f t="dataTable" ref="U21:U35" dt2D="1" dtr="1" r1="D24" r2="U12"/>
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="26">
+        <f>D20/D21</f>
+        <v>88.45</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" ref="E22:R22" si="3">E20/E21</f>
+        <v>83.3</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="28">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AC3">
-        <v>2</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34">
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>94</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2">
-        <v>124</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="G22" s="26">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="3"/>
+        <v>32.4</v>
+      </c>
+      <c r="I22" s="26">
+        <f t="shared" si="3"/>
+        <v>99.35</v>
+      </c>
+      <c r="J22" s="26">
+        <f t="shared" si="3"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" si="3"/>
+        <v>69.2</v>
+      </c>
+      <c r="L22" s="26">
+        <f t="shared" si="3"/>
+        <v>65.25</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" si="3"/>
+        <v>61.45</v>
+      </c>
+      <c r="N22" s="26">
+        <f t="shared" si="3"/>
+        <v>70.25</v>
+      </c>
+      <c r="O22" s="26">
+        <f t="shared" si="3"/>
+        <v>76.7</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" si="3"/>
+        <v>81.5</v>
+      </c>
+      <c r="Q22" s="26">
+        <f t="shared" si="3"/>
+        <v>28.4</v>
+      </c>
+      <c r="R22" s="26">
+        <f t="shared" si="3"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="T22" s="55">
+        <v>83.3</v>
+      </c>
+      <c r="U22" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="T23" s="55">
+        <v>60</v>
+      </c>
+      <c r="U23" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="43">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="55">
+        <v>86</v>
+      </c>
+      <c r="U24" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="2">
-        <v>82</v>
-      </c>
-      <c r="L4" s="2">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2">
-        <v>79</v>
-      </c>
-      <c r="N4" s="2">
-        <v>80</v>
-      </c>
-      <c r="O4" s="2">
-        <v>97</v>
-      </c>
-      <c r="P4" s="2">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>24</v>
-      </c>
-      <c r="R4" s="2">
-        <v>107</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="27">
-        <f>$D$23*U3</f>
-        <v>4.3718750000000002</v>
-      </c>
-      <c r="V4" s="27">
-        <f t="shared" ref="V4:AD4" si="0">$D$23*V3</f>
-        <v>13.115625000000001</v>
-      </c>
-      <c r="W4" s="27">
-        <f t="shared" si="0"/>
-        <v>8.7437500000000004</v>
-      </c>
-      <c r="X4" s="27">
-        <f t="shared" si="0"/>
-        <v>4.3718750000000002</v>
-      </c>
-      <c r="Y4" s="27">
-        <f t="shared" si="0"/>
-        <v>4.3718750000000002</v>
-      </c>
-      <c r="Z4" s="27">
-        <f t="shared" si="0"/>
-        <v>4.3718750000000002</v>
-      </c>
-      <c r="AA4" s="27">
-        <f t="shared" si="0"/>
-        <v>4.3718750000000002</v>
-      </c>
-      <c r="AB4" s="27">
-        <f t="shared" si="0"/>
-        <v>13.115625000000001</v>
-      </c>
-      <c r="AC4" s="27">
-        <f t="shared" si="0"/>
-        <v>8.7437500000000004</v>
-      </c>
-      <c r="AD4" s="27">
-        <f t="shared" si="0"/>
-        <v>4.3718750000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34">
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2">
-        <v>121</v>
-      </c>
-      <c r="E5" s="2">
-        <v>175</v>
-      </c>
-      <c r="F5" s="2">
-        <v>150</v>
-      </c>
-      <c r="G5" s="2">
-        <v>270</v>
-      </c>
-      <c r="H5" s="2">
-        <v>294</v>
-      </c>
-      <c r="I5" s="2">
-        <v>269</v>
-      </c>
-      <c r="J5" s="2">
-        <v>232</v>
-      </c>
-      <c r="K5" s="2">
-        <v>167</v>
-      </c>
-      <c r="L5" s="2">
-        <v>140</v>
-      </c>
-      <c r="M5" s="2">
-        <v>159</v>
-      </c>
-      <c r="N5" s="2">
-        <v>245</v>
-      </c>
-      <c r="O5" s="2">
-        <v>283</v>
-      </c>
-      <c r="P5" s="2">
-        <v>291</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>45</v>
-      </c>
-      <c r="R5" s="2">
-        <v>202</v>
-      </c>
-      <c r="T5" t="s">
-        <v>115</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34">
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2">
-        <v>503</v>
-      </c>
-      <c r="E6" s="2">
-        <v>452</v>
-      </c>
-      <c r="F6" s="2">
-        <v>378</v>
-      </c>
-      <c r="G6" s="2">
-        <v>396</v>
-      </c>
-      <c r="H6" s="2">
-        <v>216</v>
-      </c>
-      <c r="I6" s="2">
-        <v>570</v>
-      </c>
-      <c r="J6" s="2">
-        <v>426</v>
-      </c>
-      <c r="K6" s="2">
-        <v>412</v>
-      </c>
-      <c r="L6" s="2">
-        <v>414</v>
-      </c>
-      <c r="M6" s="2">
-        <v>362</v>
-      </c>
-      <c r="N6" s="2">
-        <v>351</v>
-      </c>
-      <c r="O6" s="2">
-        <v>403</v>
-      </c>
-      <c r="P6" s="2">
-        <v>426</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>19</v>
-      </c>
-      <c r="R6" s="2">
-        <v>388</v>
-      </c>
-      <c r="T6" t="s">
-        <v>116</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ref="U6:AD6" si="1">IF(U3&gt;1,2,1)</f>
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34">
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2">
-        <v>95</v>
-      </c>
-      <c r="F7" s="2">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2">
-        <v>145</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>110</v>
-      </c>
-      <c r="J7" s="2">
-        <v>104</v>
-      </c>
-      <c r="K7" s="2">
-        <v>83</v>
-      </c>
-      <c r="L7" s="2">
-        <v>89</v>
-      </c>
-      <c r="M7" s="2">
-        <v>74</v>
-      </c>
-      <c r="N7" s="2">
-        <v>79</v>
-      </c>
-      <c r="O7" s="2">
-        <v>78</v>
-      </c>
-      <c r="P7" s="2">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>46</v>
-      </c>
-      <c r="R7" s="2">
-        <v>61</v>
-      </c>
-      <c r="T7" t="s">
-        <v>113</v>
-      </c>
-      <c r="U7">
-        <f>U6*$AH$3</f>
-        <v>9</v>
-      </c>
-      <c r="V7">
-        <f t="shared" ref="V7:AD7" si="2">V6*$AH$3</f>
-        <v>18</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34">
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>26</v>
-      </c>
-      <c r="M8" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" s="2">
-        <v>173</v>
-      </c>
-      <c r="O8" s="2">
-        <v>191</v>
-      </c>
-      <c r="P8" s="2">
-        <v>247</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>79</v>
-      </c>
-      <c r="R8" s="2">
-        <v>201</v>
-      </c>
-      <c r="T8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U8">
-        <f>2000*2</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2">
-        <v>300</v>
-      </c>
-      <c r="E9" s="2">
-        <v>275</v>
-      </c>
-      <c r="F9" s="2">
-        <v>126</v>
-      </c>
-      <c r="G9" s="2">
-        <v>184</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>173</v>
-      </c>
-      <c r="J9" s="2">
-        <v>117</v>
-      </c>
-      <c r="K9" s="2">
-        <v>117</v>
-      </c>
-      <c r="L9" s="2">
-        <v>121</v>
-      </c>
-      <c r="M9" s="2">
-        <v>59</v>
-      </c>
-      <c r="N9" s="2">
-        <v>75</v>
-      </c>
-      <c r="O9" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>96</v>
-      </c>
-      <c r="R9" s="2">
-        <v>48</v>
-      </c>
-      <c r="T9" t="s">
-        <v>114</v>
-      </c>
-      <c r="U9">
-        <f>SUM(U7:AD7)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34">
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2">
-        <v>302</v>
-      </c>
-      <c r="E10" s="2">
-        <v>281</v>
-      </c>
-      <c r="F10" s="2">
-        <v>137</v>
-      </c>
-      <c r="G10" s="2">
-        <v>183</v>
-      </c>
-      <c r="H10" s="2">
-        <v>48</v>
-      </c>
-      <c r="I10" s="2">
-        <v>176</v>
-      </c>
-      <c r="J10" s="2">
-        <v>169</v>
-      </c>
-      <c r="K10" s="2">
-        <v>119</v>
-      </c>
-      <c r="L10" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2">
-        <v>85</v>
-      </c>
-      <c r="N10" s="2">
-        <v>77</v>
-      </c>
-      <c r="O10" s="2">
-        <v>110</v>
-      </c>
-      <c r="P10" s="2">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>37</v>
-      </c>
-      <c r="R10" s="2">
-        <v>52</v>
-      </c>
-      <c r="T10" t="s">
-        <v>92</v>
-      </c>
-      <c r="U10">
-        <f>U8+U9*20</f>
-        <v>6520</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34">
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>206</v>
-      </c>
-      <c r="E11" s="2">
-        <v>163</v>
-      </c>
-      <c r="F11" s="2">
-        <v>133</v>
-      </c>
-      <c r="G11" s="2">
-        <v>149</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>159</v>
-      </c>
-      <c r="J11" s="2">
-        <v>134</v>
-      </c>
-      <c r="K11" s="2">
-        <v>111</v>
-      </c>
-      <c r="L11" s="2">
-        <v>97</v>
-      </c>
-      <c r="M11" s="2">
-        <v>93</v>
-      </c>
-      <c r="N11" s="2">
-        <v>95</v>
-      </c>
-      <c r="O11" s="2">
-        <v>112</v>
-      </c>
-      <c r="P11" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>52</v>
-      </c>
-      <c r="R11" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34">
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2">
-        <v>8</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2">
-        <v>57</v>
-      </c>
-      <c r="N12" s="2">
-        <v>80</v>
-      </c>
-      <c r="O12" s="2">
-        <v>50</v>
-      </c>
-      <c r="P12" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2">
-        <v>65</v>
-      </c>
-      <c r="T12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2">
-        <v>77</v>
-      </c>
-      <c r="F13" s="2">
-        <v>87</v>
-      </c>
-      <c r="G13" s="2">
-        <v>106</v>
-      </c>
-      <c r="H13" s="2">
-        <v>48</v>
-      </c>
-      <c r="I13" s="2">
-        <v>111</v>
-      </c>
-      <c r="J13" s="2">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2">
-        <v>90</v>
-      </c>
-      <c r="L13" s="2">
-        <v>78</v>
-      </c>
-      <c r="M13" s="2">
-        <v>96</v>
-      </c>
-      <c r="N13" s="2">
-        <v>103</v>
-      </c>
-      <c r="O13" s="2">
-        <v>101</v>
-      </c>
-      <c r="P13" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>52</v>
-      </c>
-      <c r="R13" s="2">
-        <v>95</v>
-      </c>
-      <c r="T13" t="s">
-        <v>125</v>
-      </c>
-      <c r="U13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>141</v>
-      </c>
-      <c r="E14" s="2">
-        <v>148</v>
-      </c>
-      <c r="F14" s="2">
-        <v>137</v>
-      </c>
-      <c r="G14" s="2">
-        <v>193</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>261</v>
-      </c>
-      <c r="J14" s="2">
-        <v>215</v>
-      </c>
-      <c r="K14" s="2">
-        <v>199</v>
-      </c>
-      <c r="L14" s="2">
-        <v>133</v>
-      </c>
-      <c r="M14" s="2">
-        <v>36</v>
-      </c>
-      <c r="N14" s="2">
-        <v>47</v>
-      </c>
-      <c r="O14" s="2">
-        <v>36</v>
-      </c>
-      <c r="P14" s="2">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>112</v>
-      </c>
-      <c r="R14" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34">
-      <c r="B16" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:R16" si="3">SUM(D4:D14)</f>
-        <v>1769</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
-        <v>1666</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>1720</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="3"/>
-        <v>648</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="3"/>
-        <v>1987</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>1608</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="3"/>
-        <v>1384</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="3"/>
-        <v>1305</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="3"/>
-        <v>1229</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="3"/>
-        <v>1405</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="3"/>
-        <v>1534</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="3"/>
-        <v>1630</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="3"/>
-        <v>568</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="3"/>
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="2">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2">
-        <v>20</v>
-      </c>
-      <c r="L17" s="2">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2">
-        <v>20</v>
-      </c>
-      <c r="N17" s="2">
-        <v>20</v>
-      </c>
-      <c r="O17" s="2">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>20</v>
-      </c>
-      <c r="R17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="26">
-        <f t="shared" ref="D18:R18" si="4">D16/D17</f>
-        <v>88.45</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="4"/>
-        <v>83.3</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="G18" s="26">
-        <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="H18" s="26">
-        <f t="shared" si="4"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="25">
+        <f>D24/SUM(U5:AD5)</f>
+        <v>62.5</v>
+      </c>
+      <c r="T25" s="55">
         <v>32.4</v>
       </c>
-      <c r="I18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U25" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T26" s="55">
         <v>99.35</v>
       </c>
-      <c r="J18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U26" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T27" s="55">
         <v>80.400000000000006</v>
       </c>
-      <c r="K18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U27" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T28" s="55">
         <v>69.2</v>
       </c>
-      <c r="L18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U28" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T29" s="55">
         <v>65.25</v>
       </c>
-      <c r="M18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U29" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T30" s="55">
         <v>61.45</v>
       </c>
-      <c r="N18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U30" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T31" s="55">
         <v>70.25</v>
       </c>
-      <c r="O18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U31" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T32" s="55">
         <v>76.7</v>
       </c>
-      <c r="P18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U32" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T33" s="55">
         <v>81.5</v>
       </c>
-      <c r="Q18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U33" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T34" s="55">
         <v>28.4</v>
       </c>
-      <c r="R18" s="26">
-        <f t="shared" si="4"/>
+      <c r="U34" s="53">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T35" s="55">
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="43">
-        <f>AVERAGE(D18:R18)</f>
-        <v>69.95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="25">
-        <f>D22/SUM(U3:AD3)</f>
-        <v>4.3718750000000002</v>
+      <c r="U35" s="53">
+        <v>5420</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13543,15 +14564,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471B859E-A642-4B07-83F5-4D3E41705474}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1d7ff15b-21c4-4e42-8404-310e502b1a8d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13576,18 +14609,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471B859E-A642-4B07-83F5-4D3E41705474}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1d7ff15b-21c4-4e42-8404-310e502b1a8d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Matt's calculations.xlsx
+++ b/Data/Matt's calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Tan\Documents\GitHub\soiSMA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B54FA71-9905-476C-9AA9-A4D4839F8278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56DBFA-430C-48E5-B2F8-8315CC5806EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7650" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="144">
   <si>
     <t>Noodle</t>
   </si>
@@ -455,6 +455,21 @@
   <si>
     <t>Data table for different scenarios and manpower costs</t>
   </si>
+  <si>
+    <t>Number of fulltimers</t>
+  </si>
+  <si>
+    <t>Average Number of visitors per day</t>
+  </si>
+  <si>
+    <t>Number of days in that month</t>
+  </si>
+  <si>
+    <t>Number of people per unit</t>
+  </si>
+  <si>
+    <t>Calculation Parameters</t>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +481,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.0000_-;\-&quot;$&quot;* #,##0.0000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +537,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,8 +599,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -755,12 +812,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,20 +947,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,6 +959,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4596,10 +4696,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="46" t="s">
+      <c r="AI3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="46"/>
+      <c r="AJ3" s="53"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -4732,8 +4832,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -8194,10 +8294,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="46" t="s">
+      <c r="AI3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="46"/>
+      <c r="AJ3" s="53"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -8312,8 +8412,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -11494,8 +11594,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="J32:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11517,6 +11617,10 @@
       <c r="B4" t="s">
         <v>136</v>
       </c>
+      <c r="Z4" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA4" s="65"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
@@ -11570,11 +11674,11 @@
       <c r="W5">
         <v>20</v>
       </c>
-      <c r="Z5" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA5" s="51">
-        <v>2000</v>
+      <c r="Z5" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA5" s="58">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11602,45 +11706,45 @@
       <c r="K6" s="34">
         <v>31</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="50" t="s">
+      <c r="L6" s="54"/>
+      <c r="M6" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="47">
         <v>1</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="48">
         <v>3</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="48">
         <v>2</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="48">
         <v>1</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="48">
         <v>1</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="48">
         <v>1</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="48">
         <v>1</v>
       </c>
-      <c r="U6" s="51">
+      <c r="U6" s="48">
         <v>3</v>
       </c>
-      <c r="V6" s="51">
+      <c r="V6" s="48">
         <v>2</v>
       </c>
-      <c r="W6" s="51">
+      <c r="W6" s="48">
         <v>1</v>
       </c>
-      <c r="Z6" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" s="51">
-        <v>9</v>
+      <c r="Z6" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA6" s="58">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11668,52 +11772,58 @@
       <c r="K7" s="34">
         <v>28</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N7" s="27">
-        <f t="shared" ref="N7:W7" si="0">$I$22*N6</f>
-        <v>3.4375</v>
+        <f>$I$22*N6</f>
+        <v>4.5625</v>
       </c>
       <c r="O7" s="27">
-        <f t="shared" si="0"/>
-        <v>10.3125</v>
+        <f t="shared" ref="N7:W7" si="0">$I$22*O6</f>
+        <v>13.6875</v>
       </c>
       <c r="P7" s="27">
         <f t="shared" si="0"/>
-        <v>6.875</v>
+        <v>9.125</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" si="0"/>
-        <v>3.4375</v>
+        <v>4.5625</v>
       </c>
       <c r="R7" s="27">
         <f t="shared" si="0"/>
-        <v>3.4375</v>
+        <v>4.5625</v>
       </c>
       <c r="S7" s="27">
         <f t="shared" si="0"/>
-        <v>3.4375</v>
+        <v>4.5625</v>
       </c>
       <c r="T7" s="27">
         <f t="shared" si="0"/>
-        <v>3.4375</v>
+        <v>4.5625</v>
       </c>
       <c r="U7" s="27">
         <f t="shared" si="0"/>
-        <v>10.3125</v>
+        <v>13.6875</v>
       </c>
       <c r="V7" s="27">
         <f t="shared" si="0"/>
-        <v>6.875</v>
+        <v>9.125</v>
       </c>
       <c r="W7" s="27">
         <f t="shared" si="0"/>
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.5625</v>
+      </c>
+      <c r="Z7" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>499</v>
       </c>
@@ -11772,8 +11882,14 @@
       <c r="W8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA8" s="61">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>564</v>
       </c>
@@ -11803,8 +11919,8 @@
         <v>112</v>
       </c>
       <c r="N9">
-        <f>IF(N7&lt;10,1,ROUNDUP(N7/10,0))</f>
-        <v>1</v>
+        <f>O6</f>
+        <v>3</v>
       </c>
       <c r="O9">
         <f t="shared" ref="O9:W9" si="1">IF(O7&lt;10,1,ROUNDUP(O7/10,0))</f>
@@ -11842,8 +11958,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA9" s="63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>122</v>
       </c>
@@ -11874,43 +11996,49 @@
       </c>
       <c r="N10">
         <f>N9*$AA$6</f>
-        <v>9</v>
+        <v>6000</v>
       </c>
       <c r="O10">
         <f>O9*$AA$6</f>
-        <v>18</v>
+        <v>4000</v>
       </c>
       <c r="P10">
         <f>P9*$AA$6</f>
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="O10:W10" si="2">Q9*$AA$6</f>
-        <v>9</v>
+        <f t="shared" ref="Q10:W10" si="2">Q9*$AA$6</f>
+        <v>2000</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="U10">
         <f>U9*$AA$6</f>
-        <v>18</v>
+        <v>4000</v>
       </c>
       <c r="V10">
         <f>V9*$AA$6</f>
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2000</v>
+      </c>
+      <c r="Z10" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA10" s="59">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11943,7 +12071,6 @@
         <v>113</v>
       </c>
       <c r="N11">
-        <f>AA5*MAX(N9:W9)</f>
         <v>4000</v>
       </c>
     </row>
@@ -11978,7 +12105,7 @@
       </c>
       <c r="N12">
         <f>SUM(N10:W10)</f>
-        <v>108</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12011,8 +12138,8 @@
         <v>91</v>
       </c>
       <c r="N13">
-        <f>N11+N12*20</f>
-        <v>6160</v>
+        <f>N11+N12*C19</f>
+        <v>872000</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12162,22 +12289,28 @@
         <v>106</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
-        <v>20</v>
+        <f>VLOOKUP(C6,$J$6:$K$17,2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="D19" s="46">
+        <f t="shared" ref="D19:G19" si="4">VLOOKUP(D6,$J$6:$K$17,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E19" s="46">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="46">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G19" s="46">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H19" s="46">
+        <f>VLOOKUP(H6,$J$6:$K$17,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
         <v>85</v>
@@ -12193,31 +12326,34 @@
         <v>96</v>
       </c>
       <c r="C20" s="26">
-        <f t="shared" ref="C20:H20" si="4">C18/C19</f>
-        <v>113.85</v>
+        <f t="shared" ref="C20:H20" si="5">C18/C19</f>
+        <v>73.451612903225808</v>
       </c>
       <c r="D20" s="26">
-        <f t="shared" si="4"/>
-        <v>137.25</v>
+        <f t="shared" si="5"/>
+        <v>91.5</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="4"/>
-        <v>155.1</v>
+        <f t="shared" si="5"/>
+        <v>100.06451612903226</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="4"/>
-        <v>119.15</v>
+        <f t="shared" si="5"/>
+        <v>76.870967741935488</v>
       </c>
       <c r="G20" s="26">
-        <f t="shared" si="4"/>
-        <v>107.25</v>
+        <f t="shared" si="5"/>
+        <v>76.607142857142861</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="4"/>
-        <v>55.05</v>
+        <f t="shared" si="5"/>
+        <v>35.516129032258064</v>
       </c>
       <c r="I20" s="29">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="J20">
+        <v>92</v>
       </c>
       <c r="M20" t="s">
         <v>117</v>
@@ -12252,7 +12388,7 @@
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="I22">
         <f>I20/SUM(N6:W6)</f>
-        <v>3.4375</v>
+        <v>4.5625</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
@@ -12317,10 +12453,10 @@
       <c r="W31">
         <v>20</v>
       </c>
-      <c r="Z31" s="51" t="s">
+      <c r="Z31" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="AA31" s="51">
+      <c r="AA31" s="48">
         <v>2000</v>
       </c>
     </row>
@@ -12349,44 +12485,44 @@
       <c r="K32" s="34">
         <v>31</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="50" t="s">
+      <c r="L32" s="54"/>
+      <c r="M32" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="N32" s="50">
+      <c r="N32" s="47">
         <v>1</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="48">
         <v>3</v>
       </c>
-      <c r="P32" s="51">
+      <c r="P32" s="48">
         <v>2</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="48">
         <v>1</v>
       </c>
-      <c r="R32" s="51">
+      <c r="R32" s="48">
         <v>1</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="48">
         <v>1</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T32" s="48">
         <v>1</v>
       </c>
-      <c r="U32" s="51">
+      <c r="U32" s="48">
         <v>3</v>
       </c>
-      <c r="V32" s="51">
+      <c r="V32" s="48">
         <v>2</v>
       </c>
-      <c r="W32" s="51">
+      <c r="W32" s="48">
         <v>1</v>
       </c>
-      <c r="Z32" s="51" t="s">
+      <c r="Z32" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="AA32" s="51">
+      <c r="AA32" s="48">
         <v>9</v>
       </c>
     </row>
@@ -12415,48 +12551,48 @@
       <c r="K33" s="34">
         <v>28</v>
       </c>
-      <c r="L33" s="48"/>
+      <c r="L33" s="55"/>
       <c r="M33" s="28" t="s">
         <v>92</v>
       </c>
       <c r="N33" s="27">
-        <f t="shared" ref="N33:O33" si="5">$I$48*N32</f>
+        <f t="shared" ref="N33" si="6">$I$48*N32</f>
         <v>3.4375</v>
       </c>
       <c r="O33" s="27">
-        <f t="shared" ref="O33" si="6">$I$48*O32</f>
+        <f t="shared" ref="O33" si="7">$I$48*O32</f>
         <v>10.3125</v>
       </c>
       <c r="P33" s="27">
-        <f t="shared" ref="P33" si="7">$I$48*P32</f>
+        <f t="shared" ref="P33" si="8">$I$48*P32</f>
         <v>6.875</v>
       </c>
       <c r="Q33" s="27">
-        <f t="shared" ref="Q33" si="8">$I$48*Q32</f>
+        <f t="shared" ref="Q33" si="9">$I$48*Q32</f>
         <v>3.4375</v>
       </c>
       <c r="R33" s="27">
-        <f t="shared" ref="R33" si="9">$I$48*R32</f>
+        <f t="shared" ref="R33" si="10">$I$48*R32</f>
         <v>3.4375</v>
       </c>
       <c r="S33" s="27">
-        <f t="shared" ref="S33" si="10">$I$48*S32</f>
+        <f t="shared" ref="S33" si="11">$I$48*S32</f>
         <v>3.4375</v>
       </c>
       <c r="T33" s="27">
-        <f t="shared" ref="T33" si="11">$I$48*T32</f>
+        <f t="shared" ref="T33" si="12">$I$48*T32</f>
         <v>3.4375</v>
       </c>
       <c r="U33" s="27">
-        <f t="shared" ref="U33" si="12">$I$48*U32</f>
+        <f t="shared" ref="U33" si="13">$I$48*U32</f>
         <v>10.3125</v>
       </c>
       <c r="V33" s="27">
-        <f t="shared" ref="V33" si="13">$I$48*V32</f>
+        <f t="shared" ref="V33" si="14">$I$48*V32</f>
         <v>6.875</v>
       </c>
       <c r="W33" s="27">
-        <f t="shared" ref="W33" si="14">$I$48*W32</f>
+        <f t="shared" ref="W33" si="15">$I$48*W32</f>
         <v>3.4375</v>
       </c>
     </row>
@@ -12494,39 +12630,39 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:W34" si="15">IF(O33&lt;20,1,ROUNDUP(O33/20,0))</f>
+        <f t="shared" ref="O34:W34" si="16">IF(O33&lt;20,1,ROUNDUP(O33/20,0))</f>
         <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="R34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="T34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -12572,31 +12708,31 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:Y35" si="16">IF(Q33&lt;10,1,ROUNDUP(Q33/10,0))</f>
+        <f t="shared" ref="Q35:W35" si="17">IF(Q33&lt;10,1,ROUNDUP(Q33/10,0))</f>
         <v>1</v>
       </c>
       <c r="R35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="T35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="V35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -12646,27 +12782,27 @@
         <v>9</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36:W36" si="17">$AA$32*(SUM(R34:R35)-1)</f>
+        <f t="shared" ref="R36:W36" si="18">$AA$32*(SUM(R34:R35)-1)</f>
         <v>9</v>
       </c>
       <c r="S36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="T36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="U36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="V36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="W36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
     </row>
@@ -12885,27 +13021,27 @@
         <v>97</v>
       </c>
       <c r="C44" s="44">
-        <f t="shared" ref="C44:H44" si="18">SUM(C33:C43)</f>
+        <f t="shared" ref="C44:H44" si="19">SUM(C33:C43)</f>
         <v>2277</v>
       </c>
       <c r="D44" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2745</v>
       </c>
       <c r="E44" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3102</v>
       </c>
       <c r="F44" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2383</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2145</v>
       </c>
       <c r="H44" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1101</v>
       </c>
       <c r="K44" s="32"/>
@@ -12950,27 +13086,27 @@
         <v>96</v>
       </c>
       <c r="C46" s="26">
-        <f t="shared" ref="C46:H46" si="19">C44/C45</f>
+        <f t="shared" ref="C46:H46" si="20">C44/C45</f>
         <v>113.85</v>
       </c>
       <c r="D46" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>137.25</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>155.1</v>
       </c>
       <c r="F46" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>119.15</v>
       </c>
       <c r="G46" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>107.25</v>
       </c>
       <c r="H46" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>55.05</v>
       </c>
       <c r="I46" s="29">
@@ -13010,7 +13146,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L32:L33"/>
   </mergeCells>
@@ -13023,8 +13160,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:AH35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB1:AB17"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13040,10 +13177,10 @@
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="5">
         <v>2018</v>
       </c>
@@ -13122,16 +13259,16 @@
       <c r="AD4">
         <v>20</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AH4" s="51">
+      <c r="AH4" s="48">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
@@ -13177,43 +13314,43 @@
       <c r="R5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="47">
         <v>1</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="48">
         <v>3</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="48">
         <v>2</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="48">
         <v>1</v>
       </c>
-      <c r="Y5" s="51">
+      <c r="Y5" s="48">
         <v>1</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="48">
         <v>1</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="48">
         <v>1</v>
       </c>
-      <c r="AB5" s="51">
+      <c r="AB5" s="48">
         <v>3</v>
       </c>
-      <c r="AC5" s="51">
+      <c r="AC5" s="48">
         <v>2</v>
       </c>
-      <c r="AD5" s="51">
+      <c r="AD5" s="48">
         <v>1</v>
       </c>
-      <c r="AG5" s="51" t="s">
+      <c r="AG5" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AH5" s="51">
+      <c r="AH5" s="48">
         <v>9</v>
       </c>
     </row>
@@ -13273,49 +13410,49 @@
         <v>92</v>
       </c>
       <c r="U6" s="27">
-        <f>$D$25*U5</f>
+        <f t="shared" ref="U6:AD6" si="0">$D$25*U5</f>
         <v>62.5</v>
       </c>
       <c r="V6" s="27">
-        <f>$D$25*V5</f>
+        <f t="shared" si="0"/>
         <v>187.5</v>
       </c>
       <c r="W6" s="27">
-        <f>$D$25*W5</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="X6" s="27">
-        <f>$D$25*X5</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="Y6" s="27">
-        <f>$D$25*Y5</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="Z6" s="27">
-        <f>$D$25*Z5</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="AA6" s="27">
-        <f>$D$25*AA5</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="AB6" s="27">
-        <f>$D$25*AB5</f>
+        <f t="shared" si="0"/>
         <v>187.5</v>
       </c>
       <c r="AC6" s="27">
-        <f>$D$25*AC5</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="AD6" s="27">
-        <f>$D$25*AD5</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="AG6" s="51" t="s">
+      <c r="AG6" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AH6" s="51">
+      <c r="AH6" s="48">
         <v>1</v>
       </c>
     </row>
@@ -13387,31 +13524,31 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:AD7" si="0">IF(X6&lt;10,1,ROUNDUP(X6/20,0))</f>
+        <f t="shared" ref="X7:AD7" si="1">IF(X6&lt;10,1,ROUNDUP(X6/20,0))</f>
         <v>4</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13479,19 +13616,19 @@
         <v>19</v>
       </c>
       <c r="W8">
-        <f t="shared" ref="W8:AD8" si="1">IF(W6&lt;10,1,ROUNDUP(W6/10,0))</f>
+        <f t="shared" ref="W8:AD8" si="2">IF(W6&lt;10,1,ROUNDUP(W6/10,0))</f>
         <v>13</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AA8">
@@ -13503,11 +13640,11 @@
         <v>19</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -13571,39 +13708,39 @@
         <v>90</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:AD9" si="2">IF(AI6&gt;SUM(V7:V8),$AH$5*(SUM(V7:V8)-1),$AH$5*(SUM(V7:V8)-AI6))</f>
+        <f t="shared" ref="V9:AD9" si="3">IF(AI6&gt;SUM(V7:V8),$AH$5*(SUM(V7:V8)-1),$AH$5*(SUM(V7:V8)-AI6))</f>
         <v>261</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
     </row>
@@ -14014,89 +14151,89 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="49" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="44">
-        <f>SUM(D6:D16)</f>
+        <f t="shared" ref="D20:R20" si="4">SUM(D6:D16)</f>
         <v>1769</v>
       </c>
       <c r="E20" s="44">
-        <f>SUM(E6:E16)</f>
+        <f t="shared" si="4"/>
         <v>1666</v>
       </c>
       <c r="F20" s="44">
-        <f>SUM(F6:F16)</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="G20" s="44">
-        <f>SUM(G6:G16)</f>
+        <f t="shared" si="4"/>
         <v>1720</v>
       </c>
       <c r="H20" s="44">
-        <f>SUM(H6:H16)</f>
+        <f t="shared" si="4"/>
         <v>648</v>
       </c>
       <c r="I20" s="44">
-        <f>SUM(I6:I16)</f>
+        <f t="shared" si="4"/>
         <v>1987</v>
       </c>
       <c r="J20" s="44">
-        <f>SUM(J6:J16)</f>
+        <f t="shared" si="4"/>
         <v>1608</v>
       </c>
       <c r="K20" s="44">
-        <f>SUM(K6:K16)</f>
+        <f t="shared" si="4"/>
         <v>1384</v>
       </c>
       <c r="L20" s="44">
-        <f>SUM(L6:L16)</f>
+        <f t="shared" si="4"/>
         <v>1305</v>
       </c>
       <c r="M20" s="44">
-        <f>SUM(M6:M16)</f>
+        <f t="shared" si="4"/>
         <v>1229</v>
       </c>
       <c r="N20" s="44">
-        <f>SUM(N6:N16)</f>
+        <f t="shared" si="4"/>
         <v>1405</v>
       </c>
       <c r="O20" s="44">
-        <f>SUM(O6:O16)</f>
+        <f t="shared" si="4"/>
         <v>1534</v>
       </c>
       <c r="P20" s="44">
-        <f>SUM(P6:P16)</f>
+        <f t="shared" si="4"/>
         <v>1630</v>
       </c>
       <c r="Q20" s="44">
-        <f>SUM(Q6:Q16)</f>
+        <f t="shared" si="4"/>
         <v>568</v>
       </c>
       <c r="R20" s="44">
-        <f>SUM(R6:R16)</f>
+        <f t="shared" si="4"/>
         <v>1332</v>
       </c>
-      <c r="T20" s="56">
+      <c r="T20" s="52">
         <f>U10+U11*20</f>
         <v>31340</v>
       </c>
-      <c r="U20" s="54"/>
+      <c r="U20" s="50"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
@@ -14142,89 +14279,89 @@
       <c r="R21" s="44">
         <v>20</v>
       </c>
-      <c r="T21" s="55">
+      <c r="T21" s="51">
         <v>88.45</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="49">
         <f t="dataTable" ref="U21:U35" dt2D="1" dtr="1" r1="D24" r2="U12"/>
         <v>5420</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="26">
         <f>D20/D21</f>
         <v>88.45</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" ref="E22:R22" si="3">E20/E21</f>
+        <f t="shared" ref="E22:R22" si="5">E20/E21</f>
         <v>83.3</v>
       </c>
       <c r="F22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32.4</v>
       </c>
       <c r="I22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99.35</v>
       </c>
       <c r="J22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80.400000000000006</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69.2</v>
       </c>
       <c r="L22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65.25</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61.45</v>
       </c>
       <c r="N22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70.25</v>
       </c>
       <c r="O22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.7</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>81.5</v>
       </c>
       <c r="Q22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.4</v>
       </c>
       <c r="R22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66.599999999999994</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="51">
         <v>83.3</v>
       </c>
-      <c r="U22" s="53">
+      <c r="U22" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="44"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -14240,121 +14377,121 @@
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
-      <c r="T23" s="55">
+      <c r="T23" s="51">
         <v>60</v>
       </c>
-      <c r="U23" s="53">
+      <c r="U23" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="43">
         <v>1000</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="51">
         <v>86</v>
       </c>
-      <c r="U24" s="53">
+      <c r="U24" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="25">
         <f>D24/SUM(U5:AD5)</f>
         <v>62.5</v>
       </c>
-      <c r="T25" s="55">
+      <c r="T25" s="51">
         <v>32.4</v>
       </c>
-      <c r="U25" s="53">
+      <c r="U25" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T26" s="55">
+      <c r="T26" s="51">
         <v>99.35</v>
       </c>
-      <c r="U26" s="53">
+      <c r="U26" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T27" s="55">
+      <c r="T27" s="51">
         <v>80.400000000000006</v>
       </c>
-      <c r="U27" s="53">
+      <c r="U27" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T28" s="55">
+      <c r="T28" s="51">
         <v>69.2</v>
       </c>
-      <c r="U28" s="53">
+      <c r="U28" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T29" s="55">
+      <c r="T29" s="51">
         <v>65.25</v>
       </c>
-      <c r="U29" s="53">
+      <c r="U29" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T30" s="55">
+      <c r="T30" s="51">
         <v>61.45</v>
       </c>
-      <c r="U30" s="53">
+      <c r="U30" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T31" s="55">
+      <c r="T31" s="51">
         <v>70.25</v>
       </c>
-      <c r="U31" s="53">
+      <c r="U31" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T32" s="55">
+      <c r="T32" s="51">
         <v>76.7</v>
       </c>
-      <c r="U32" s="53">
+      <c r="U32" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="33" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T33" s="55">
+      <c r="T33" s="51">
         <v>81.5</v>
       </c>
-      <c r="U33" s="53">
+      <c r="U33" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="34" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T34" s="55">
+      <c r="T34" s="51">
         <v>28.4</v>
       </c>
-      <c r="U34" s="53">
+      <c r="U34" s="49">
         <v>5420</v>
       </c>
     </row>
     <row r="35" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T35" s="55">
+      <c r="T35" s="51">
         <v>66.599999999999994</v>
       </c>
-      <c r="U35" s="53">
+      <c r="U35" s="49">
         <v>5420</v>
       </c>
     </row>
@@ -14373,9 +14510,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14564,27 +14704,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471B859E-A642-4B07-83F5-4D3E41705474}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1d7ff15b-21c4-4e42-8404-310e502b1a8d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14609,9 +14737,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471B859E-A642-4B07-83F5-4D3E41705474}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1d7ff15b-21c4-4e42-8404-310e502b1a8d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Matt's calculations.xlsx
+++ b/Data/Matt's calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Tan\Documents\GitHub\soiSMA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56DBFA-430C-48E5-B2F8-8315CC5806EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF31DA3-898F-404C-A06B-9B5FBBF9CD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
+    <workbookView xWindow="28680" yWindow="-7650" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AFBF6E79-7CD7-4EBB-9033-3901448E03DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -961,21 +961,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +974,22 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4696,10 +4696,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="53"/>
+      <c r="AJ3" s="60"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -4832,8 +4832,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -8177,8 +8177,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:AZ118"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8294,10 +8294,10 @@
       <c r="AG3" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="53"/>
+      <c r="AJ3" s="60"/>
       <c r="AK3" s="2">
         <v>2018</v>
       </c>
@@ -8412,8 +8412,8 @@
       <c r="AG4">
         <v>5.1350000000000007</v>
       </c>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
       <c r="AK4" s="2" t="s">
         <v>56</v>
       </c>
@@ -11594,7 +11594,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:AA48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K43" sqref="J32:K43"/>
     </sheetView>
   </sheetViews>
@@ -11617,10 +11617,10 @@
       <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="AA4" s="65"/>
+      <c r="AA4" s="61"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
@@ -11674,10 +11674,10 @@
       <c r="W5">
         <v>20</v>
       </c>
-      <c r="Z5" s="58" t="s">
+      <c r="Z5" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="AA5" s="58">
+      <c r="AA5" s="53">
         <v>2</v>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
       <c r="K6" s="34">
         <v>31</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="62"/>
       <c r="M6" s="47" t="s">
         <v>93</v>
       </c>
@@ -11740,10 +11740,10 @@
       <c r="W6" s="48">
         <v>1</v>
       </c>
-      <c r="Z6" s="58" t="s">
+      <c r="Z6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="53">
         <v>2000</v>
       </c>
     </row>
@@ -11772,7 +11772,7 @@
       <c r="K7" s="34">
         <v>28</v>
       </c>
-      <c r="L7" s="55"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="28" t="s">
         <v>92</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>4.5625</v>
       </c>
       <c r="O7" s="27">
-        <f t="shared" ref="N7:W7" si="0">$I$22*O6</f>
+        <f t="shared" ref="O7:W7" si="0">$I$22*O6</f>
         <v>13.6875</v>
       </c>
       <c r="P7" s="27">
@@ -11816,10 +11816,10 @@
         <f t="shared" si="0"/>
         <v>4.5625</v>
       </c>
-      <c r="Z7" s="58" t="s">
+      <c r="Z7" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="AA7" s="58">
+      <c r="AA7" s="53">
         <v>9</v>
       </c>
     </row>
@@ -11882,10 +11882,10 @@
       <c r="W8">
         <v>2</v>
       </c>
-      <c r="Z8" s="60" t="s">
+      <c r="Z8" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="AA8" s="61">
+      <c r="AA8" s="56">
         <v>77</v>
       </c>
     </row>
@@ -11958,10 +11958,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="62" t="s">
+      <c r="Z9" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AA9" s="63">
+      <c r="AA9" s="58">
         <v>31</v>
       </c>
     </row>
@@ -12034,10 +12034,10 @@
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="Z10" s="64" t="s">
+      <c r="Z10" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AA10" s="59">
+      <c r="AA10" s="54">
         <v>5</v>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       <c r="K32" s="34">
         <v>31</v>
       </c>
-      <c r="L32" s="54"/>
+      <c r="L32" s="62"/>
       <c r="M32" s="47" t="s">
         <v>93</v>
       </c>
@@ -12551,7 +12551,7 @@
       <c r="K33" s="34">
         <v>28</v>
       </c>
-      <c r="L33" s="55"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="28" t="s">
         <v>92</v>
       </c>
@@ -13160,7 +13160,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:AH35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AH35"/>
     </sheetView>
   </sheetViews>
@@ -13177,10 +13177,10 @@
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="5">
         <v>2018</v>
       </c>
@@ -13267,8 +13267,8 @@
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
@@ -14159,10 +14159,10 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="44">
         <f t="shared" ref="D20:R20" si="4">SUM(D6:D16)</f>
         <v>1769</v>
@@ -14230,10 +14230,10 @@
       <c r="U20" s="50"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
@@ -14288,10 +14288,10 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="26">
         <f>D20/D21</f>
         <v>88.45</v>
@@ -14360,8 +14360,8 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="44"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -14385,10 +14385,10 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="43">
         <v>1000</v>
       </c>
@@ -14400,10 +14400,10 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="25">
         <f>D24/SUM(U5:AD5)</f>
         <v>62.5</v>
@@ -14510,12 +14510,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14704,15 +14701,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471B859E-A642-4B07-83F5-4D3E41705474}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1d7ff15b-21c4-4e42-8404-310e502b1a8d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14737,18 +14746,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471B859E-A642-4B07-83F5-4D3E41705474}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC46E8E-B65A-4ED5-B97F-B109E7817046}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1d7ff15b-21c4-4e42-8404-310e502b1a8d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f68e04f-749a-4f9f-b073-6c8e4caa1efe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>